--- a/SamplesLibrary/Files/Windows/ChartGallery.xlsx
+++ b/SamplesLibrary/Files/Windows/ChartGallery.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SG\dev\WindowsSamples\SpreadsheetGearExplorer\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD55F4C5-3D05-4337-8B3D-9012396EA9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="0" windowWidth="13212" windowHeight="7872"/>
+    <workbookView xWindow="6630" yWindow="6630" windowWidth="43200" windowHeight="23295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Column" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,18 @@
   <definedNames>
     <definedName name="Data1">Radar!$J$2:$K$20</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -372,7 +384,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
@@ -467,11 +479,11 @@
   <cellStyles count="7">
     <cellStyle name="Currency" xfId="4" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="5"/>
-    <cellStyle name="Normal 3" xfId="6"/>
-    <cellStyle name="Normal_Bar" xfId="2"/>
-    <cellStyle name="Normal_Column" xfId="1"/>
-    <cellStyle name="Normal_Stock" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal_Bar" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal_Column" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal_Stock" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -524,13 +536,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" baseline="0"/>
-              <a:t> 2017</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1200"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -787,7 +794,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1236,7 +1243,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1625,7 +1632,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2014,7 +2021,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2426,7 +2433,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2673,7 +2680,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2985,7 +2992,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3250,7 +3257,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3646,7 +3653,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3895,7 +3902,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4058,7 +4065,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4391,7 +4398,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4581,7 +4588,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5049,7 +5056,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5401,7 +5408,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5800,7 +5807,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6058,7 +6065,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6382,7 +6389,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6609,7 +6616,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6984,7 +6991,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7707,7 +7714,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8092,7 +8099,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8325,7 +8332,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8678,7 +8685,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9057,7 +9064,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9436,7 +9443,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9788,7 +9795,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -10124,7 +10131,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -10543,7 +10550,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -12964,7 +12971,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -13465,7 +13472,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -13807,7 +13814,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -14161,7 +14168,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -14524,7 +14531,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -16913,7 +16920,7 @@
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -17801,7 +17808,7 @@
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -18989,7 +18996,7 @@
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -20122,7 +20129,7 @@
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -21550,7 +21557,7 @@
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -22378,7 +22385,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -22772,7 +22779,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -23346,7 +23353,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -24031,7 +24038,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -24478,7 +24485,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -24730,7 +24737,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -25016,7 +25023,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -25280,7 +25287,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -25840,7 +25847,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -26175,7 +26182,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -26644,7 +26651,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -27129,7 +27136,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -27927,7 +27934,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -28397,7 +28404,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -28716,7 +28723,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -29021,7 +29028,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -29657,7 +29664,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2017</a:t>
+              <a:t>Created with SpreadsheetGear 2021</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -32345,18 +32352,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="I3:AA182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I3" s="11">
         <v>100</v>
       </c>
@@ -32370,7 +32377,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I4" s="11">
         <v>100</v>
       </c>
@@ -32384,19 +32391,19 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I21">
         <v>103</v>
       </c>
@@ -32407,7 +32414,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I22">
         <v>56</v>
       </c>
@@ -32418,7 +32425,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I23">
         <v>116</v>
       </c>
@@ -32429,7 +32436,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I24">
         <v>55</v>
       </c>
@@ -32440,7 +32447,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I25">
         <v>114</v>
       </c>
@@ -32451,7 +32458,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I26">
         <v>125</v>
       </c>
@@ -32462,7 +32469,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I39">
         <v>1</v>
       </c>
@@ -32470,7 +32477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I40">
         <v>2</v>
       </c>
@@ -32478,7 +32485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I41">
         <v>3</v>
       </c>
@@ -32486,7 +32493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I42">
         <v>4</v>
       </c>
@@ -32494,7 +32501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I43">
         <v>5</v>
       </c>
@@ -32502,7 +32509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I44">
         <v>5</v>
       </c>
@@ -32510,7 +32517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I57" t="s">
         <v>58</v>
       </c>
@@ -32521,7 +32528,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="58" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I58" t="s">
         <v>59</v>
       </c>
@@ -32532,7 +32539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I59" t="s">
         <v>60</v>
       </c>
@@ -32543,7 +32550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I60" t="s">
         <v>72</v>
       </c>
@@ -32554,7 +32561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I61" t="s">
         <v>73</v>
       </c>
@@ -32565,7 +32572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I62" t="s">
         <v>74</v>
       </c>
@@ -32576,7 +32583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I63" t="s">
         <v>75</v>
       </c>
@@ -32587,7 +32594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I64" t="s">
         <v>76</v>
       </c>
@@ -32598,7 +32605,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="75" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="9:12" x14ac:dyDescent="0.25">
       <c r="J75" t="s">
         <v>15</v>
       </c>
@@ -32609,7 +32616,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I76" t="s">
         <v>61</v>
       </c>
@@ -32623,7 +32630,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I77" t="s">
         <v>62</v>
       </c>
@@ -32637,7 +32644,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I78" t="s">
         <v>63</v>
       </c>
@@ -32651,7 +32658,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I79" t="s">
         <v>64</v>
       </c>
@@ -32665,7 +32672,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I80" t="s">
         <v>56</v>
       </c>
@@ -32679,7 +32686,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I81" t="s">
         <v>65</v>
       </c>
@@ -32693,7 +32700,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="93" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I93" s="2" t="s">
         <v>0</v>
       </c>
@@ -32701,7 +32708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I94" s="2" t="s">
         <v>1</v>
       </c>
@@ -32709,7 +32716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I95" s="2" t="s">
         <v>2</v>
       </c>
@@ -32717,7 +32724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I96" s="2" t="s">
         <v>3</v>
       </c>
@@ -32725,7 +32732,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I97" s="2" t="s">
         <v>4</v>
       </c>
@@ -32733,7 +32740,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I98" s="2" t="s">
         <v>5</v>
       </c>
@@ -32741,7 +32748,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="99" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I99" s="2" t="s">
         <v>6</v>
       </c>
@@ -32749,7 +32756,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I100" s="2" t="s">
         <v>7</v>
       </c>
@@ -32757,7 +32764,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I101" s="2" t="s">
         <v>8</v>
       </c>
@@ -32765,7 +32772,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I102" s="2" t="s">
         <v>25</v>
       </c>
@@ -32773,7 +32780,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I103" s="2" t="s">
         <v>26</v>
       </c>
@@ -32781,28 +32788,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I111" t="s">
         <v>52</v>
       </c>
@@ -32810,7 +32817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I112" t="s">
         <v>53</v>
       </c>
@@ -32818,7 +32825,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I113" t="s">
         <v>54</v>
       </c>
@@ -32826,7 +32833,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="114" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I114" t="s">
         <v>55</v>
       </c>
@@ -32834,7 +32841,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I115" t="s">
         <v>56</v>
       </c>
@@ -32842,7 +32849,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="116" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I116" t="s">
         <v>57</v>
       </c>
@@ -32850,7 +32857,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="117" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I117" t="s">
         <v>77</v>
       </c>
@@ -32858,7 +32865,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="118" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I118" t="s">
         <v>78</v>
       </c>
@@ -32866,37 +32873,37 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="119" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I128" s="2"/>
     </row>
-    <row r="129" spans="9:18" x14ac:dyDescent="0.3">
+    <row r="129" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I129" t="s">
         <v>100</v>
       </c>
@@ -32922,7 +32929,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="130" spans="9:18" x14ac:dyDescent="0.3">
+    <row r="130" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I130">
         <v>1206</v>
       </c>
@@ -32955,7 +32962,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="131" spans="9:18" x14ac:dyDescent="0.3">
+    <row r="131" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I131">
         <v>1736</v>
       </c>
@@ -32988,7 +32995,7 @@
         <v>1276.25</v>
       </c>
     </row>
-    <row r="132" spans="9:18" x14ac:dyDescent="0.3">
+    <row r="132" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I132">
         <v>1108</v>
       </c>
@@ -33021,7 +33028,7 @@
         <v>1487.4375</v>
       </c>
     </row>
-    <row r="133" spans="9:18" x14ac:dyDescent="0.3">
+    <row r="133" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I133">
         <v>1743</v>
       </c>
@@ -33054,7 +33061,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="134" spans="9:18" x14ac:dyDescent="0.3">
+    <row r="134" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I134">
         <v>1482</v>
       </c>
@@ -33087,7 +33094,7 @@
         <v>1698.25</v>
       </c>
     </row>
-    <row r="135" spans="9:18" x14ac:dyDescent="0.3">
+    <row r="135" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I135">
         <v>1616</v>
       </c>
@@ -33120,7 +33127,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="136" spans="9:18" x14ac:dyDescent="0.3">
+    <row r="136" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I136">
         <v>1688</v>
       </c>
@@ -33153,7 +33160,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="137" spans="9:18" x14ac:dyDescent="0.3">
+    <row r="137" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I137">
         <v>1700</v>
       </c>
@@ -33186,7 +33193,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="138" spans="9:18" x14ac:dyDescent="0.3">
+    <row r="138" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I138">
         <v>1602</v>
       </c>
@@ -33219,7 +33226,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="139" spans="9:18" x14ac:dyDescent="0.3">
+    <row r="139" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I139">
         <v>1480</v>
       </c>
@@ -33252,7 +33259,7 @@
         <v>1276.25</v>
       </c>
     </row>
-    <row r="140" spans="9:18" x14ac:dyDescent="0.3">
+    <row r="140" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I140">
         <v>1764</v>
       </c>
@@ -33285,7 +33292,7 @@
         <v>100.75</v>
       </c>
     </row>
-    <row r="141" spans="9:18" x14ac:dyDescent="0.3">
+    <row r="141" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I141">
         <v>1170</v>
       </c>
@@ -33318,7 +33325,7 @@
         <v>321.25</v>
       </c>
     </row>
-    <row r="142" spans="9:18" x14ac:dyDescent="0.3">
+    <row r="142" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I142">
         <v>1728</v>
       </c>
@@ -33351,7 +33358,7 @@
         <v>122.25</v>
       </c>
     </row>
-    <row r="143" spans="9:18" x14ac:dyDescent="0.3">
+    <row r="143" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I143">
         <v>1732</v>
       </c>
@@ -33384,7 +33391,7 @@
         <v>298.75</v>
       </c>
     </row>
-    <row r="144" spans="9:18" x14ac:dyDescent="0.3">
+    <row r="144" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I144">
         <v>1074</v>
       </c>
@@ -33417,7 +33424,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="9:27" x14ac:dyDescent="0.3">
+    <row r="145" spans="9:27" x14ac:dyDescent="0.25">
       <c r="I145">
         <v>1883</v>
       </c>
@@ -33450,10 +33457,10 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="146" spans="9:27" x14ac:dyDescent="0.3">
+    <row r="146" spans="9:27" x14ac:dyDescent="0.25">
       <c r="I146" s="2"/>
     </row>
-    <row r="147" spans="9:27" x14ac:dyDescent="0.3">
+    <row r="147" spans="9:27" x14ac:dyDescent="0.25">
       <c r="I147">
         <v>1</v>
       </c>
@@ -33512,58 +33519,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="9:27" x14ac:dyDescent="0.3">
+    <row r="148" spans="9:27" x14ac:dyDescent="0.25">
       <c r="M148" s="1"/>
     </row>
-    <row r="149" spans="9:27" x14ac:dyDescent="0.3">
+    <row r="149" spans="9:27" x14ac:dyDescent="0.25">
       <c r="M149" s="1"/>
     </row>
-    <row r="150" spans="9:27" x14ac:dyDescent="0.3">
+    <row r="150" spans="9:27" x14ac:dyDescent="0.25">
       <c r="M150" s="1"/>
     </row>
-    <row r="151" spans="9:27" x14ac:dyDescent="0.3">
+    <row r="151" spans="9:27" x14ac:dyDescent="0.25">
       <c r="M151" s="1"/>
     </row>
-    <row r="152" spans="9:27" x14ac:dyDescent="0.3">
+    <row r="152" spans="9:27" x14ac:dyDescent="0.25">
       <c r="M152" s="1"/>
     </row>
-    <row r="153" spans="9:27" x14ac:dyDescent="0.3">
+    <row r="153" spans="9:27" x14ac:dyDescent="0.25">
       <c r="M153" s="1"/>
     </row>
-    <row r="154" spans="9:27" x14ac:dyDescent="0.3">
+    <row r="154" spans="9:27" x14ac:dyDescent="0.25">
       <c r="M154" s="1"/>
     </row>
-    <row r="155" spans="9:27" x14ac:dyDescent="0.3">
+    <row r="155" spans="9:27" x14ac:dyDescent="0.25">
       <c r="M155" s="1"/>
     </row>
-    <row r="156" spans="9:27" x14ac:dyDescent="0.3">
+    <row r="156" spans="9:27" x14ac:dyDescent="0.25">
       <c r="M156" s="1"/>
     </row>
-    <row r="157" spans="9:27" x14ac:dyDescent="0.3">
+    <row r="157" spans="9:27" x14ac:dyDescent="0.25">
       <c r="M157" s="1"/>
     </row>
-    <row r="158" spans="9:27" x14ac:dyDescent="0.3">
+    <row r="158" spans="9:27" x14ac:dyDescent="0.25">
       <c r="M158" s="1"/>
     </row>
-    <row r="159" spans="9:27" x14ac:dyDescent="0.3">
+    <row r="159" spans="9:27" x14ac:dyDescent="0.25">
       <c r="M159" s="1"/>
     </row>
-    <row r="160" spans="9:27" x14ac:dyDescent="0.3">
+    <row r="160" spans="9:27" x14ac:dyDescent="0.25">
       <c r="M160" s="1"/>
     </row>
-    <row r="161" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="9:14" x14ac:dyDescent="0.25">
       <c r="M161" s="1"/>
     </row>
-    <row r="162" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="9:14" x14ac:dyDescent="0.25">
       <c r="M162" s="1"/>
     </row>
-    <row r="163" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="9:14" x14ac:dyDescent="0.25">
       <c r="M163" s="1"/>
     </row>
-    <row r="164" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="9:14" x14ac:dyDescent="0.25">
       <c r="M164" s="1"/>
     </row>
-    <row r="165" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="9:14" x14ac:dyDescent="0.25">
       <c r="J165" t="s">
         <v>33</v>
       </c>
@@ -33572,7 +33579,7 @@
       </c>
       <c r="N165" s="1"/>
     </row>
-    <row r="166" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I166" t="s">
         <v>58</v>
       </c>
@@ -33584,7 +33591,7 @@
       </c>
       <c r="N166" s="1"/>
     </row>
-    <row r="167" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I167" t="s">
         <v>59</v>
       </c>
@@ -33596,7 +33603,7 @@
       </c>
       <c r="N167" s="1"/>
     </row>
-    <row r="168" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I168" t="s">
         <v>60</v>
       </c>
@@ -33608,46 +33615,46 @@
       </c>
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="9:14" x14ac:dyDescent="0.25">
       <c r="M169" s="1"/>
     </row>
-    <row r="170" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="9:14" x14ac:dyDescent="0.25">
       <c r="M170" s="1"/>
     </row>
-    <row r="171" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="9:14" x14ac:dyDescent="0.25">
       <c r="M171" s="1"/>
     </row>
-    <row r="172" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="9:14" x14ac:dyDescent="0.25">
       <c r="M172" s="1"/>
     </row>
-    <row r="173" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="9:14" x14ac:dyDescent="0.25">
       <c r="M173" s="1"/>
     </row>
-    <row r="174" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="9:14" x14ac:dyDescent="0.25">
       <c r="M174" s="1"/>
     </row>
-    <row r="175" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="9:14" x14ac:dyDescent="0.25">
       <c r="M175" s="1"/>
     </row>
-    <row r="176" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="9:14" x14ac:dyDescent="0.25">
       <c r="M176" s="1"/>
     </row>
-    <row r="177" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M177" s="1"/>
     </row>
-    <row r="178" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M178" s="1"/>
     </row>
-    <row r="179" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M179" s="1"/>
     </row>
-    <row r="180" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M180" s="1"/>
     </row>
-    <row r="181" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M181" s="1"/>
     </row>
-    <row r="182" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M182" s="1"/>
     </row>
   </sheetData>
@@ -33657,18 +33664,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="I3:L87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="11" width="13.44140625" customWidth="1"/>
+    <col min="9" max="11" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
         <v>46</v>
       </c>
@@ -33676,7 +33683,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I4" s="10">
         <v>75</v>
       </c>
@@ -33684,7 +33691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I5" s="10">
         <v>149</v>
       </c>
@@ -33692,7 +33699,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I6" s="10">
         <v>105</v>
       </c>
@@ -33700,7 +33707,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I7" s="10">
         <v>55</v>
       </c>
@@ -33708,7 +33715,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I8" s="10">
         <v>121</v>
       </c>
@@ -33716,7 +33723,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I9" s="10">
         <v>76</v>
       </c>
@@ -33724,7 +33731,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I10" s="10">
         <v>128</v>
       </c>
@@ -33732,7 +33739,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I11" s="10">
         <v>114</v>
       </c>
@@ -33740,7 +33747,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I12" s="10">
         <v>75</v>
       </c>
@@ -33748,7 +33755,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I13" s="10">
         <v>105</v>
       </c>
@@ -33756,7 +33763,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I14" s="10">
         <v>145</v>
       </c>
@@ -33764,7 +33771,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I15" s="10">
         <v>110</v>
       </c>
@@ -33772,7 +33779,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
         <v>48</v>
       </c>
@@ -33780,7 +33787,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I22" t="s">
         <v>52</v>
       </c>
@@ -33791,7 +33798,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I23" t="s">
         <v>53</v>
       </c>
@@ -33802,7 +33809,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
         <v>54</v>
       </c>
@@ -33813,7 +33820,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
         <v>55</v>
       </c>
@@ -33824,7 +33831,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I26" t="s">
         <v>56</v>
       </c>
@@ -33835,7 +33842,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I27" t="s">
         <v>57</v>
       </c>
@@ -33846,7 +33853,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I28" t="s">
         <v>77</v>
       </c>
@@ -33857,7 +33864,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I29" t="s">
         <v>78</v>
       </c>
@@ -33868,7 +33875,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I30" t="s">
         <v>79</v>
       </c>
@@ -33879,7 +33886,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I31" t="s">
         <v>80</v>
       </c>
@@ -33890,7 +33897,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I32" t="s">
         <v>81</v>
       </c>
@@ -33901,7 +33908,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I33" t="s">
         <v>82</v>
       </c>
@@ -33912,7 +33919,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I39" t="s">
         <v>43</v>
       </c>
@@ -33923,7 +33930,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I40">
         <v>1350</v>
       </c>
@@ -33934,7 +33941,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I41">
         <v>1500</v>
       </c>
@@ -33945,7 +33952,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I42">
         <v>1200</v>
       </c>
@@ -33956,7 +33963,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I43">
         <v>1300</v>
       </c>
@@ -33967,7 +33974,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I44">
         <v>1750</v>
       </c>
@@ -33978,7 +33985,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I45">
         <v>1640</v>
       </c>
@@ -33989,7 +33996,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I46">
         <v>1700</v>
       </c>
@@ -34000,7 +34007,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I47">
         <v>1100</v>
       </c>
@@ -34011,7 +34018,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I48">
         <v>1350</v>
       </c>
@@ -34022,7 +34029,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I49">
         <v>1500</v>
       </c>
@@ -34033,7 +34040,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I50">
         <v>1200</v>
       </c>
@@ -34044,7 +34051,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I51">
         <v>1300</v>
       </c>
@@ -34055,7 +34062,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I52">
         <v>1750</v>
       </c>
@@ -34066,7 +34073,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I53">
         <v>1640</v>
       </c>
@@ -34077,7 +34084,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I54">
         <v>1700</v>
       </c>
@@ -34088,7 +34095,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I55">
         <v>1100</v>
       </c>
@@ -34099,7 +34106,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="9:12" x14ac:dyDescent="0.25">
       <c r="J57" t="s">
         <v>83</v>
       </c>
@@ -34110,7 +34117,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I58" t="s">
         <v>61</v>
       </c>
@@ -34124,7 +34131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I59" t="s">
         <v>62</v>
       </c>
@@ -34138,7 +34145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I60" t="s">
         <v>63</v>
       </c>
@@ -34152,7 +34159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I61" t="s">
         <v>64</v>
       </c>
@@ -34166,7 +34173,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I62" t="s">
         <v>56</v>
       </c>
@@ -34180,7 +34187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I63" t="s">
         <v>65</v>
       </c>
@@ -34194,7 +34201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I64" t="s">
         <v>66</v>
       </c>
@@ -34208,7 +34215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I65" t="s">
         <v>67</v>
       </c>
@@ -34222,7 +34229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I66" t="s">
         <v>68</v>
       </c>
@@ -34236,7 +34243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I67" t="s">
         <v>69</v>
       </c>
@@ -34250,7 +34257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I68" t="s">
         <v>70</v>
       </c>
@@ -34264,7 +34271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I69" t="s">
         <v>71</v>
       </c>
@@ -34278,7 +34285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I75" t="s">
         <v>45</v>
       </c>
@@ -34289,7 +34296,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I76" s="10">
         <v>80</v>
       </c>
@@ -34300,7 +34307,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="77" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I77" s="10">
         <v>140</v>
       </c>
@@ -34311,7 +34318,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I78" s="10"/>
       <c r="J78" s="10">
         <v>30</v>
@@ -34320,7 +34327,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I79" s="10"/>
       <c r="J79" s="10">
         <v>100</v>
@@ -34329,7 +34336,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I80" s="10"/>
       <c r="J80" s="10">
         <v>40</v>
@@ -34338,7 +34345,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I81" s="10"/>
       <c r="J81" s="10">
         <v>140</v>
@@ -34347,7 +34354,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I82" s="10"/>
       <c r="J82" s="10">
         <v>50</v>
@@ -34356,27 +34363,27 @@
         <v>140</v>
       </c>
     </row>
-    <row r="83" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I83" s="10"/>
       <c r="J83" s="10"/>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I84" s="10"/>
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I86" s="10"/>
       <c r="J86" s="10"/>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I87" s="10"/>
       <c r="J87" s="10"/>
       <c r="K87" s="10"/>
@@ -34388,18 +34395,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="I3:K136"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="11" width="13.6640625" customWidth="1"/>
+    <col min="9" max="11" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I3" s="9">
         <v>0</v>
       </c>
@@ -34410,7 +34417,7 @@
         <v>27.140026121160936</v>
       </c>
     </row>
-    <row r="4" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I4" s="9">
         <v>44.642021159150133</v>
       </c>
@@ -34421,7 +34428,7 @@
         <v>25.083044701175112</v>
       </c>
     </row>
-    <row r="5" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I5" s="9">
         <v>45.217493005122506</v>
       </c>
@@ -34432,7 +34439,7 @@
         <v>57.991490531264475</v>
       </c>
     </row>
-    <row r="6" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I6" s="9">
         <v>24.329473365092483</v>
       </c>
@@ -34443,7 +34450,7 @@
         <v>42.733581005232097</v>
       </c>
     </row>
-    <row r="7" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I7" s="9">
         <v>58.343752452456279</v>
       </c>
@@ -34454,7 +34461,7 @@
         <v>28.342328437841438</v>
       </c>
     </row>
-    <row r="8" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I8" s="9">
         <v>31.893362204983138</v>
       </c>
@@ -34465,7 +34472,7 @@
         <v>46.888964061839594</v>
       </c>
     </row>
-    <row r="9" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I9" s="9">
         <v>41.793089508509269</v>
       </c>
@@ -34476,7 +34483,7 @@
         <v>56.245778126978138</v>
       </c>
     </row>
-    <row r="10" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I10" s="9">
         <v>67.946644841215132</v>
       </c>
@@ -34487,7 +34494,7 @@
         <v>27.788320543464742</v>
       </c>
     </row>
-    <row r="11" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I11" s="9">
         <v>49.877389166851756</v>
       </c>
@@ -34498,7 +34505,7 @@
         <v>52.064332000567688</v>
       </c>
     </row>
-    <row r="12" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I12" s="9">
         <v>62.390776909023856</v>
       </c>
@@ -34509,7 +34516,7 @@
         <v>33.337623450541372</v>
       </c>
     </row>
-    <row r="13" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I13" s="9">
         <v>54.765842863021575</v>
       </c>
@@ -34520,7 +34527,7 @@
         <v>50.3694720171654</v>
       </c>
     </row>
-    <row r="14" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I14" s="9">
         <v>28.332974747195045</v>
       </c>
@@ -34531,7 +34538,7 @@
         <v>36.610607657109142</v>
       </c>
     </row>
-    <row r="15" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I15" s="9">
         <v>22.77400764579907</v>
       </c>
@@ -34542,7 +34549,7 @@
         <v>65.647981542690331</v>
       </c>
     </row>
-    <row r="16" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I16" s="9">
         <v>20.342155330426785</v>
       </c>
@@ -34553,7 +34560,7 @@
         <v>45.606739803514671</v>
       </c>
     </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I17" s="9">
         <v>32.105576354794898</v>
       </c>
@@ -34564,7 +34571,7 @@
         <v>20.621580711354362</v>
       </c>
     </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I18" s="9">
         <v>26.376083418467626</v>
       </c>
@@ -34575,7 +34582,7 @@
         <v>53.977348208615552</v>
       </c>
     </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I19" s="9">
         <v>35</v>
       </c>
@@ -34586,7 +34593,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I21" s="9">
         <v>0</v>
       </c>
@@ -34597,7 +34604,7 @@
         <v>27.140026121160936</v>
       </c>
     </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I22" s="9">
         <v>44.642021159150133</v>
       </c>
@@ -34608,7 +34615,7 @@
         <v>25.083044701175112</v>
       </c>
     </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I23" s="9">
         <v>45.217493005122506</v>
       </c>
@@ -34619,7 +34626,7 @@
         <v>57.991490531264475</v>
       </c>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I24" s="9">
         <v>24.329473365092483</v>
       </c>
@@ -34630,7 +34637,7 @@
         <v>42.733581005232097</v>
       </c>
     </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I25" s="9">
         <v>58.343752452456279</v>
       </c>
@@ -34641,7 +34648,7 @@
         <v>28.342328437841438</v>
       </c>
     </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I26" s="9">
         <v>31.893362204983138</v>
       </c>
@@ -34652,7 +34659,7 @@
         <v>46.888964061839594</v>
       </c>
     </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I27" s="9">
         <v>41.793089508509269</v>
       </c>
@@ -34663,7 +34670,7 @@
         <v>56.245778126978138</v>
       </c>
     </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I28" s="9">
         <v>67.946644841215132</v>
       </c>
@@ -34674,7 +34681,7 @@
         <v>27.788320543464742</v>
       </c>
     </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I29" s="9">
         <v>49.877389166851756</v>
       </c>
@@ -34685,7 +34692,7 @@
         <v>52.064332000567688</v>
       </c>
     </row>
-    <row r="30" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I30" s="9">
         <v>62.390776909023856</v>
       </c>
@@ -34696,7 +34703,7 @@
         <v>33.337623450541372</v>
       </c>
     </row>
-    <row r="31" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I31" s="9">
         <v>54.765842863021575</v>
       </c>
@@ -34707,7 +34714,7 @@
         <v>50.3694720171654</v>
       </c>
     </row>
-    <row r="32" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I32" s="9">
         <v>28.332974747195045</v>
       </c>
@@ -34718,7 +34725,7 @@
         <v>36.610607657109142</v>
       </c>
     </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I33" s="9">
         <v>22.77400764579907</v>
       </c>
@@ -34729,7 +34736,7 @@
         <v>65.647981542690331</v>
       </c>
     </row>
-    <row r="34" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I34" s="9">
         <v>20.342155330426785</v>
       </c>
@@ -34740,7 +34747,7 @@
         <v>45.606739803514671</v>
       </c>
     </row>
-    <row r="35" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I35" s="9">
         <v>32.105576354794898</v>
       </c>
@@ -34751,7 +34758,7 @@
         <v>20.621580711354362</v>
       </c>
     </row>
-    <row r="36" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I36" s="9">
         <v>26.376083418467626</v>
       </c>
@@ -34762,7 +34769,7 @@
         <v>53.977348208615552</v>
       </c>
     </row>
-    <row r="37" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I37" s="9">
         <v>35</v>
       </c>
@@ -34773,7 +34780,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I39" s="11">
         <v>12</v>
       </c>
@@ -34784,7 +34791,7 @@
         <v>27.140026121160936</v>
       </c>
     </row>
-    <row r="40" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I40" s="11">
         <v>44.642021159150133</v>
       </c>
@@ -34795,7 +34802,7 @@
         <v>25.083044701175112</v>
       </c>
     </row>
-    <row r="41" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I41" s="11">
         <v>58</v>
       </c>
@@ -34806,7 +34813,7 @@
         <v>57.991490531264475</v>
       </c>
     </row>
-    <row r="42" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I42" s="11">
         <v>21</v>
       </c>
@@ -34817,7 +34824,7 @@
         <v>42.733581005232097</v>
       </c>
     </row>
-    <row r="43" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I43" s="11">
         <v>44</v>
       </c>
@@ -34828,186 +34835,186 @@
         <v>28.342328437841438</v>
       </c>
     </row>
-    <row r="44" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
     </row>
-    <row r="45" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
     </row>
-    <row r="46" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
     </row>
-    <row r="47" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
     </row>
-    <row r="48" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
     </row>
-    <row r="49" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
     </row>
-    <row r="50" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
     </row>
-    <row r="51" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
     </row>
-    <row r="52" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
     </row>
-    <row r="53" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
     </row>
-    <row r="54" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
     </row>
-    <row r="55" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
     </row>
-    <row r="56" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
     </row>
-    <row r="57" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I57" s="10">
         <v>45</v>
       </c>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
     </row>
-    <row r="58" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I58" s="10">
         <v>46</v>
       </c>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
     </row>
-    <row r="59" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I59" s="10">
         <v>92</v>
       </c>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
     </row>
-    <row r="60" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I60" s="10">
         <v>3</v>
       </c>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
     </row>
-    <row r="61" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I61" s="10">
         <v>82</v>
       </c>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
     </row>
-    <row r="62" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I62" s="10">
         <v>55</v>
       </c>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
     </row>
-    <row r="63" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I63" s="10">
         <v>79</v>
       </c>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
     </row>
-    <row r="64" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I64" s="10">
         <v>76</v>
       </c>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
     </row>
-    <row r="65" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I65" s="10">
         <v>20</v>
       </c>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
     </row>
-    <row r="66" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I66" s="10">
         <v>25</v>
       </c>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
     </row>
-    <row r="67" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I67" s="10">
         <v>2</v>
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
     </row>
-    <row r="68" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I68" s="10">
         <v>30</v>
       </c>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
     </row>
-    <row r="69" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
     </row>
-    <row r="70" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
     </row>
-    <row r="71" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
     </row>
-    <row r="72" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
     </row>
-    <row r="73" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
     </row>
-    <row r="74" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
     </row>
-    <row r="75" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I75" s="10">
         <v>2004</v>
       </c>
@@ -35016,7 +35023,7 @@
       </c>
       <c r="K75" s="9"/>
     </row>
-    <row r="76" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I76" s="10">
         <v>2005</v>
       </c>
@@ -35025,7 +35032,7 @@
       </c>
       <c r="K76" s="9"/>
     </row>
-    <row r="77" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I77" s="10">
         <v>2006</v>
       </c>
@@ -35034,7 +35041,7 @@
       </c>
       <c r="K77" s="9"/>
     </row>
-    <row r="78" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I78" s="10">
         <v>2007</v>
       </c>
@@ -35043,7 +35050,7 @@
       </c>
       <c r="K78" s="9"/>
     </row>
-    <row r="79" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I79" s="10">
         <v>2008</v>
       </c>
@@ -35052,7 +35059,7 @@
       </c>
       <c r="K79" s="9"/>
     </row>
-    <row r="80" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I80" s="10">
         <v>2009</v>
       </c>
@@ -35061,197 +35068,197 @@
       </c>
       <c r="K80" s="9"/>
     </row>
-    <row r="81" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I81" s="10">
         <v>2010</v>
       </c>
       <c r="J81" s="10"/>
       <c r="K81" s="9"/>
     </row>
-    <row r="82" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I82" s="10">
         <v>2011</v>
       </c>
       <c r="J82" s="10"/>
       <c r="K82" s="9"/>
     </row>
-    <row r="83" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I83" s="10">
         <v>2012</v>
       </c>
       <c r="J83" s="10"/>
       <c r="K83" s="9"/>
     </row>
-    <row r="84" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I84" s="10">
         <v>2013</v>
       </c>
       <c r="J84" s="10"/>
       <c r="K84" s="9"/>
     </row>
-    <row r="85" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
       <c r="K85" s="9"/>
     </row>
-    <row r="86" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I86" s="10"/>
       <c r="J86" s="10"/>
       <c r="K86" s="9"/>
     </row>
-    <row r="87" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I87" s="10"/>
       <c r="J87" s="10"/>
       <c r="K87" s="9"/>
     </row>
-    <row r="88" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I88" s="10"/>
       <c r="J88" s="10"/>
       <c r="K88" s="9"/>
     </row>
-    <row r="89" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I89" s="10"/>
       <c r="J89" s="10"/>
       <c r="K89" s="9"/>
     </row>
-    <row r="90" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I90" s="10"/>
       <c r="J90" s="10"/>
       <c r="K90" s="9"/>
     </row>
-    <row r="91" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I91" s="10"/>
       <c r="J91" s="10"/>
       <c r="K91" s="9"/>
     </row>
-    <row r="92" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
     </row>
-    <row r="93" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I93" s="9">
         <v>77</v>
       </c>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
     </row>
-    <row r="94" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I94" s="9">
         <v>61</v>
       </c>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
     </row>
-    <row r="95" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I95" s="9">
         <v>44</v>
       </c>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
     </row>
-    <row r="96" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I96" s="9">
         <v>15</v>
       </c>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
     </row>
-    <row r="97" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I97" s="9">
         <v>70</v>
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
     </row>
-    <row r="98" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I98" s="9">
         <v>38</v>
       </c>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
     </row>
-    <row r="99" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I99" s="9">
         <v>28</v>
       </c>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
     </row>
-    <row r="100" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I100" s="9">
         <v>39</v>
       </c>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
     </row>
-    <row r="101" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I101" s="9">
         <v>67</v>
       </c>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
     </row>
-    <row r="102" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I102" s="9">
         <v>56</v>
       </c>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
     </row>
-    <row r="103" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I103" s="9">
         <v>85</v>
       </c>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
     </row>
-    <row r="104" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I104" s="9">
         <v>51</v>
       </c>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
     </row>
-    <row r="105" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I105" s="9">
         <v>15</v>
       </c>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
     </row>
-    <row r="106" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I106" s="9">
         <v>36</v>
       </c>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
     </row>
-    <row r="107" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I107" s="9">
         <v>16</v>
       </c>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
     </row>
-    <row r="108" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I108" s="9">
         <v>43</v>
       </c>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
     </row>
-    <row r="109" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
     </row>
-    <row r="110" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
     </row>
-    <row r="111" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I111" t="s">
         <v>86</v>
       </c>
@@ -35260,7 +35267,7 @@
       </c>
       <c r="K111" s="9"/>
     </row>
-    <row r="112" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I112" s="10">
         <v>6</v>
       </c>
@@ -35269,7 +35276,7 @@
       </c>
       <c r="K112" s="9"/>
     </row>
-    <row r="113" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I113" s="10">
         <v>45</v>
       </c>
@@ -35278,7 +35285,7 @@
       </c>
       <c r="K113" s="9"/>
     </row>
-    <row r="114" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I114" s="10">
         <v>35</v>
       </c>
@@ -35287,7 +35294,7 @@
       </c>
       <c r="K114" s="9"/>
     </row>
-    <row r="115" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I115" s="10">
         <v>25</v>
       </c>
@@ -35296,7 +35303,7 @@
       </c>
       <c r="K115" s="9"/>
     </row>
-    <row r="116" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I116" s="10">
         <v>65</v>
       </c>
@@ -35305,7 +35312,7 @@
       </c>
       <c r="K116" s="9"/>
     </row>
-    <row r="117" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I117" s="10">
         <v>45</v>
       </c>
@@ -35314,7 +35321,7 @@
       </c>
       <c r="K117" s="9"/>
     </row>
-    <row r="118" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I118" s="10">
         <v>75</v>
       </c>
@@ -35323,7 +35330,7 @@
       </c>
       <c r="K118" s="9"/>
     </row>
-    <row r="119" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I119" s="10">
         <v>65</v>
       </c>
@@ -35332,52 +35339,52 @@
       </c>
       <c r="K119" s="9"/>
     </row>
-    <row r="120" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
     </row>
-    <row r="121" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
     </row>
-    <row r="122" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
     </row>
-    <row r="123" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
     </row>
-    <row r="124" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
     </row>
-    <row r="125" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
     </row>
-    <row r="126" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
     </row>
-    <row r="127" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
     </row>
-    <row r="128" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
     </row>
-    <row r="129" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I129" t="s">
         <v>27</v>
       </c>
@@ -35385,32 +35392,32 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="130" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J130" s="13">
         <v>-0.75</v>
       </c>
     </row>
-    <row r="131" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J131" s="13">
         <v>0.3048510920115679</v>
       </c>
     </row>
-    <row r="132" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J132" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J133" s="13">
         <v>0.85</v>
       </c>
     </row>
-    <row r="134" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J134" s="13">
         <v>0.25</v>
       </c>
     </row>
-    <row r="135" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I135" t="s">
         <v>28</v>
       </c>
@@ -35418,7 +35425,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="136" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J136" s="10"/>
       <c r="K136" s="10"/>
     </row>
@@ -35430,15 +35437,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="I3:J78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
         <v>15</v>
       </c>
@@ -35446,7 +35453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>31</v>
       </c>
@@ -35454,7 +35461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
         <v>16</v>
       </c>
@@ -35462,7 +35469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
         <v>34</v>
       </c>
@@ -35470,7 +35477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I21" t="s">
         <v>15</v>
       </c>
@@ -35478,7 +35485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I22" t="s">
         <v>31</v>
       </c>
@@ -35486,7 +35493,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I23" t="s">
         <v>16</v>
       </c>
@@ -35494,7 +35501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
         <v>34</v>
       </c>
@@ -35502,7 +35509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
         <v>35</v>
       </c>
@@ -35510,7 +35517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I39" t="s">
         <v>15</v>
       </c>
@@ -35518,7 +35525,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I40" t="s">
         <v>31</v>
       </c>
@@ -35526,7 +35533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I41" t="s">
         <v>16</v>
       </c>
@@ -35534,7 +35541,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I42" t="s">
         <v>34</v>
       </c>
@@ -35542,7 +35549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I43" t="s">
         <v>88</v>
       </c>
@@ -35550,7 +35557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I57" t="s">
         <v>15</v>
       </c>
@@ -35558,7 +35565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I58" t="s">
         <v>31</v>
       </c>
@@ -35566,7 +35573,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I59" t="s">
         <v>16</v>
       </c>
@@ -35574,7 +35581,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I60" t="s">
         <v>35</v>
       </c>
@@ -35582,7 +35589,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I75" t="s">
         <v>37</v>
       </c>
@@ -35590,7 +35597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I76" t="s">
         <v>38</v>
       </c>
@@ -35598,7 +35605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I77" t="s">
         <v>39</v>
       </c>
@@ -35606,7 +35613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I78" t="s">
         <v>40</v>
       </c>
@@ -35621,15 +35628,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="I3:L116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I3">
         <v>100</v>
       </c>
@@ -35643,7 +35650,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I4">
         <v>100</v>
       </c>
@@ -35657,7 +35664,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I21">
         <v>103</v>
       </c>
@@ -35668,7 +35675,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I22">
         <v>56</v>
       </c>
@@ -35679,7 +35686,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I23">
         <v>116</v>
       </c>
@@ -35690,7 +35697,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I24">
         <v>55</v>
       </c>
@@ -35701,7 +35708,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I25">
         <v>114</v>
       </c>
@@ -35712,7 +35719,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I39">
         <v>1</v>
       </c>
@@ -35720,7 +35727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I40">
         <v>2</v>
       </c>
@@ -35728,7 +35735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I41">
         <v>3</v>
       </c>
@@ -35736,7 +35743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I42">
         <v>4</v>
       </c>
@@ -35744,7 +35751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I43">
         <v>4</v>
       </c>
@@ -35752,7 +35759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I57" s="3" t="s">
         <v>12</v>
       </c>
@@ -35763,7 +35770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I58" s="3" t="s">
         <v>9</v>
       </c>
@@ -35775,7 +35782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I59" s="3" t="s">
         <v>11</v>
       </c>
@@ -35787,7 +35794,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I60" s="3" t="s">
         <v>14</v>
       </c>
@@ -35799,7 +35806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I61" s="3" t="s">
         <v>10</v>
       </c>
@@ -35811,7 +35818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I62" s="3" t="s">
         <v>13</v>
       </c>
@@ -35823,7 +35830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I93" t="s">
         <v>17</v>
       </c>
@@ -35831,7 +35838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I94">
         <v>-17</v>
       </c>
@@ -35839,7 +35846,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I95">
         <v>-14</v>
       </c>
@@ -35847,7 +35854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I96">
         <v>-11</v>
       </c>
@@ -35855,7 +35862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I97">
         <v>-10</v>
       </c>
@@ -35863,7 +35870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I98">
         <v>-10</v>
       </c>
@@ -35871,7 +35878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I99">
         <v>-8</v>
       </c>
@@ -35879,7 +35886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I100">
         <v>-6</v>
       </c>
@@ -35887,7 +35894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I101">
         <v>-7</v>
       </c>
@@ -35895,7 +35902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I102">
         <v>-8</v>
       </c>
@@ -35903,7 +35910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I103">
         <v>-6</v>
       </c>
@@ -35911,7 +35918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I104">
         <v>-5</v>
       </c>
@@ -35919,7 +35926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I105">
         <v>-4</v>
       </c>
@@ -35927,7 +35934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I106">
         <v>-2</v>
       </c>
@@ -35935,7 +35942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I111" t="s">
         <v>15</v>
       </c>
@@ -35943,7 +35950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I112">
         <v>462.96498399948746</v>
       </c>
@@ -35951,7 +35958,7 @@
         <v>2.10293638955575</v>
       </c>
     </row>
-    <row r="113" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I113">
         <v>446.35992877244132</v>
       </c>
@@ -35959,7 +35966,7 @@
         <v>2.8572699379839981</v>
       </c>
     </row>
-    <row r="114" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I114">
         <v>315.42086928244612</v>
       </c>
@@ -35967,7 +35974,7 @@
         <v>3.7192775492489822</v>
       </c>
     </row>
-    <row r="115" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I115">
         <v>383.40017815278895</v>
       </c>
@@ -35975,7 +35982,7 @@
         <v>4.453682864465029</v>
       </c>
     </row>
-    <row r="116" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I116">
         <v>525.5716557204787</v>
       </c>
@@ -35990,18 +35997,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="I3:P364"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="11" width="13.88671875" customWidth="1"/>
+    <col min="9" max="11" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I3" s="9">
         <v>0</v>
       </c>
@@ -36018,7 +36025,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I4" s="9">
         <v>44.642021159150133</v>
       </c>
@@ -36038,7 +36045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I5" s="9">
         <v>45.217493005122506</v>
       </c>
@@ -36058,7 +36065,7 @@
         <v>1.7452406437283512E-2</v>
       </c>
     </row>
-    <row r="6" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I6" s="9">
         <v>45</v>
       </c>
@@ -36078,7 +36085,7 @@
         <v>3.4899496702500969E-2</v>
       </c>
     </row>
-    <row r="7" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I7" s="9">
         <v>58.343752452456279</v>
       </c>
@@ -36098,7 +36105,7 @@
         <v>5.2335956242943828E-2</v>
       </c>
     </row>
-    <row r="8" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I8" s="9">
         <v>31.893362204983138</v>
       </c>
@@ -36118,7 +36125,7 @@
         <v>6.9756473744125302E-2</v>
       </c>
     </row>
-    <row r="9" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I9" s="9">
         <v>41.793089508509269</v>
       </c>
@@ -36138,7 +36145,7 @@
         <v>8.7155742747658166E-2</v>
       </c>
     </row>
-    <row r="10" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I10" s="9">
         <v>67.946644841215132</v>
       </c>
@@ -36158,7 +36165,7 @@
         <v>0.10452846326765346</v>
       </c>
     </row>
-    <row r="11" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I11" s="9">
         <v>49.877389166851756</v>
       </c>
@@ -36178,7 +36185,7 @@
         <v>0.12186934340514748</v>
       </c>
     </row>
-    <row r="12" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I12" s="9">
         <v>62.390776909023856</v>
       </c>
@@ -36198,7 +36205,7 @@
         <v>0.13917310096006544</v>
       </c>
     </row>
-    <row r="13" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I13" s="9">
         <v>54.765842863021575</v>
       </c>
@@ -36218,7 +36225,7 @@
         <v>0.15643446504023087</v>
       </c>
     </row>
-    <row r="14" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I14" s="9">
         <v>45</v>
       </c>
@@ -36238,7 +36245,7 @@
         <v>0.17364817766693033</v>
       </c>
     </row>
-    <row r="15" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I15" s="9">
         <v>50</v>
       </c>
@@ -36258,7 +36265,7 @@
         <v>0.1908089953765448</v>
       </c>
     </row>
-    <row r="16" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I16" s="9">
         <v>55</v>
       </c>
@@ -36278,7 +36285,7 @@
         <v>0.20791169081775931</v>
       </c>
     </row>
-    <row r="17" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I17" s="9">
         <v>55</v>
       </c>
@@ -36298,7 +36305,7 @@
         <v>0.224951054343865</v>
       </c>
     </row>
-    <row r="18" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I18" s="9">
         <v>53</v>
       </c>
@@ -36318,7 +36325,7 @@
         <v>0.24192189559966773</v>
       </c>
     </row>
-    <row r="19" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I19" s="9">
         <v>35</v>
       </c>
@@ -36338,7 +36345,7 @@
         <v>0.25881904510252074</v>
       </c>
     </row>
-    <row r="20" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:16" x14ac:dyDescent="0.25">
       <c r="N20">
         <v>16</v>
       </c>
@@ -36349,7 +36356,7 @@
         <v>0.27563735581699916</v>
       </c>
     </row>
-    <row r="21" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I21" s="9">
         <v>0</v>
       </c>
@@ -36369,7 +36376,7 @@
         <v>0.29237170472273677</v>
       </c>
     </row>
-    <row r="22" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I22" s="9">
         <v>44.642021159150133</v>
       </c>
@@ -36389,7 +36396,7 @@
         <v>0.3090169943749474</v>
       </c>
     </row>
-    <row r="23" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I23" s="9">
         <v>45.217493005122506</v>
       </c>
@@ -36409,7 +36416,7 @@
         <v>0.32556815445715664</v>
       </c>
     </row>
-    <row r="24" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I24" s="9">
         <v>24.329473365092483</v>
       </c>
@@ -36429,7 +36436,7 @@
         <v>0.34202014332566871</v>
       </c>
     </row>
-    <row r="25" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I25" s="9">
         <v>58.343752452456279</v>
       </c>
@@ -36449,7 +36456,7 @@
         <v>0.35836794954530027</v>
       </c>
     </row>
-    <row r="26" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I26" s="9">
         <v>31.893362204983138</v>
       </c>
@@ -36469,7 +36476,7 @@
         <v>0.37460659341591201</v>
       </c>
     </row>
-    <row r="27" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I27" s="9">
         <v>41.793089508509269</v>
       </c>
@@ -36489,7 +36496,7 @@
         <v>0.39073112848927372</v>
       </c>
     </row>
-    <row r="28" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I28" s="9">
         <v>67.946644841215132</v>
       </c>
@@ -36509,7 +36516,7 @@
         <v>0.40673664307580015</v>
       </c>
     </row>
-    <row r="29" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I29" s="9">
         <v>49.877389166851756</v>
       </c>
@@ -36529,7 +36536,7 @@
         <v>0.42261826174069944</v>
       </c>
     </row>
-    <row r="30" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I30" s="9">
         <v>62.390776909023856</v>
       </c>
@@ -36549,7 +36556,7 @@
         <v>0.4383711467890774</v>
       </c>
     </row>
-    <row r="31" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I31" s="9">
         <v>54.765842863021575</v>
       </c>
@@ -36569,7 +36576,7 @@
         <v>0.45399049973954675</v>
       </c>
     </row>
-    <row r="32" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I32" s="9">
         <v>28.332974747195045</v>
       </c>
@@ -36589,7 +36596,7 @@
         <v>0.46947156278589081</v>
       </c>
     </row>
-    <row r="33" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I33" s="9">
         <v>22.77400764579907</v>
       </c>
@@ -36609,7 +36616,7 @@
         <v>0.48480962024633706</v>
       </c>
     </row>
-    <row r="34" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I34" s="9">
         <v>20.342155330426785</v>
       </c>
@@ -36629,7 +36636,7 @@
         <v>0.49999999999999994</v>
       </c>
     </row>
-    <row r="35" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I35" s="9">
         <v>32.105576354794898</v>
       </c>
@@ -36649,7 +36656,7 @@
         <v>0.51503807491005416</v>
       </c>
     </row>
-    <row r="36" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I36" s="9">
         <v>26.376083418467626</v>
       </c>
@@ -36669,7 +36676,7 @@
         <v>0.5299192642332049</v>
       </c>
     </row>
-    <row r="37" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I37" s="9">
         <v>35</v>
       </c>
@@ -36689,7 +36696,7 @@
         <v>0.54463903501502708</v>
       </c>
     </row>
-    <row r="38" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="9:16" x14ac:dyDescent="0.25">
       <c r="N38">
         <v>34</v>
       </c>
@@ -36700,7 +36707,7 @@
         <v>0.5591929034707469</v>
       </c>
     </row>
-    <row r="39" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I39" s="9">
         <v>0</v>
       </c>
@@ -36720,7 +36727,7 @@
         <v>0.57357643635104605</v>
       </c>
     </row>
-    <row r="40" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I40" s="9">
         <v>44.642021159150133</v>
       </c>
@@ -36740,7 +36747,7 @@
         <v>0.58778525229247314</v>
       </c>
     </row>
-    <row r="41" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I41" s="9">
         <v>45.217493005122506</v>
       </c>
@@ -36760,7 +36767,7 @@
         <v>0.60181502315204827</v>
       </c>
     </row>
-    <row r="42" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I42" s="9">
         <v>45</v>
       </c>
@@ -36780,7 +36787,7 @@
         <v>0.61566147532565818</v>
       </c>
     </row>
-    <row r="43" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I43" s="9">
         <v>58.343752452456279</v>
       </c>
@@ -36800,7 +36807,7 @@
         <v>0.62932039104983739</v>
       </c>
     </row>
-    <row r="44" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I44" s="9">
         <v>31.893362204983138</v>
       </c>
@@ -36820,7 +36827,7 @@
         <v>0.64278760968653925</v>
       </c>
     </row>
-    <row r="45" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I45" s="9">
         <v>41.793089508509269</v>
       </c>
@@ -36840,7 +36847,7 @@
         <v>0.65605902899050716</v>
       </c>
     </row>
-    <row r="46" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I46" s="9">
         <v>67.946644841215132</v>
       </c>
@@ -36860,7 +36867,7 @@
         <v>0.66913060635885824</v>
       </c>
     </row>
-    <row r="47" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I47" s="9">
         <v>49.877389166851756</v>
       </c>
@@ -36880,7 +36887,7 @@
         <v>0.68199836006249848</v>
       </c>
     </row>
-    <row r="48" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I48" s="9">
         <v>62.390776909023856</v>
       </c>
@@ -36900,7 +36907,7 @@
         <v>0.69465837045899725</v>
       </c>
     </row>
-    <row r="49" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I49" s="9">
         <v>54.765842863021575</v>
       </c>
@@ -36920,7 +36927,7 @@
         <v>0.70710678118654746</v>
       </c>
     </row>
-    <row r="50" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I50" s="9">
         <v>45</v>
       </c>
@@ -36940,7 +36947,7 @@
         <v>0.71933980033865108</v>
       </c>
     </row>
-    <row r="51" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I51" s="9">
         <v>50</v>
       </c>
@@ -36960,7 +36967,7 @@
         <v>0.73135370161917046</v>
       </c>
     </row>
-    <row r="52" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I52" s="9">
         <v>55</v>
       </c>
@@ -36980,7 +36987,7 @@
         <v>0.74314482547739413</v>
       </c>
     </row>
-    <row r="53" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I53" s="9">
         <v>55</v>
       </c>
@@ -37000,7 +37007,7 @@
         <v>0.75470958022277201</v>
       </c>
     </row>
-    <row r="54" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I54" s="9">
         <v>53</v>
       </c>
@@ -37020,7 +37027,7 @@
         <v>0.76604444311897801</v>
       </c>
     </row>
-    <row r="55" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I55" s="9">
         <v>35</v>
       </c>
@@ -37040,7 +37047,7 @@
         <v>0.77714596145697079</v>
       </c>
     </row>
-    <row r="56" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="9:16" x14ac:dyDescent="0.25">
       <c r="N56">
         <v>52</v>
       </c>
@@ -37051,7 +37058,7 @@
         <v>0.78801075360672201</v>
       </c>
     </row>
-    <row r="57" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I57" s="15" t="s">
         <v>61</v>
       </c>
@@ -37068,7 +37075,7 @@
         <v>0.79863551004729283</v>
       </c>
     </row>
-    <row r="58" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I58" s="15" t="s">
         <v>62</v>
       </c>
@@ -37085,7 +37092,7 @@
         <v>0.80901699437494745</v>
       </c>
     </row>
-    <row r="59" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I59" s="15" t="s">
         <v>63</v>
       </c>
@@ -37102,7 +37109,7 @@
         <v>0.8191520442889918</v>
       </c>
     </row>
-    <row r="60" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I60" s="15" t="s">
         <v>64</v>
       </c>
@@ -37119,7 +37126,7 @@
         <v>0.82903757255504174</v>
       </c>
     </row>
-    <row r="61" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I61" s="15" t="s">
         <v>56</v>
       </c>
@@ -37136,7 +37143,7 @@
         <v>0.83867056794542394</v>
       </c>
     </row>
-    <row r="62" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I62" s="15" t="s">
         <v>65</v>
       </c>
@@ -37153,7 +37160,7 @@
         <v>0.84804809615642596</v>
       </c>
     </row>
-    <row r="63" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I63" s="15" t="s">
         <v>66</v>
       </c>
@@ -37170,7 +37177,7 @@
         <v>0.85716730070211222</v>
       </c>
     </row>
-    <row r="64" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I64" s="15" t="s">
         <v>67</v>
       </c>
@@ -37187,7 +37194,7 @@
         <v>0.8660254037844386</v>
       </c>
     </row>
-    <row r="65" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I65" s="15" t="s">
         <v>68</v>
       </c>
@@ -37204,7 +37211,7 @@
         <v>0.87461970713939574</v>
       </c>
     </row>
-    <row r="66" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I66" s="15" t="s">
         <v>69</v>
       </c>
@@ -37221,7 +37228,7 @@
         <v>0.88294759285892688</v>
       </c>
     </row>
-    <row r="67" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I67" s="15" t="s">
         <v>70</v>
       </c>
@@ -37238,7 +37245,7 @@
         <v>0.89100652418836779</v>
       </c>
     </row>
-    <row r="68" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I68" s="15" t="s">
         <v>71</v>
       </c>
@@ -37255,7 +37262,7 @@
         <v>0.89879404629916704</v>
       </c>
     </row>
-    <row r="69" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I69" s="9"/>
       <c r="N69">
         <v>65</v>
@@ -37267,7 +37274,7 @@
         <v>0.90630778703664994</v>
       </c>
     </row>
-    <row r="70" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I70" s="9"/>
       <c r="N70">
         <v>66</v>
@@ -37279,7 +37286,7 @@
         <v>0.91354545764260087</v>
       </c>
     </row>
-    <row r="71" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I71" s="9"/>
       <c r="N71">
         <v>67</v>
@@ -37291,7 +37298,7 @@
         <v>0.92050485345244026</v>
       </c>
     </row>
-    <row r="72" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I72" s="9"/>
       <c r="N72">
         <v>68</v>
@@ -37303,7 +37310,7 @@
         <v>0.92718385456678742</v>
       </c>
     </row>
-    <row r="73" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I73" s="9"/>
       <c r="N73">
         <v>69</v>
@@ -37315,7 +37322,7 @@
         <v>0.93358042649720174</v>
       </c>
     </row>
-    <row r="74" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="9:16" x14ac:dyDescent="0.25">
       <c r="N74">
         <v>70</v>
       </c>
@@ -37326,7 +37333,7 @@
         <v>0.93969262078590832</v>
       </c>
     </row>
-    <row r="75" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="9:16" x14ac:dyDescent="0.25">
       <c r="J75" t="s">
         <v>32</v>
       </c>
@@ -37343,7 +37350,7 @@
         <v>0.94551857559931674</v>
       </c>
     </row>
-    <row r="76" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I76" t="s">
         <v>52</v>
       </c>
@@ -37363,7 +37370,7 @@
         <v>0.95105651629515353</v>
       </c>
     </row>
-    <row r="77" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I77" t="s">
         <v>53</v>
       </c>
@@ -37383,7 +37390,7 @@
         <v>0.95630475596303544</v>
       </c>
     </row>
-    <row r="78" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I78" t="s">
         <v>54</v>
       </c>
@@ -37403,7 +37410,7 @@
         <v>0.96126169593831889</v>
       </c>
     </row>
-    <row r="79" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I79" t="s">
         <v>55</v>
       </c>
@@ -37423,7 +37430,7 @@
         <v>0.96592582628906831</v>
       </c>
     </row>
-    <row r="80" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I80" t="s">
         <v>56</v>
       </c>
@@ -37443,7 +37450,7 @@
         <v>0.97029572627599647</v>
       </c>
     </row>
-    <row r="81" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I81" t="s">
         <v>57</v>
       </c>
@@ -37463,7 +37470,7 @@
         <v>0.97437006478523525</v>
       </c>
     </row>
-    <row r="82" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I82" t="s">
         <v>77</v>
       </c>
@@ -37483,7 +37490,7 @@
         <v>0.97814760073380558</v>
       </c>
     </row>
-    <row r="83" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I83" t="s">
         <v>78</v>
       </c>
@@ -37503,7 +37510,7 @@
         <v>0.98162718344766398</v>
       </c>
     </row>
-    <row r="84" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I84" t="s">
         <v>79</v>
       </c>
@@ -37523,7 +37530,7 @@
         <v>0.98480775301220802</v>
       </c>
     </row>
-    <row r="85" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I85" t="s">
         <v>80</v>
       </c>
@@ -37543,7 +37550,7 @@
         <v>0.98768834059513777</v>
       </c>
     </row>
-    <row r="86" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I86" t="s">
         <v>81</v>
       </c>
@@ -37563,7 +37570,7 @@
         <v>0.99026806874157025</v>
       </c>
     </row>
-    <row r="87" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I87" t="s">
         <v>82</v>
       </c>
@@ -37583,7 +37590,7 @@
         <v>0.99254615164132198</v>
       </c>
     </row>
-    <row r="88" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
@@ -37597,7 +37604,7 @@
         <v>0.99452189536827329</v>
       </c>
     </row>
-    <row r="89" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
@@ -37611,7 +37618,7 @@
         <v>0.99619469809174555</v>
       </c>
     </row>
-    <row r="90" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
@@ -37625,7 +37632,7 @@
         <v>0.9975640502598242</v>
       </c>
     </row>
-    <row r="91" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
@@ -37639,7 +37646,7 @@
         <v>0.99862953475457383</v>
       </c>
     </row>
-    <row r="92" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="9:16" x14ac:dyDescent="0.25">
       <c r="N92">
         <v>88</v>
       </c>
@@ -37650,7 +37657,7 @@
         <v>0.99939082701909576</v>
       </c>
     </row>
-    <row r="93" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I93" s="12"/>
       <c r="N93">
         <v>89</v>
@@ -37662,7 +37669,7 @@
         <v>0.99984769515639127</v>
       </c>
     </row>
-    <row r="94" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I94" s="12"/>
       <c r="N94">
         <v>90</v>
@@ -37674,7 +37681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I95" s="12"/>
       <c r="N95">
         <v>91</v>
@@ -37686,7 +37693,7 @@
         <v>0.99984769515639127</v>
       </c>
     </row>
-    <row r="96" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I96" s="12"/>
       <c r="N96">
         <v>92</v>
@@ -37698,7 +37705,7 @@
         <v>0.99939082701909576</v>
       </c>
     </row>
-    <row r="97" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I97" s="12"/>
       <c r="N97">
         <v>93</v>
@@ -37710,7 +37717,7 @@
         <v>0.99862953475457383</v>
       </c>
     </row>
-    <row r="98" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I98" s="12"/>
       <c r="N98">
         <v>94</v>
@@ -37722,7 +37729,7 @@
         <v>0.9975640502598242</v>
       </c>
     </row>
-    <row r="99" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I99" s="12"/>
       <c r="N99">
         <v>95</v>
@@ -37734,7 +37741,7 @@
         <v>0.99619469809174555</v>
       </c>
     </row>
-    <row r="100" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I100" s="12"/>
       <c r="N100">
         <v>96</v>
@@ -37746,7 +37753,7 @@
         <v>0.9945218953682734</v>
       </c>
     </row>
-    <row r="101" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I101" s="12"/>
       <c r="N101">
         <v>97</v>
@@ -37758,7 +37765,7 @@
         <v>0.99254615164132209</v>
       </c>
     </row>
-    <row r="102" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I102" s="12"/>
       <c r="N102">
         <v>98</v>
@@ -37770,7 +37777,7 @@
         <v>0.99026806874157036</v>
       </c>
     </row>
-    <row r="103" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I103" s="12"/>
       <c r="N103">
         <v>99</v>
@@ -37782,7 +37789,7 @@
         <v>0.98768834059513766</v>
       </c>
     </row>
-    <row r="104" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I104" s="12"/>
       <c r="N104">
         <v>100</v>
@@ -37794,7 +37801,7 @@
         <v>0.98480775301220802</v>
       </c>
     </row>
-    <row r="105" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I105" s="12"/>
       <c r="N105">
         <v>101</v>
@@ -37806,7 +37813,7 @@
         <v>0.98162718344766398</v>
       </c>
     </row>
-    <row r="106" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I106" s="12"/>
       <c r="N106">
         <v>102</v>
@@ -37818,7 +37825,7 @@
         <v>0.97814760073380569</v>
       </c>
     </row>
-    <row r="107" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I107" s="12"/>
       <c r="N107">
         <v>103</v>
@@ -37830,7 +37837,7 @@
         <v>0.97437006478523525</v>
       </c>
     </row>
-    <row r="108" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I108" s="12"/>
       <c r="N108">
         <v>104</v>
@@ -37842,7 +37849,7 @@
         <v>0.97029572627599647</v>
       </c>
     </row>
-    <row r="109" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I109" s="12"/>
       <c r="N109">
         <v>105</v>
@@ -37854,7 +37861,7 @@
         <v>0.96592582628906831</v>
       </c>
     </row>
-    <row r="110" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I110" s="12"/>
       <c r="N110">
         <v>106</v>
@@ -37866,7 +37873,7 @@
         <v>0.96126169593831889</v>
       </c>
     </row>
-    <row r="111" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I111" s="12"/>
       <c r="N111">
         <v>107</v>
@@ -37878,7 +37885,7 @@
         <v>0.95630475596303555</v>
       </c>
     </row>
-    <row r="112" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I112" s="12"/>
       <c r="N112">
         <v>108</v>
@@ -37890,7 +37897,7 @@
         <v>0.95105651629515364</v>
       </c>
     </row>
-    <row r="113" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I113" s="12"/>
       <c r="N113">
         <v>109</v>
@@ -37902,7 +37909,7 @@
         <v>0.94551857559931685</v>
       </c>
     </row>
-    <row r="114" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I114" s="12"/>
       <c r="N114">
         <v>110</v>
@@ -37914,7 +37921,7 @@
         <v>0.93969262078590843</v>
       </c>
     </row>
-    <row r="115" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I115" s="12"/>
       <c r="N115">
         <v>111</v>
@@ -37926,7 +37933,7 @@
         <v>0.93358042649720174</v>
       </c>
     </row>
-    <row r="116" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I116" s="12"/>
       <c r="N116">
         <v>112</v>
@@ -37938,7 +37945,7 @@
         <v>0.92718385456678742</v>
       </c>
     </row>
-    <row r="117" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I117" s="12"/>
       <c r="N117">
         <v>113</v>
@@ -37950,7 +37957,7 @@
         <v>0.92050485345244037</v>
       </c>
     </row>
-    <row r="118" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I118" s="12"/>
       <c r="N118">
         <v>114</v>
@@ -37962,7 +37969,7 @@
         <v>0.91354545764260098</v>
       </c>
     </row>
-    <row r="119" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I119" s="12"/>
       <c r="N119">
         <v>115</v>
@@ -37974,7 +37981,7 @@
         <v>0.90630778703665005</v>
       </c>
     </row>
-    <row r="120" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I120" s="12"/>
       <c r="N120">
         <v>116</v>
@@ -37986,7 +37993,7 @@
         <v>0.89879404629916693</v>
       </c>
     </row>
-    <row r="121" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I121" s="12"/>
       <c r="N121">
         <v>117</v>
@@ -37998,7 +38005,7 @@
         <v>0.8910065241883679</v>
       </c>
     </row>
-    <row r="122" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I122" s="12"/>
       <c r="N122">
         <v>118</v>
@@ -38010,7 +38017,7 @@
         <v>0.8829475928589271</v>
       </c>
     </row>
-    <row r="123" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I123" s="12"/>
       <c r="N123">
         <v>119</v>
@@ -38022,7 +38029,7 @@
         <v>0.87461970713939585</v>
       </c>
     </row>
-    <row r="124" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I124" s="12"/>
       <c r="N124">
         <v>120</v>
@@ -38034,7 +38041,7 @@
         <v>0.86602540378443871</v>
       </c>
     </row>
-    <row r="125" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I125" s="12"/>
       <c r="N125">
         <v>121</v>
@@ -38046,7 +38053,7 @@
         <v>0.85716730070211233</v>
       </c>
     </row>
-    <row r="126" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I126" s="12"/>
       <c r="N126">
         <v>122</v>
@@ -38058,7 +38065,7 @@
         <v>0.84804809615642607</v>
       </c>
     </row>
-    <row r="127" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I127" s="12"/>
       <c r="N127">
         <v>123</v>
@@ -38070,7 +38077,7 @@
         <v>0.83867056794542394</v>
       </c>
     </row>
-    <row r="128" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I128" s="12"/>
       <c r="N128">
         <v>124</v>
@@ -38082,7 +38089,7 @@
         <v>0.82903757255504174</v>
       </c>
     </row>
-    <row r="129" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N129">
         <v>125</v>
       </c>
@@ -38093,7 +38100,7 @@
         <v>0.81915204428899202</v>
       </c>
     </row>
-    <row r="130" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N130">
         <v>126</v>
       </c>
@@ -38104,7 +38111,7 @@
         <v>0.80901699437494745</v>
       </c>
     </row>
-    <row r="131" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N131">
         <v>127</v>
       </c>
@@ -38115,7 +38122,7 @@
         <v>0.79863551004729272</v>
       </c>
     </row>
-    <row r="132" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N132">
         <v>128</v>
       </c>
@@ -38126,7 +38133,7 @@
         <v>0.78801075360672201</v>
       </c>
     </row>
-    <row r="133" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N133">
         <v>129</v>
       </c>
@@ -38137,7 +38144,7 @@
         <v>0.77714596145697101</v>
       </c>
     </row>
-    <row r="134" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N134">
         <v>130</v>
       </c>
@@ -38148,7 +38155,7 @@
         <v>0.76604444311897801</v>
       </c>
     </row>
-    <row r="135" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N135">
         <v>131</v>
       </c>
@@ -38159,7 +38166,7 @@
         <v>0.75470958022277179</v>
       </c>
     </row>
-    <row r="136" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N136">
         <v>132</v>
       </c>
@@ -38170,7 +38177,7 @@
         <v>0.74314482547739424</v>
       </c>
     </row>
-    <row r="137" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N137">
         <v>133</v>
       </c>
@@ -38181,7 +38188,7 @@
         <v>0.73135370161917057</v>
       </c>
     </row>
-    <row r="138" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N138">
         <v>134</v>
       </c>
@@ -38192,7 +38199,7 @@
         <v>0.71933980033865141</v>
       </c>
     </row>
-    <row r="139" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N139">
         <v>135</v>
       </c>
@@ -38203,7 +38210,7 @@
         <v>0.70710678118654757</v>
       </c>
     </row>
-    <row r="140" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N140">
         <v>136</v>
       </c>
@@ -38214,7 +38221,7 @@
         <v>0.69465837045899714</v>
       </c>
     </row>
-    <row r="141" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N141">
         <v>137</v>
       </c>
@@ -38225,7 +38232,7 @@
         <v>0.68199836006249859</v>
       </c>
     </row>
-    <row r="142" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N142">
         <v>138</v>
       </c>
@@ -38236,7 +38243,7 @@
         <v>0.66913060635885835</v>
       </c>
     </row>
-    <row r="143" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N143">
         <v>139</v>
       </c>
@@ -38247,7 +38254,7 @@
         <v>0.65605902899050728</v>
       </c>
     </row>
-    <row r="144" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N144">
         <v>140</v>
       </c>
@@ -38258,7 +38265,7 @@
         <v>0.64278760968653947</v>
       </c>
     </row>
-    <row r="145" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N145">
         <v>141</v>
       </c>
@@ -38269,7 +38276,7 @@
         <v>0.62932039104983772</v>
       </c>
     </row>
-    <row r="146" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N146">
         <v>142</v>
       </c>
@@ -38280,7 +38287,7 @@
         <v>0.6156614753256584</v>
       </c>
     </row>
-    <row r="147" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N147">
         <v>143</v>
       </c>
@@ -38291,7 +38298,7 @@
         <v>0.60181502315204816</v>
       </c>
     </row>
-    <row r="148" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N148">
         <v>144</v>
       </c>
@@ -38302,7 +38309,7 @@
         <v>0.58778525229247325</v>
       </c>
     </row>
-    <row r="149" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N149">
         <v>145</v>
       </c>
@@ -38313,7 +38320,7 @@
         <v>0.57357643635104638</v>
       </c>
     </row>
-    <row r="150" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N150">
         <v>146</v>
       </c>
@@ -38324,7 +38331,7 @@
         <v>0.5591929034707469</v>
       </c>
     </row>
-    <row r="151" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N151">
         <v>147</v>
       </c>
@@ -38335,7 +38342,7 @@
         <v>0.54463903501502697</v>
       </c>
     </row>
-    <row r="152" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N152">
         <v>148</v>
       </c>
@@ -38346,7 +38353,7 @@
         <v>0.5299192642332049</v>
       </c>
     </row>
-    <row r="153" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N153">
         <v>149</v>
       </c>
@@ -38357,7 +38364,7 @@
         <v>0.51503807491005438</v>
       </c>
     </row>
-    <row r="154" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N154">
         <v>150</v>
       </c>
@@ -38368,7 +38375,7 @@
         <v>0.49999999999999994</v>
       </c>
     </row>
-    <row r="155" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N155">
         <v>151</v>
       </c>
@@ -38379,7 +38386,7 @@
         <v>0.48480962024633717</v>
       </c>
     </row>
-    <row r="156" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N156">
         <v>152</v>
       </c>
@@ -38390,7 +38397,7 @@
         <v>0.46947156278589108</v>
       </c>
     </row>
-    <row r="157" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N157">
         <v>153</v>
       </c>
@@ -38401,7 +38408,7 @@
         <v>0.45399049973954686</v>
       </c>
     </row>
-    <row r="158" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N158">
         <v>154</v>
       </c>
@@ -38412,7 +38419,7 @@
         <v>0.43837114678907729</v>
       </c>
     </row>
-    <row r="159" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N159">
         <v>155</v>
       </c>
@@ -38423,7 +38430,7 @@
         <v>0.4226182617406995</v>
       </c>
     </row>
-    <row r="160" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N160">
         <v>156</v>
       </c>
@@ -38434,7 +38441,7 @@
         <v>0.40673664307580043</v>
       </c>
     </row>
-    <row r="161" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N161">
         <v>157</v>
       </c>
@@ -38445,7 +38452,7 @@
         <v>0.39073112848927416</v>
       </c>
     </row>
-    <row r="162" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N162">
         <v>158</v>
       </c>
@@ -38456,7 +38463,7 @@
         <v>0.37460659341591224</v>
       </c>
     </row>
-    <row r="163" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N163">
         <v>159</v>
       </c>
@@ -38467,7 +38474,7 @@
         <v>0.35836794954530021</v>
       </c>
     </row>
-    <row r="164" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N164">
         <v>160</v>
       </c>
@@ -38478,7 +38485,7 @@
         <v>0.34202014332566888</v>
       </c>
     </row>
-    <row r="165" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N165">
         <v>161</v>
       </c>
@@ -38489,7 +38496,7 @@
         <v>0.32556815445715703</v>
       </c>
     </row>
-    <row r="166" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N166">
         <v>162</v>
       </c>
@@ -38500,7 +38507,7 @@
         <v>0.30901699437494751</v>
       </c>
     </row>
-    <row r="167" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N167">
         <v>163</v>
       </c>
@@ -38511,7 +38518,7 @@
         <v>0.29237170472273705</v>
       </c>
     </row>
-    <row r="168" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N168">
         <v>164</v>
       </c>
@@ -38522,7 +38529,7 @@
         <v>0.27563735581699966</v>
       </c>
     </row>
-    <row r="169" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N169">
         <v>165</v>
       </c>
@@ -38533,7 +38540,7 @@
         <v>0.25881904510252102</v>
       </c>
     </row>
-    <row r="170" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N170">
         <v>166</v>
       </c>
@@ -38544,7 +38551,7 @@
         <v>0.24192189559966773</v>
       </c>
     </row>
-    <row r="171" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N171">
         <v>167</v>
       </c>
@@ -38555,7 +38562,7 @@
         <v>0.22495105434386478</v>
       </c>
     </row>
-    <row r="172" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N172">
         <v>168</v>
       </c>
@@ -38566,7 +38573,7 @@
         <v>0.20791169081775931</v>
       </c>
     </row>
-    <row r="173" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N173">
         <v>169</v>
       </c>
@@ -38577,7 +38584,7 @@
         <v>0.19080899537654497</v>
       </c>
     </row>
-    <row r="174" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N174">
         <v>170</v>
       </c>
@@ -38588,7 +38595,7 @@
         <v>0.17364817766693028</v>
       </c>
     </row>
-    <row r="175" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N175">
         <v>171</v>
       </c>
@@ -38599,7 +38606,7 @@
         <v>0.15643446504023098</v>
       </c>
     </row>
-    <row r="176" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N176">
         <v>172</v>
       </c>
@@ -38610,7 +38617,7 @@
         <v>0.13917310096006574</v>
       </c>
     </row>
-    <row r="177" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="177" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N177">
         <v>173</v>
       </c>
@@ -38621,7 +38628,7 @@
         <v>0.12186934340514755</v>
       </c>
     </row>
-    <row r="178" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N178">
         <v>174</v>
       </c>
@@ -38632,7 +38639,7 @@
         <v>0.10452846326765373</v>
       </c>
     </row>
-    <row r="179" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N179">
         <v>175</v>
       </c>
@@ -38643,7 +38650,7 @@
         <v>8.7155742747658638E-2</v>
       </c>
     </row>
-    <row r="180" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N180">
         <v>176</v>
       </c>
@@ -38654,7 +38661,7 @@
         <v>6.9756473744125524E-2</v>
       </c>
     </row>
-    <row r="181" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N181">
         <v>177</v>
       </c>
@@ -38665,7 +38672,7 @@
         <v>5.2335956242943807E-2</v>
       </c>
     </row>
-    <row r="182" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N182">
         <v>178</v>
       </c>
@@ -38676,7 +38683,7 @@
         <v>3.4899496702500699E-2</v>
       </c>
     </row>
-    <row r="183" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N183">
         <v>179</v>
       </c>
@@ -38687,7 +38694,7 @@
         <v>1.7452406437283439E-2</v>
       </c>
     </row>
-    <row r="184" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N184">
         <v>180</v>
       </c>
@@ -38698,7 +38705,7 @@
         <v>1.22514845490862E-16</v>
       </c>
     </row>
-    <row r="185" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="185" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N185">
         <v>181</v>
       </c>
@@ -38709,7 +38716,7 @@
         <v>-1.7452406437283192E-2</v>
       </c>
     </row>
-    <row r="186" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N186">
         <v>182</v>
       </c>
@@ -38720,7 +38727,7 @@
         <v>-3.48994967025009E-2</v>
       </c>
     </row>
-    <row r="187" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N187">
         <v>183</v>
       </c>
@@ -38731,7 +38738,7 @@
         <v>-5.2335956242943557E-2</v>
       </c>
     </row>
-    <row r="188" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N188">
         <v>184</v>
       </c>
@@ -38742,7 +38749,7 @@
         <v>-6.9756473744124831E-2</v>
       </c>
     </row>
-    <row r="189" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N189">
         <v>185</v>
       </c>
@@ -38753,7 +38760,7 @@
         <v>-8.7155742747657944E-2</v>
       </c>
     </row>
-    <row r="190" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N190">
         <v>186</v>
       </c>
@@ -38764,7 +38771,7 @@
         <v>-0.10452846326765305</v>
       </c>
     </row>
-    <row r="191" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N191">
         <v>187</v>
       </c>
@@ -38775,7 +38782,7 @@
         <v>-0.12186934340514774</v>
       </c>
     </row>
-    <row r="192" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N192">
         <v>188</v>
       </c>
@@ -38786,7 +38793,7 @@
         <v>-0.13917310096006552</v>
       </c>
     </row>
-    <row r="193" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N193">
         <v>189</v>
       </c>
@@ -38797,7 +38804,7 @@
         <v>-0.15643446504023073</v>
       </c>
     </row>
-    <row r="194" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N194">
         <v>190</v>
       </c>
@@ -38808,7 +38815,7 @@
         <v>-0.17364817766693047</v>
       </c>
     </row>
-    <row r="195" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N195">
         <v>191</v>
       </c>
@@ -38819,7 +38826,7 @@
         <v>-0.19080899537654472</v>
       </c>
     </row>
-    <row r="196" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N196">
         <v>192</v>
       </c>
@@ -38830,7 +38837,7 @@
         <v>-0.20791169081775907</v>
       </c>
     </row>
-    <row r="197" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N197">
         <v>193</v>
       </c>
@@ -38841,7 +38848,7 @@
         <v>-0.22495105434386498</v>
       </c>
     </row>
-    <row r="198" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="198" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N198">
         <v>194</v>
       </c>
@@ -38852,7 +38859,7 @@
         <v>-0.24192189559966751</v>
       </c>
     </row>
-    <row r="199" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="199" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N199">
         <v>195</v>
       </c>
@@ -38863,7 +38870,7 @@
         <v>-0.25881904510252035</v>
       </c>
     </row>
-    <row r="200" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="200" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N200">
         <v>196</v>
       </c>
@@ -38874,7 +38881,7 @@
         <v>-0.275637355816999</v>
       </c>
     </row>
-    <row r="201" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N201">
         <v>197</v>
       </c>
@@ -38885,7 +38892,7 @@
         <v>-0.29237170472273638</v>
       </c>
     </row>
-    <row r="202" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="202" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N202">
         <v>198</v>
       </c>
@@ -38896,7 +38903,7 @@
         <v>-0.30901699437494773</v>
       </c>
     </row>
-    <row r="203" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N203">
         <v>199</v>
       </c>
@@ -38907,7 +38914,7 @@
         <v>-0.32556815445715676</v>
       </c>
     </row>
-    <row r="204" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N204">
         <v>200</v>
       </c>
@@ -38918,7 +38925,7 @@
         <v>-0.34202014332566866</v>
       </c>
     </row>
-    <row r="205" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N205">
         <v>201</v>
       </c>
@@ -38929,7 +38936,7 @@
         <v>-0.35836794954530043</v>
       </c>
     </row>
-    <row r="206" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="206" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N206">
         <v>202</v>
       </c>
@@ -38940,7 +38947,7 @@
         <v>-0.37460659341591201</v>
       </c>
     </row>
-    <row r="207" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N207">
         <v>203</v>
       </c>
@@ -38951,7 +38958,7 @@
         <v>-0.39073112848927355</v>
       </c>
     </row>
-    <row r="208" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="208" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N208">
         <v>204</v>
       </c>
@@ -38962,7 +38969,7 @@
         <v>-0.40673664307579982</v>
       </c>
     </row>
-    <row r="209" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N209">
         <v>205</v>
       </c>
@@ -38973,7 +38980,7 @@
         <v>-0.42261826174069927</v>
       </c>
     </row>
-    <row r="210" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N210">
         <v>206</v>
       </c>
@@ -38984,7 +38991,7 @@
         <v>-0.43837114678907707</v>
       </c>
     </row>
-    <row r="211" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N211">
         <v>207</v>
       </c>
@@ -38995,7 +39002,7 @@
         <v>-0.45399049973954625</v>
       </c>
     </row>
-    <row r="212" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="212" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N212">
         <v>208</v>
       </c>
@@ -39006,7 +39013,7 @@
         <v>-0.46947156278589086</v>
       </c>
     </row>
-    <row r="213" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N213">
         <v>209</v>
       </c>
@@ -39017,7 +39024,7 @@
         <v>-0.48480962024633695</v>
       </c>
     </row>
-    <row r="214" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N214">
         <v>210</v>
       </c>
@@ -39028,7 +39035,7 @@
         <v>-0.50000000000000011</v>
       </c>
     </row>
-    <row r="215" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="215" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N215">
         <v>211</v>
       </c>
@@ -39039,7 +39046,7 @@
         <v>-0.51503807491005416</v>
       </c>
     </row>
-    <row r="216" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="216" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N216">
         <v>212</v>
       </c>
@@ -39050,7 +39057,7 @@
         <v>-0.52991926423320479</v>
       </c>
     </row>
-    <row r="217" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="217" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N217">
         <v>213</v>
       </c>
@@ -39061,7 +39068,7 @@
         <v>-0.54463903501502708</v>
       </c>
     </row>
-    <row r="218" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="218" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N218">
         <v>214</v>
       </c>
@@ -39072,7 +39079,7 @@
         <v>-0.55919290347074668</v>
       </c>
     </row>
-    <row r="219" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="219" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N219">
         <v>215</v>
       </c>
@@ -39083,7 +39090,7 @@
         <v>-0.57357643635104583</v>
       </c>
     </row>
-    <row r="220" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="220" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N220">
         <v>216</v>
       </c>
@@ -39094,7 +39101,7 @@
         <v>-0.58778525229247303</v>
       </c>
     </row>
-    <row r="221" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="221" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N221">
         <v>217</v>
       </c>
@@ -39105,7 +39112,7 @@
         <v>-0.60181502315204805</v>
       </c>
     </row>
-    <row r="222" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="222" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N222">
         <v>218</v>
       </c>
@@ -39116,7 +39123,7 @@
         <v>-0.61566147532565785</v>
       </c>
     </row>
-    <row r="223" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="223" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N223">
         <v>219</v>
       </c>
@@ -39127,7 +39134,7 @@
         <v>-0.62932039104983761</v>
       </c>
     </row>
-    <row r="224" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="224" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N224">
         <v>220</v>
       </c>
@@ -39138,7 +39145,7 @@
         <v>-0.64278760968653925</v>
       </c>
     </row>
-    <row r="225" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="225" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N225">
         <v>221</v>
       </c>
@@ -39149,7 +39156,7 @@
         <v>-0.65605902899050739</v>
       </c>
     </row>
-    <row r="226" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="226" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N226">
         <v>222</v>
       </c>
@@ -39160,7 +39167,7 @@
         <v>-0.66913060635885824</v>
       </c>
     </row>
-    <row r="227" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="227" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N227">
         <v>223</v>
       </c>
@@ -39171,7 +39178,7 @@
         <v>-0.68199836006249837</v>
       </c>
     </row>
-    <row r="228" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="228" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N228">
         <v>224</v>
       </c>
@@ -39182,7 +39189,7 @@
         <v>-0.69465837045899737</v>
       </c>
     </row>
-    <row r="229" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="229" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N229">
         <v>225</v>
       </c>
@@ -39193,7 +39200,7 @@
         <v>-0.70710678118654746</v>
       </c>
     </row>
-    <row r="230" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="230" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N230">
         <v>226</v>
       </c>
@@ -39204,7 +39211,7 @@
         <v>-0.71933980033865086</v>
       </c>
     </row>
-    <row r="231" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="231" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N231">
         <v>227</v>
       </c>
@@ -39215,7 +39222,7 @@
         <v>-0.73135370161917013</v>
       </c>
     </row>
-    <row r="232" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="232" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N232">
         <v>228</v>
       </c>
@@ -39226,7 +39233,7 @@
         <v>-0.74314482547739402</v>
       </c>
     </row>
-    <row r="233" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="233" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N233">
         <v>229</v>
       </c>
@@ -39237,7 +39244,7 @@
         <v>-0.75470958022277168</v>
       </c>
     </row>
-    <row r="234" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="234" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N234">
         <v>230</v>
       </c>
@@ -39248,7 +39255,7 @@
         <v>-0.7660444431189779</v>
       </c>
     </row>
-    <row r="235" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="235" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N235">
         <v>231</v>
       </c>
@@ -39259,7 +39266,7 @@
         <v>-0.77714596145697112</v>
       </c>
     </row>
-    <row r="236" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="236" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N236">
         <v>232</v>
       </c>
@@ -39270,7 +39277,7 @@
         <v>-0.78801075360672213</v>
       </c>
     </row>
-    <row r="237" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="237" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N237">
         <v>233</v>
       </c>
@@ -39281,7 +39288,7 @@
         <v>-0.79863551004729283</v>
       </c>
     </row>
-    <row r="238" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="238" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N238">
         <v>234</v>
       </c>
@@ -39292,7 +39299,7 @@
         <v>-0.80901699437494734</v>
       </c>
     </row>
-    <row r="239" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="239" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N239">
         <v>235</v>
       </c>
@@ -39303,7 +39310,7 @@
         <v>-0.81915204428899158</v>
       </c>
     </row>
-    <row r="240" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="240" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N240">
         <v>236</v>
       </c>
@@ -39314,7 +39321,7 @@
         <v>-0.8290375725550414</v>
       </c>
     </row>
-    <row r="241" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="241" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N241">
         <v>237</v>
       </c>
@@ -39325,7 +39332,7 @@
         <v>-0.83867056794542405</v>
       </c>
     </row>
-    <row r="242" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="242" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N242">
         <v>238</v>
       </c>
@@ -39336,7 +39343,7 @@
         <v>-0.84804809615642596</v>
       </c>
     </row>
-    <row r="243" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="243" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N243">
         <v>239</v>
       </c>
@@ -39347,7 +39354,7 @@
         <v>-0.85716730070211211</v>
       </c>
     </row>
-    <row r="244" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="244" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N244">
         <v>240</v>
       </c>
@@ -39358,7 +39365,7 @@
         <v>-0.86602540378443837</v>
       </c>
     </row>
-    <row r="245" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="245" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N245">
         <v>241</v>
       </c>
@@ -39369,7 +39376,7 @@
         <v>-0.87461970713939596</v>
       </c>
     </row>
-    <row r="246" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="246" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N246">
         <v>242</v>
       </c>
@@ -39380,7 +39387,7 @@
         <v>-0.88294759285892699</v>
       </c>
     </row>
-    <row r="247" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="247" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N247">
         <v>243</v>
       </c>
@@ -39391,7 +39398,7 @@
         <v>-0.89100652418836779</v>
       </c>
     </row>
-    <row r="248" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="248" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N248">
         <v>244</v>
       </c>
@@ -39402,7 +39409,7 @@
         <v>-0.89879404629916682</v>
       </c>
     </row>
-    <row r="249" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="249" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N249">
         <v>245</v>
       </c>
@@ -39413,7 +39420,7 @@
         <v>-0.90630778703664971</v>
       </c>
     </row>
-    <row r="250" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="250" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N250">
         <v>246</v>
       </c>
@@ -39424,7 +39431,7 @@
         <v>-0.91354545764260098</v>
       </c>
     </row>
-    <row r="251" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="251" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N251">
         <v>247</v>
       </c>
@@ -39435,7 +39442,7 @@
         <v>-0.92050485345244026</v>
       </c>
     </row>
-    <row r="252" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="252" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N252">
         <v>248</v>
       </c>
@@ -39446,7 +39453,7 @@
         <v>-0.92718385456678731</v>
       </c>
     </row>
-    <row r="253" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="253" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N253">
         <v>249</v>
       </c>
@@ -39457,7 +39464,7 @@
         <v>-0.93358042649720163</v>
       </c>
     </row>
-    <row r="254" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="254" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N254">
         <v>250</v>
       </c>
@@ -39468,7 +39475,7 @@
         <v>-0.93969262078590821</v>
       </c>
     </row>
-    <row r="255" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="255" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N255">
         <v>251</v>
       </c>
@@ -39479,7 +39486,7 @@
         <v>-0.94551857559931685</v>
       </c>
     </row>
-    <row r="256" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="256" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N256">
         <v>252</v>
       </c>
@@ -39490,7 +39497,7 @@
         <v>-0.95105651629515353</v>
       </c>
     </row>
-    <row r="257" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="257" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N257">
         <v>253</v>
       </c>
@@ -39501,7 +39508,7 @@
         <v>-0.95630475596303532</v>
       </c>
     </row>
-    <row r="258" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="258" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N258">
         <v>254</v>
       </c>
@@ -39512,7 +39519,7 @@
         <v>-0.96126169593831901</v>
       </c>
     </row>
-    <row r="259" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="259" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N259">
         <v>255</v>
       </c>
@@ -39523,7 +39530,7 @@
         <v>-0.96592582628906831</v>
       </c>
     </row>
-    <row r="260" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="260" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N260">
         <v>256</v>
       </c>
@@ -39534,7 +39541,7 @@
         <v>-0.97029572627599647</v>
       </c>
     </row>
-    <row r="261" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="261" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N261">
         <v>257</v>
       </c>
@@ -39545,7 +39552,7 @@
         <v>-0.97437006478523513</v>
       </c>
     </row>
-    <row r="262" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="262" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N262">
         <v>258</v>
       </c>
@@ -39556,7 +39563,7 @@
         <v>-0.97814760073380558</v>
       </c>
     </row>
-    <row r="263" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="263" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N263">
         <v>259</v>
       </c>
@@ -39567,7 +39574,7 @@
         <v>-0.98162718344766386</v>
       </c>
     </row>
-    <row r="264" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="264" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N264">
         <v>260</v>
       </c>
@@ -39578,7 +39585,7 @@
         <v>-0.98480775301220802</v>
       </c>
     </row>
-    <row r="265" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="265" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N265">
         <v>261</v>
       </c>
@@ -39589,7 +39596,7 @@
         <v>-0.98768834059513766</v>
       </c>
     </row>
-    <row r="266" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="266" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N266">
         <v>262</v>
       </c>
@@ -39600,7 +39607,7 @@
         <v>-0.99026806874157036</v>
       </c>
     </row>
-    <row r="267" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="267" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N267">
         <v>263</v>
       </c>
@@ -39611,7 +39618,7 @@
         <v>-0.99254615164132209</v>
       </c>
     </row>
-    <row r="268" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="268" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N268">
         <v>264</v>
       </c>
@@ -39622,7 +39629,7 @@
         <v>-0.9945218953682734</v>
       </c>
     </row>
-    <row r="269" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="269" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N269">
         <v>265</v>
       </c>
@@ -39633,7 +39640,7 @@
         <v>-0.99619469809174555</v>
       </c>
     </row>
-    <row r="270" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="270" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N270">
         <v>266</v>
       </c>
@@ -39644,7 +39651,7 @@
         <v>-0.9975640502598242</v>
       </c>
     </row>
-    <row r="271" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="271" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N271">
         <v>267</v>
       </c>
@@ -39655,7 +39662,7 @@
         <v>-0.99862953475457383</v>
       </c>
     </row>
-    <row r="272" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="272" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N272">
         <v>268</v>
       </c>
@@ -39666,7 +39673,7 @@
         <v>-0.99939082701909565</v>
       </c>
     </row>
-    <row r="273" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="273" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N273">
         <v>269</v>
       </c>
@@ -39677,7 +39684,7 @@
         <v>-0.99984769515639127</v>
       </c>
     </row>
-    <row r="274" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="274" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N274">
         <v>270</v>
       </c>
@@ -39688,7 +39695,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="275" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="275" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N275">
         <v>271</v>
       </c>
@@ -39699,7 +39706,7 @@
         <v>-0.99984769515639127</v>
       </c>
     </row>
-    <row r="276" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="276" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N276">
         <v>272</v>
       </c>
@@ -39710,7 +39717,7 @@
         <v>-0.99939082701909576</v>
       </c>
     </row>
-    <row r="277" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="277" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N277">
         <v>273</v>
       </c>
@@ -39721,7 +39728,7 @@
         <v>-0.99862953475457383</v>
       </c>
     </row>
-    <row r="278" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="278" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N278">
         <v>274</v>
       </c>
@@ -39732,7 +39739,7 @@
         <v>-0.99756405025982431</v>
       </c>
     </row>
-    <row r="279" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="279" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N279">
         <v>275</v>
       </c>
@@ -39743,7 +39750,7 @@
         <v>-0.99619469809174555</v>
       </c>
     </row>
-    <row r="280" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="280" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N280">
         <v>276</v>
       </c>
@@ -39754,7 +39761,7 @@
         <v>-0.9945218953682734</v>
       </c>
     </row>
-    <row r="281" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="281" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N281">
         <v>277</v>
       </c>
@@ -39765,7 +39772,7 @@
         <v>-0.99254615164132198</v>
       </c>
     </row>
-    <row r="282" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="282" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N282">
         <v>278</v>
       </c>
@@ -39776,7 +39783,7 @@
         <v>-0.99026806874157036</v>
       </c>
     </row>
-    <row r="283" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="283" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N283">
         <v>279</v>
       </c>
@@ -39787,7 +39794,7 @@
         <v>-0.98768834059513777</v>
       </c>
     </row>
-    <row r="284" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="284" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N284">
         <v>280</v>
       </c>
@@ -39798,7 +39805,7 @@
         <v>-0.98480775301220813</v>
       </c>
     </row>
-    <row r="285" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="285" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N285">
         <v>281</v>
       </c>
@@ -39809,7 +39816,7 @@
         <v>-0.98162718344766409</v>
       </c>
     </row>
-    <row r="286" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="286" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N286">
         <v>282</v>
       </c>
@@ -39820,7 +39827,7 @@
         <v>-0.9781476007338058</v>
       </c>
     </row>
-    <row r="287" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="287" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N287">
         <v>283</v>
       </c>
@@ -39831,7 +39838,7 @@
         <v>-0.97437006478523525</v>
       </c>
     </row>
-    <row r="288" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="288" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N288">
         <v>284</v>
       </c>
@@ -39842,7 +39849,7 @@
         <v>-0.97029572627599658</v>
       </c>
     </row>
-    <row r="289" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="289" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N289">
         <v>285</v>
       </c>
@@ -39853,7 +39860,7 @@
         <v>-0.9659258262890682</v>
       </c>
     </row>
-    <row r="290" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="290" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N290">
         <v>286</v>
       </c>
@@ -39864,7 +39871,7 @@
         <v>-0.96126169593831878</v>
       </c>
     </row>
-    <row r="291" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="291" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N291">
         <v>287</v>
       </c>
@@ -39875,7 +39882,7 @@
         <v>-0.95630475596303544</v>
       </c>
     </row>
-    <row r="292" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="292" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N292">
         <v>288</v>
       </c>
@@ -39886,7 +39893,7 @@
         <v>-0.95105651629515364</v>
       </c>
     </row>
-    <row r="293" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="293" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N293">
         <v>289</v>
       </c>
@@ -39897,7 +39904,7 @@
         <v>-0.94551857559931696</v>
       </c>
     </row>
-    <row r="294" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="294" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N294">
         <v>290</v>
       </c>
@@ -39908,7 +39915,7 @@
         <v>-0.93969262078590854</v>
       </c>
     </row>
-    <row r="295" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="295" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N295">
         <v>291</v>
       </c>
@@ -39919,7 +39926,7 @@
         <v>-0.93358042649720208</v>
       </c>
     </row>
-    <row r="296" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="296" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N296">
         <v>292</v>
       </c>
@@ -39930,7 +39937,7 @@
         <v>-0.92718385456678742</v>
       </c>
     </row>
-    <row r="297" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="297" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N297">
         <v>293</v>
       </c>
@@ -39941,7 +39948,7 @@
         <v>-0.92050485345244049</v>
       </c>
     </row>
-    <row r="298" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="298" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N298">
         <v>294</v>
       </c>
@@ -39952,7 +39959,7 @@
         <v>-0.91354545764260076</v>
       </c>
     </row>
-    <row r="299" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="299" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N299">
         <v>295</v>
       </c>
@@ -39963,7 +39970,7 @@
         <v>-0.90630778703664994</v>
       </c>
     </row>
-    <row r="300" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="300" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N300">
         <v>296</v>
       </c>
@@ -39974,7 +39981,7 @@
         <v>-0.89879404629916704</v>
       </c>
     </row>
-    <row r="301" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="301" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N301">
         <v>297</v>
       </c>
@@ -39985,7 +39992,7 @@
         <v>-0.8910065241883679</v>
       </c>
     </row>
-    <row r="302" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="302" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N302">
         <v>298</v>
       </c>
@@ -39996,7 +40003,7 @@
         <v>-0.8829475928589271</v>
       </c>
     </row>
-    <row r="303" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="303" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N303">
         <v>299</v>
       </c>
@@ -40007,7 +40014,7 @@
         <v>-0.87461970713939607</v>
       </c>
     </row>
-    <row r="304" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="304" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N304">
         <v>300</v>
       </c>
@@ -40018,7 +40025,7 @@
         <v>-0.8660254037844386</v>
       </c>
     </row>
-    <row r="305" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="305" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N305">
         <v>301</v>
       </c>
@@ -40029,7 +40036,7 @@
         <v>-0.85716730070211233</v>
       </c>
     </row>
-    <row r="306" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="306" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N306">
         <v>302</v>
       </c>
@@ -40040,7 +40047,7 @@
         <v>-0.84804809615642618</v>
       </c>
     </row>
-    <row r="307" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="307" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N307">
         <v>303</v>
       </c>
@@ -40051,7 +40058,7 @@
         <v>-0.83867056794542427</v>
       </c>
     </row>
-    <row r="308" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="308" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N308">
         <v>304</v>
       </c>
@@ -40062,7 +40069,7 @@
         <v>-0.82903757255504207</v>
       </c>
     </row>
-    <row r="309" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="309" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N309">
         <v>305</v>
       </c>
@@ -40073,7 +40080,7 @@
         <v>-0.8191520442889918</v>
       </c>
     </row>
-    <row r="310" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="310" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N310">
         <v>306</v>
       </c>
@@ -40084,7 +40091,7 @@
         <v>-0.80901699437494756</v>
       </c>
     </row>
-    <row r="311" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="311" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N311">
         <v>307</v>
       </c>
@@ -40095,7 +40102,7 @@
         <v>-0.79863551004729305</v>
       </c>
     </row>
-    <row r="312" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="312" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N312">
         <v>308</v>
       </c>
@@ -40106,7 +40113,7 @@
         <v>-0.78801075360672179</v>
       </c>
     </row>
-    <row r="313" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="313" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N313">
         <v>309</v>
       </c>
@@ -40117,7 +40124,7 @@
         <v>-0.77714596145697079</v>
       </c>
     </row>
-    <row r="314" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="314" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N314">
         <v>310</v>
       </c>
@@ -40128,7 +40135,7 @@
         <v>-0.76604444311897812</v>
       </c>
     </row>
-    <row r="315" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="315" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N315">
         <v>311</v>
       </c>
@@ -40139,7 +40146,7 @@
         <v>-0.75470958022277224</v>
       </c>
     </row>
-    <row r="316" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="316" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N316">
         <v>312</v>
       </c>
@@ -40150,7 +40157,7 @@
         <v>-0.74314482547739458</v>
       </c>
     </row>
-    <row r="317" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="317" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N317">
         <v>313</v>
       </c>
@@ -40161,7 +40168,7 @@
         <v>-0.73135370161917101</v>
       </c>
     </row>
-    <row r="318" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="318" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N318">
         <v>314</v>
       </c>
@@ -40172,7 +40179,7 @@
         <v>-0.71933980033865175</v>
       </c>
     </row>
-    <row r="319" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="319" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N319">
         <v>315</v>
       </c>
@@ -40183,7 +40190,7 @@
         <v>-0.70710678118654768</v>
       </c>
     </row>
-    <row r="320" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="320" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N320">
         <v>316</v>
       </c>
@@ -40194,7 +40201,7 @@
         <v>-0.69465837045899759</v>
       </c>
     </row>
-    <row r="321" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="321" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N321">
         <v>317</v>
       </c>
@@ -40205,7 +40212,7 @@
         <v>-0.68199836006249825</v>
       </c>
     </row>
-    <row r="322" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="322" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N322">
         <v>318</v>
       </c>
@@ -40216,7 +40223,7 @@
         <v>-0.66913060635885813</v>
       </c>
     </row>
-    <row r="323" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="323" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N323">
         <v>319</v>
       </c>
@@ -40227,7 +40234,7 @@
         <v>-0.65605902899050739</v>
       </c>
     </row>
-    <row r="324" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="324" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N324">
         <v>320</v>
       </c>
@@ -40238,7 +40245,7 @@
         <v>-0.64278760968653958</v>
       </c>
     </row>
-    <row r="325" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="325" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N325">
         <v>321</v>
       </c>
@@ -40249,7 +40256,7 @@
         <v>-0.62932039104983784</v>
       </c>
     </row>
-    <row r="326" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="326" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N326">
         <v>322</v>
       </c>
@@ -40260,7 +40267,7 @@
         <v>-0.61566147532565885</v>
       </c>
     </row>
-    <row r="327" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="327" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N327">
         <v>323</v>
       </c>
@@ -40271,7 +40278,7 @@
         <v>-0.60181502315204827</v>
       </c>
     </row>
-    <row r="328" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="328" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N328">
         <v>324</v>
       </c>
@@ -40282,7 +40289,7 @@
         <v>-0.58778525229247336</v>
       </c>
     </row>
-    <row r="329" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="329" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N329">
         <v>325</v>
       </c>
@@ -40293,7 +40300,7 @@
         <v>-0.57357643635104649</v>
       </c>
     </row>
-    <row r="330" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="330" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N330">
         <v>326</v>
       </c>
@@ -40304,7 +40311,7 @@
         <v>-0.55919290347074735</v>
       </c>
     </row>
-    <row r="331" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="331" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N331">
         <v>327</v>
       </c>
@@ -40315,7 +40322,7 @@
         <v>-0.54463903501502697</v>
       </c>
     </row>
-    <row r="332" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="332" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N332">
         <v>328</v>
       </c>
@@ -40326,7 +40333,7 @@
         <v>-0.52991926423320579</v>
       </c>
     </row>
-    <row r="333" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="333" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N333">
         <v>329</v>
       </c>
@@ -40337,7 +40344,7 @@
         <v>-0.51503807491005449</v>
       </c>
     </row>
-    <row r="334" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="334" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N334">
         <v>330</v>
       </c>
@@ -40348,7 +40355,7 @@
         <v>-0.50000000000000044</v>
       </c>
     </row>
-    <row r="335" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="335" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N335">
         <v>331</v>
       </c>
@@ -40359,7 +40366,7 @@
         <v>-0.48480962024633689</v>
       </c>
     </row>
-    <row r="336" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="336" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N336">
         <v>332</v>
       </c>
@@ -40370,7 +40377,7 @@
         <v>-0.46947156278589081</v>
       </c>
     </row>
-    <row r="337" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N337">
         <v>333</v>
       </c>
@@ -40381,7 +40388,7 @@
         <v>-0.45399049973954697</v>
       </c>
     </row>
-    <row r="338" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N338">
         <v>334</v>
       </c>
@@ -40392,7 +40399,7 @@
         <v>-0.43837114678907702</v>
       </c>
     </row>
-    <row r="339" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N339">
         <v>335</v>
       </c>
@@ -40403,7 +40410,7 @@
         <v>-0.4226182617407</v>
       </c>
     </row>
-    <row r="340" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N340">
         <v>336</v>
       </c>
@@ -40414,7 +40421,7 @@
         <v>-0.40673664307580015</v>
       </c>
     </row>
-    <row r="341" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N341">
         <v>337</v>
       </c>
@@ -40425,7 +40432,7 @@
         <v>-0.39073112848927471</v>
       </c>
     </row>
-    <row r="342" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N342">
         <v>338</v>
       </c>
@@ -40436,7 +40443,7 @@
         <v>-0.37460659341591235</v>
       </c>
     </row>
-    <row r="343" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N343">
         <v>339</v>
       </c>
@@ -40447,7 +40454,7 @@
         <v>-0.35836794954530077</v>
       </c>
     </row>
-    <row r="344" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="344" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N344">
         <v>340</v>
       </c>
@@ -40458,7 +40465,7 @@
         <v>-0.3420201433256686</v>
       </c>
     </row>
-    <row r="345" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N345">
         <v>341</v>
       </c>
@@ -40469,7 +40476,7 @@
         <v>-0.32556815445715753</v>
       </c>
     </row>
-    <row r="346" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N346">
         <v>342</v>
       </c>
@@ -40480,7 +40487,7 @@
         <v>-0.30901699437494762</v>
       </c>
     </row>
-    <row r="347" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N347">
         <v>343</v>
       </c>
@@ -40491,7 +40498,7 @@
         <v>-0.29237170472273627</v>
       </c>
     </row>
-    <row r="348" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N348">
         <v>344</v>
       </c>
@@ -40502,7 +40509,7 @@
         <v>-0.27563735581699977</v>
       </c>
     </row>
-    <row r="349" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N349">
         <v>345</v>
       </c>
@@ -40513,7 +40520,7 @@
         <v>-0.25881904510252068</v>
       </c>
     </row>
-    <row r="350" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N350">
         <v>346</v>
       </c>
@@ -40524,7 +40531,7 @@
         <v>-0.24192189559966787</v>
       </c>
     </row>
-    <row r="351" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N351">
         <v>347</v>
       </c>
@@ -40535,7 +40542,7 @@
         <v>-0.22495105434386534</v>
       </c>
     </row>
-    <row r="352" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N352">
         <v>348</v>
       </c>
@@ -40546,7 +40553,7 @@
         <v>-0.20791169081775987</v>
       </c>
     </row>
-    <row r="353" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="353" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N353">
         <v>349</v>
       </c>
@@ -40557,7 +40564,7 @@
         <v>-0.19080899537654467</v>
       </c>
     </row>
-    <row r="354" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="354" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N354">
         <v>350</v>
       </c>
@@ -40568,7 +40575,7 @@
         <v>-0.17364817766693127</v>
       </c>
     </row>
-    <row r="355" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="355" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N355">
         <v>351</v>
       </c>
@@ -40579,7 +40586,7 @@
         <v>-0.15643446504023112</v>
       </c>
     </row>
-    <row r="356" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="356" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N356">
         <v>352</v>
       </c>
@@ -40590,7 +40597,7 @@
         <v>-0.13917310096006588</v>
       </c>
     </row>
-    <row r="357" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="357" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N357">
         <v>353</v>
       </c>
@@ -40601,7 +40608,7 @@
         <v>-0.12186934340514811</v>
       </c>
     </row>
-    <row r="358" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="358" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N358">
         <v>354</v>
       </c>
@@ -40612,7 +40619,7 @@
         <v>-0.10452846326765342</v>
       </c>
     </row>
-    <row r="359" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="359" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N359">
         <v>355</v>
       </c>
@@ -40623,7 +40630,7 @@
         <v>-8.7155742747658319E-2</v>
       </c>
     </row>
-    <row r="360" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="360" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N360">
         <v>356</v>
       </c>
@@ -40634,7 +40641,7 @@
         <v>-6.9756473744124761E-2</v>
       </c>
     </row>
-    <row r="361" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="361" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N361">
         <v>357</v>
       </c>
@@ -40645,7 +40652,7 @@
         <v>-5.2335956242944369E-2</v>
       </c>
     </row>
-    <row r="362" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="362" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N362">
         <v>358</v>
       </c>
@@ -40656,7 +40663,7 @@
         <v>-3.4899496702500823E-2</v>
       </c>
     </row>
-    <row r="363" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="363" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N363">
         <v>359</v>
       </c>
@@ -40667,7 +40674,7 @@
         <v>-1.7452406437284448E-2</v>
       </c>
     </row>
-    <row r="364" spans="14:16" x14ac:dyDescent="0.3">
+    <row r="364" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N364">
         <v>360</v>
       </c>
@@ -40686,15 +40693,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="I3:L57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
         <v>15</v>
       </c>
@@ -40702,7 +40709,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I4">
         <v>55</v>
       </c>
@@ -40716,7 +40723,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="5" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I5">
         <v>20</v>
       </c>
@@ -40730,7 +40737,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I6">
         <v>77</v>
       </c>
@@ -40744,7 +40751,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I7">
         <v>182</v>
       </c>
@@ -40758,7 +40765,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I8">
         <v>190</v>
       </c>
@@ -40772,7 +40779,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I9">
         <v>140</v>
       </c>
@@ -40786,7 +40793,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I10">
         <v>156</v>
       </c>
@@ -40800,7 +40807,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I11">
         <v>178</v>
       </c>
@@ -40814,7 +40821,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I12">
         <v>45</v>
       </c>
@@ -40828,7 +40835,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="13" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I13">
         <v>156</v>
       </c>
@@ -40842,7 +40849,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="14" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I14">
         <v>181</v>
       </c>
@@ -40856,7 +40863,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I15">
         <v>115</v>
       </c>
@@ -40870,7 +40877,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I16">
         <v>123</v>
       </c>
@@ -40884,7 +40891,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="17" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I17">
         <v>152</v>
       </c>
@@ -40898,7 +40905,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="18" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I18">
         <v>129</v>
       </c>
@@ -40912,7 +40919,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="19" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I19">
         <v>90</v>
       </c>
@@ -40926,7 +40933,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="21" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I21">
         <v>75</v>
       </c>
@@ -40934,7 +40941,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I22">
         <v>50</v>
       </c>
@@ -40942,7 +40949,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I23">
         <v>25</v>
       </c>
@@ -40950,7 +40957,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="24" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I24">
         <v>75</v>
       </c>
@@ -40958,7 +40965,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I25">
         <v>50</v>
       </c>
@@ -40966,7 +40973,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="26" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I26">
         <v>25</v>
       </c>
@@ -40974,7 +40981,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="27" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I27">
         <v>75</v>
       </c>
@@ -40982,7 +40989,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="28" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I28">
         <v>125</v>
       </c>
@@ -40990,7 +40997,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I29">
         <v>150</v>
       </c>
@@ -40998,7 +41005,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="30" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I30">
         <v>175</v>
       </c>
@@ -41006,7 +41013,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I31">
         <v>150</v>
       </c>
@@ -41014,7 +41021,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I32">
         <v>125</v>
       </c>
@@ -41022,7 +41029,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="39" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I39">
         <v>4</v>
       </c>
@@ -41030,7 +41037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I40">
         <v>6</v>
       </c>
@@ -41038,7 +41045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I41">
         <v>1</v>
       </c>
@@ -41046,7 +41053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I42">
         <v>7</v>
       </c>
@@ -41054,7 +41061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I43">
         <v>4</v>
       </c>
@@ -41062,7 +41069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I45">
         <v>9</v>
       </c>
@@ -41070,7 +41077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I46">
         <v>7</v>
       </c>
@@ -41078,7 +41085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I47">
         <v>9</v>
       </c>
@@ -41086,7 +41093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I48">
         <v>5</v>
       </c>
@@ -41094,7 +41101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I49">
         <v>2</v>
       </c>
@@ -41102,7 +41109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I57" t="s">
         <v>41</v>
       </c>
@@ -41114,15 +41121,15 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="I3:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I3" s="4" t="s">
         <v>24</v>
       </c>
@@ -41142,7 +41149,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I4" s="5">
         <v>39692</v>
       </c>
@@ -41162,7 +41169,7 @@
         <v>100.94</v>
       </c>
     </row>
-    <row r="5" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I5" s="5">
         <v>39693</v>
       </c>
@@ -41182,7 +41189,7 @@
         <v>93.45</v>
       </c>
     </row>
-    <row r="6" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I6" s="5">
         <v>39694</v>
       </c>
@@ -41202,7 +41209,7 @@
         <v>99.89</v>
       </c>
     </row>
-    <row r="7" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I7" s="5">
         <v>39695</v>
       </c>
@@ -41222,7 +41229,7 @@
         <v>99.45</v>
       </c>
     </row>
-    <row r="8" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I8" s="5">
         <v>39696</v>
       </c>
@@ -41242,7 +41249,7 @@
         <v>104.33</v>
       </c>
     </row>
-    <row r="9" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I9" s="5">
         <v>39699</v>
       </c>
@@ -41262,7 +41269,7 @@
         <v>102.17</v>
       </c>
     </row>
-    <row r="10" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I10" s="5">
         <v>39700</v>
       </c>
@@ -41282,7 +41289,7 @@
         <v>110.07</v>
       </c>
     </row>
-    <row r="11" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I11" s="5">
         <v>39701</v>
       </c>
@@ -41302,7 +41309,7 @@
         <v>112.39</v>
       </c>
     </row>
-    <row r="12" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I12" s="5">
         <v>39702</v>
       </c>
@@ -41322,7 +41329,7 @@
         <v>117.52</v>
       </c>
     </row>
-    <row r="13" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I13" s="5">
         <v>39703</v>
       </c>
@@ -41342,7 +41349,7 @@
         <v>114.75</v>
       </c>
     </row>
-    <row r="14" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I14" s="5">
         <v>39706</v>
       </c>
@@ -41362,7 +41369,7 @@
         <v>116.85</v>
       </c>
     </row>
-    <row r="15" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I15" s="5">
         <v>39707</v>
       </c>
@@ -41382,7 +41389,7 @@
         <v>116.69</v>
       </c>
     </row>
-    <row r="16" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I16" s="5">
         <v>39708</v>
       </c>
@@ -41402,7 +41409,7 @@
         <v>117.25</v>
       </c>
     </row>
-    <row r="17" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I17" s="5">
         <v>39709</v>
       </c>
@@ -41422,7 +41429,7 @@
         <v>112.52</v>
       </c>
     </row>
-    <row r="18" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I18" s="5">
         <v>39710</v>
       </c>
@@ -41442,7 +41449,7 @@
         <v>109.12</v>
       </c>
     </row>
-    <row r="19" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I19" s="5">
         <v>39713</v>
       </c>
@@ -41462,7 +41469,7 @@
         <v>101.56</v>
       </c>
     </row>
-    <row r="20" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I20" s="5">
         <v>39714</v>
       </c>
@@ -41482,7 +41489,7 @@
         <v>97.23</v>
       </c>
     </row>
-    <row r="21" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I21" s="5">
         <v>39715</v>
       </c>
@@ -41502,7 +41509,7 @@
         <v>89.27</v>
       </c>
     </row>
-    <row r="22" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I22" s="5">
         <v>39716</v>
       </c>
@@ -41522,7 +41529,7 @@
         <v>104.23</v>
       </c>
     </row>
-    <row r="23" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I23" s="5">
         <v>39717</v>
       </c>
@@ -41542,7 +41549,7 @@
         <v>109.23</v>
       </c>
     </row>
-    <row r="24" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I24" s="5">
         <v>39720</v>
       </c>
@@ -41562,7 +41569,7 @@
         <v>114.23</v>
       </c>
     </row>
-    <row r="25" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I25" s="5">
         <v>39721</v>
       </c>
@@ -41582,7 +41589,7 @@
         <v>104.17</v>
       </c>
     </row>
-    <row r="26" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I26" s="7">
         <v>39722</v>
       </c>
@@ -41602,7 +41609,7 @@
         <v>113.7</v>
       </c>
     </row>
-    <row r="27" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I27" s="7">
         <v>39723</v>
       </c>
@@ -41622,7 +41629,7 @@
         <v>123.34</v>
       </c>
     </row>
-    <row r="28" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I28" s="7">
         <v>39724</v>
       </c>
@@ -41642,7 +41649,7 @@
         <v>136.22</v>
       </c>
     </row>
-    <row r="29" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I29" s="7">
         <v>39727</v>
       </c>
@@ -41662,7 +41669,7 @@
         <v>126.34</v>
       </c>
     </row>
-    <row r="30" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I30" s="7">
         <v>39728</v>
       </c>
@@ -41682,7 +41689,7 @@
         <v>125.17</v>
       </c>
     </row>
-    <row r="31" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I31" s="7">
         <v>39729</v>
       </c>
@@ -41702,7 +41709,7 @@
         <v>125.87</v>
       </c>
     </row>
-    <row r="32" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I32" s="7">
         <v>39730</v>
       </c>
@@ -41722,7 +41729,7 @@
         <v>129.44</v>
       </c>
     </row>
-    <row r="33" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I33" s="7">
         <v>39731</v>
       </c>
@@ -41749,15 +41756,15 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="I3:N62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
         <v>15</v>
       </c>
@@ -41765,7 +41772,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I4">
         <v>125</v>
       </c>
@@ -41785,7 +41792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I5">
         <v>25</v>
       </c>
@@ -41805,7 +41812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I6">
         <v>75</v>
       </c>
@@ -41825,7 +41832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I7">
         <v>175</v>
       </c>
@@ -41845,7 +41852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I21" t="s">
         <v>15</v>
       </c>
@@ -41853,7 +41860,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I22">
         <v>-125</v>
       </c>
@@ -41873,7 +41880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I23">
         <v>-50</v>
       </c>
@@ -41893,7 +41900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I24">
         <v>-60</v>
       </c>
@@ -41913,7 +41920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I25">
         <v>-150</v>
       </c>
@@ -41933,7 +41940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I27" t="s">
         <v>16</v>
       </c>
@@ -41941,7 +41948,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I28">
         <v>-150</v>
       </c>
@@ -41961,7 +41968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I29">
         <v>-50</v>
       </c>
@@ -41981,7 +41988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I30">
         <v>-100</v>
       </c>
@@ -42001,7 +42008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I31">
         <v>-164</v>
       </c>
@@ -42021,7 +42028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I39" t="s">
         <v>89</v>
       </c>
@@ -42029,7 +42036,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I40">
         <v>125</v>
       </c>
@@ -42049,7 +42056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I41">
         <v>25</v>
       </c>
@@ -42069,7 +42076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I42">
         <v>75</v>
       </c>
@@ -42089,7 +42096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I57" s="16">
         <v>28811.123114455073</v>
       </c>
@@ -42100,7 +42107,7 @@
         <v>333333</v>
       </c>
     </row>
-    <row r="58" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I58" s="16">
         <v>24349.412195871049</v>
       </c>
@@ -42111,7 +42118,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="59" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I59" s="16">
         <v>8322.9505871055389</v>
       </c>
@@ -42122,7 +42129,7 @@
         <v>29113.92877766228</v>
       </c>
     </row>
-    <row r="60" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I60" s="16">
         <v>45802.612193303525</v>
       </c>
@@ -42133,7 +42140,7 @@
         <v>84997.602378629759</v>
       </c>
     </row>
-    <row r="61" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I61" s="16">
         <v>71851.489531002881</v>
       </c>
@@ -42144,7 +42151,7 @@
         <v>67089.897019332813</v>
       </c>
     </row>
-    <row r="62" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I62" s="16">
         <v>40000</v>
       </c>
@@ -42162,15 +42169,15 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="I3:L77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I3" s="9">
         <v>36</v>
       </c>
@@ -42179,7 +42186,7 @@
       </c>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I4" s="9">
         <v>60</v>
       </c>
@@ -42188,7 +42195,7 @@
       </c>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I5" s="9">
         <v>47</v>
       </c>
@@ -42197,7 +42204,7 @@
       </c>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I6" s="9">
         <v>85</v>
       </c>
@@ -42206,7 +42213,7 @@
       </c>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I7" s="9">
         <v>12</v>
       </c>
@@ -42215,67 +42222,67 @@
       </c>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
     </row>
-    <row r="16" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
     </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I21" s="9">
         <v>8.0123711769512163</v>
       </c>
@@ -42283,7 +42290,7 @@
         <v>55.584003057122985</v>
       </c>
     </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I22" s="9">
         <v>69.849410051082998</v>
       </c>
@@ -42291,7 +42298,7 @@
         <v>98.365763425948344</v>
       </c>
     </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I23" s="9">
         <v>80.637674119627192</v>
       </c>
@@ -42299,7 +42306,7 @@
         <v>52.002875658967262</v>
       </c>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I24" s="9">
         <v>68.16700490061325</v>
       </c>
@@ -42307,7 +42314,7 @@
         <v>39.705138336499687</v>
       </c>
     </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I25" s="9">
         <v>96.118059277974837</v>
       </c>
@@ -42315,7 +42322,7 @@
         <v>21.957455603117658</v>
       </c>
     </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I26" s="9">
         <v>92.93617469780466</v>
       </c>
@@ -42323,7 +42330,7 @@
         <v>9.1042103573020672</v>
       </c>
     </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I27" s="9">
         <v>78.595406194506268</v>
       </c>
@@ -42331,7 +42338,7 @@
         <v>31.940606490863477</v>
       </c>
     </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I28" s="9">
         <v>35.083491722243146</v>
       </c>
@@ -42339,7 +42346,7 @@
         <v>66.053320544047295</v>
       </c>
     </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I29" s="9">
         <v>88.517985699947218</v>
       </c>
@@ -42347,7 +42354,7 @@
         <v>62.087222348332681</v>
       </c>
     </row>
-    <row r="30" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I30" s="9">
         <v>82.356746686315319</v>
       </c>
@@ -42355,7 +42362,7 @@
         <v>80.161402898655211</v>
       </c>
     </row>
-    <row r="31" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I31" s="9">
         <v>69.476719881170638</v>
       </c>
@@ -42363,7 +42370,7 @@
         <v>74.861705221233237</v>
       </c>
     </row>
-    <row r="32" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I32" s="9">
         <v>75.549059075165729</v>
       </c>
@@ -42371,7 +42378,7 @@
         <v>86.124988989414049</v>
       </c>
     </row>
-    <row r="39" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I39" s="9">
         <v>45.220395349547182</v>
       </c>
@@ -42379,7 +42386,7 @@
         <v>85.980142836819724</v>
       </c>
     </row>
-    <row r="40" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I40" s="9">
         <v>88.555520247160487</v>
       </c>
@@ -42387,7 +42394,7 @@
         <v>22.894092658616749</v>
       </c>
     </row>
-    <row r="41" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I41" s="9">
         <v>53.832581125157851</v>
       </c>
@@ -42395,7 +42402,7 @@
         <v>9.7350205712403159</v>
       </c>
     </row>
-    <row r="42" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I42" s="9">
         <v>82.347363801442526</v>
       </c>
@@ -42403,7 +42410,7 @@
         <v>3.8991620565858476</v>
       </c>
     </row>
-    <row r="43" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I43" s="9">
         <v>70.186832009811553</v>
       </c>
@@ -42411,7 +42418,7 @@
         <v>27.76551559170013</v>
       </c>
     </row>
-    <row r="44" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I44" s="9">
         <v>20.586256956726512</v>
       </c>
@@ -42419,7 +42426,7 @@
         <v>94.167466176006883</v>
       </c>
     </row>
-    <row r="45" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I45" s="9">
         <v>18.425707231791755</v>
       </c>
@@ -42427,7 +42434,7 @@
         <v>82.219644249988022</v>
       </c>
     </row>
-    <row r="46" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I46" s="9">
         <v>30.124128792957894</v>
       </c>
@@ -42435,7 +42442,7 @@
         <v>57.636855311487082</v>
       </c>
     </row>
-    <row r="57" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I57" t="s">
         <v>31</v>
       </c>
@@ -42449,7 +42456,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I58">
         <v>1</v>
       </c>
@@ -42463,7 +42470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I59">
         <v>2</v>
       </c>
@@ -42477,7 +42484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I60">
         <v>3</v>
       </c>
@@ -42491,7 +42498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I61">
         <v>2</v>
       </c>
@@ -42505,7 +42512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I62">
         <v>1</v>
       </c>
@@ -42519,7 +42526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I63">
         <v>0</v>
       </c>
@@ -42533,7 +42540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I64">
         <v>0</v>
       </c>
@@ -42547,7 +42554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I65">
         <v>0</v>
       </c>
@@ -42561,7 +42568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I66">
         <v>0</v>
       </c>
@@ -42575,7 +42582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I67">
         <v>0</v>
       </c>
@@ -42589,7 +42596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I68">
         <v>0</v>
       </c>
@@ -42603,7 +42610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I69">
         <v>0</v>
       </c>
@@ -42617,7 +42624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I70">
         <v>0</v>
       </c>
@@ -42631,7 +42638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I71">
         <v>0</v>
       </c>
@@ -42645,7 +42652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I72">
         <v>0</v>
       </c>
@@ -42659,7 +42666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I73">
         <v>0</v>
       </c>
@@ -42673,7 +42680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I74">
         <v>0</v>
       </c>
@@ -42687,7 +42694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I75">
         <v>0</v>
       </c>
@@ -42701,7 +42708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I76">
         <v>0</v>
       </c>
@@ -42715,7 +42722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I77">
         <v>0</v>
       </c>

--- a/SamplesLibrary/Files/Windows/ChartGallery.xlsx
+++ b/SamplesLibrary/Files/Windows/ChartGallery.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD55F4C5-3D05-4337-8B3D-9012396EA9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA3D2EA6-F176-4F18-889C-5E7B51B8B1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6630" yWindow="6630" windowWidth="43200" windowHeight="23295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3786" yWindow="1194" windowWidth="14928" windowHeight="9330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Column" sheetId="1" r:id="rId1"/>
@@ -536,7 +536,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -794,7 +794,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1243,7 +1243,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1632,7 +1632,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2021,7 +2021,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2433,7 +2433,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2680,7 +2680,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2992,7 +2992,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3257,7 +3257,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3653,7 +3653,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3902,7 +3902,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4065,7 +4065,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4398,7 +4398,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4588,7 +4588,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5056,7 +5056,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5408,7 +5408,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5807,7 +5807,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6065,7 +6065,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6389,7 +6389,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6616,7 +6616,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6991,7 +6991,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7714,7 +7714,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8099,7 +8099,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8332,7 +8332,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8685,7 +8685,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9064,7 +9064,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9443,7 +9443,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9795,7 +9795,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -10131,7 +10131,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -10550,7 +10550,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -12971,7 +12971,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -13472,7 +13472,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -13814,7 +13814,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -14168,7 +14168,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -14531,7 +14531,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -16920,7 +16920,7 @@
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -17808,7 +17808,7 @@
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -18996,7 +18996,7 @@
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -20129,7 +20129,7 @@
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -21557,7 +21557,7 @@
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -22385,7 +22385,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -22779,7 +22779,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -23353,7 +23353,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -24038,7 +24038,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -24485,7 +24485,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -24737,7 +24737,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -25023,7 +25023,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -25287,7 +25287,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -25847,7 +25847,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -26182,7 +26182,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -26651,7 +26651,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -27136,7 +27136,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -27934,7 +27934,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -28404,7 +28404,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -28723,7 +28723,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -29028,7 +29028,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -29664,7 +29664,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Created with SpreadsheetGear 2021</a:t>
+              <a:t>Created with SpreadsheetGear 2022</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -32358,12 +32358,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I3" s="11">
         <v>100</v>
       </c>
@@ -32377,7 +32377,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I4" s="11">
         <v>100</v>
       </c>
@@ -32391,19 +32391,19 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I21">
         <v>103</v>
       </c>
@@ -32414,7 +32414,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I22">
         <v>56</v>
       </c>
@@ -32425,7 +32425,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I23">
         <v>116</v>
       </c>
@@ -32436,7 +32436,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I24">
         <v>55</v>
       </c>
@@ -32447,7 +32447,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I25">
         <v>114</v>
       </c>
@@ -32458,7 +32458,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I26">
         <v>125</v>
       </c>
@@ -32469,7 +32469,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I39">
         <v>1</v>
       </c>
@@ -32477,7 +32477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I40">
         <v>2</v>
       </c>
@@ -32485,7 +32485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I41">
         <v>3</v>
       </c>
@@ -32493,7 +32493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I42">
         <v>4</v>
       </c>
@@ -32501,7 +32501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I43">
         <v>5</v>
       </c>
@@ -32509,7 +32509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I44">
         <v>5</v>
       </c>
@@ -32517,7 +32517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I57" t="s">
         <v>58</v>
       </c>
@@ -32528,7 +32528,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="58" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I58" t="s">
         <v>59</v>
       </c>
@@ -32539,7 +32539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I59" t="s">
         <v>60</v>
       </c>
@@ -32550,7 +32550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I60" t="s">
         <v>72</v>
       </c>
@@ -32561,7 +32561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I61" t="s">
         <v>73</v>
       </c>
@@ -32572,7 +32572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I62" t="s">
         <v>74</v>
       </c>
@@ -32583,7 +32583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I63" t="s">
         <v>75</v>
       </c>
@@ -32594,7 +32594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I64" t="s">
         <v>76</v>
       </c>
@@ -32605,7 +32605,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="75" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" t="s">
         <v>15</v>
       </c>
@@ -32616,7 +32616,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I76" t="s">
         <v>61</v>
       </c>
@@ -32630,7 +32630,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I77" t="s">
         <v>62</v>
       </c>
@@ -32644,7 +32644,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I78" t="s">
         <v>63</v>
       </c>
@@ -32658,7 +32658,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I79" t="s">
         <v>64</v>
       </c>
@@ -32672,7 +32672,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I80" t="s">
         <v>56</v>
       </c>
@@ -32686,7 +32686,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I81" t="s">
         <v>65</v>
       </c>
@@ -32700,7 +32700,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="93" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I93" s="2" t="s">
         <v>0</v>
       </c>
@@ -32708,7 +32708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I94" s="2" t="s">
         <v>1</v>
       </c>
@@ -32716,7 +32716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I95" s="2" t="s">
         <v>2</v>
       </c>
@@ -32724,7 +32724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I96" s="2" t="s">
         <v>3</v>
       </c>
@@ -32732,7 +32732,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I97" s="2" t="s">
         <v>4</v>
       </c>
@@ -32740,7 +32740,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I98" s="2" t="s">
         <v>5</v>
       </c>
@@ -32748,7 +32748,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="99" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I99" s="2" t="s">
         <v>6</v>
       </c>
@@ -32756,7 +32756,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I100" s="2" t="s">
         <v>7</v>
       </c>
@@ -32764,7 +32764,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I101" s="2" t="s">
         <v>8</v>
       </c>
@@ -32772,7 +32772,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I102" s="2" t="s">
         <v>25</v>
       </c>
@@ -32780,7 +32780,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I103" s="2" t="s">
         <v>26</v>
       </c>
@@ -32788,28 +32788,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I111" t="s">
         <v>52</v>
       </c>
@@ -32817,7 +32817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I112" t="s">
         <v>53</v>
       </c>
@@ -32825,7 +32825,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I113" t="s">
         <v>54</v>
       </c>
@@ -32833,7 +32833,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="114" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I114" t="s">
         <v>55</v>
       </c>
@@ -32841,7 +32841,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I115" t="s">
         <v>56</v>
       </c>
@@ -32849,7 +32849,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="116" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I116" t="s">
         <v>57</v>
       </c>
@@ -32857,7 +32857,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="117" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I117" t="s">
         <v>77</v>
       </c>
@@ -32865,7 +32865,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="118" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I118" t="s">
         <v>78</v>
       </c>
@@ -32873,37 +32873,37 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="119" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I128" s="2"/>
     </row>
-    <row r="129" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I129" t="s">
         <v>100</v>
       </c>
@@ -32929,7 +32929,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="130" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I130">
         <v>1206</v>
       </c>
@@ -32962,7 +32962,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="131" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I131">
         <v>1736</v>
       </c>
@@ -32995,7 +32995,7 @@
         <v>1276.25</v>
       </c>
     </row>
-    <row r="132" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I132">
         <v>1108</v>
       </c>
@@ -33028,7 +33028,7 @@
         <v>1487.4375</v>
       </c>
     </row>
-    <row r="133" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I133">
         <v>1743</v>
       </c>
@@ -33061,7 +33061,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="134" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I134">
         <v>1482</v>
       </c>
@@ -33094,7 +33094,7 @@
         <v>1698.25</v>
       </c>
     </row>
-    <row r="135" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I135">
         <v>1616</v>
       </c>
@@ -33127,7 +33127,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="136" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I136">
         <v>1688</v>
       </c>
@@ -33160,7 +33160,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="137" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I137">
         <v>1700</v>
       </c>
@@ -33193,7 +33193,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="138" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I138">
         <v>1602</v>
       </c>
@@ -33226,7 +33226,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="139" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I139">
         <v>1480</v>
       </c>
@@ -33259,7 +33259,7 @@
         <v>1276.25</v>
       </c>
     </row>
-    <row r="140" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I140">
         <v>1764</v>
       </c>
@@ -33292,7 +33292,7 @@
         <v>100.75</v>
       </c>
     </row>
-    <row r="141" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I141">
         <v>1170</v>
       </c>
@@ -33325,7 +33325,7 @@
         <v>321.25</v>
       </c>
     </row>
-    <row r="142" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I142">
         <v>1728</v>
       </c>
@@ -33358,7 +33358,7 @@
         <v>122.25</v>
       </c>
     </row>
-    <row r="143" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I143">
         <v>1732</v>
       </c>
@@ -33391,7 +33391,7 @@
         <v>298.75</v>
       </c>
     </row>
-    <row r="144" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="9:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I144">
         <v>1074</v>
       </c>
@@ -33424,7 +33424,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="145" spans="9:27" x14ac:dyDescent="0.55000000000000004">
       <c r="I145">
         <v>1883</v>
       </c>
@@ -33457,10 +33457,10 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="146" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="146" spans="9:27" x14ac:dyDescent="0.55000000000000004">
       <c r="I146" s="2"/>
     </row>
-    <row r="147" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="147" spans="9:27" x14ac:dyDescent="0.55000000000000004">
       <c r="I147">
         <v>1</v>
       </c>
@@ -33519,58 +33519,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="148" spans="9:27" x14ac:dyDescent="0.55000000000000004">
       <c r="M148" s="1"/>
     </row>
-    <row r="149" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="149" spans="9:27" x14ac:dyDescent="0.55000000000000004">
       <c r="M149" s="1"/>
     </row>
-    <row r="150" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="150" spans="9:27" x14ac:dyDescent="0.55000000000000004">
       <c r="M150" s="1"/>
     </row>
-    <row r="151" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="151" spans="9:27" x14ac:dyDescent="0.55000000000000004">
       <c r="M151" s="1"/>
     </row>
-    <row r="152" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="152" spans="9:27" x14ac:dyDescent="0.55000000000000004">
       <c r="M152" s="1"/>
     </row>
-    <row r="153" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="153" spans="9:27" x14ac:dyDescent="0.55000000000000004">
       <c r="M153" s="1"/>
     </row>
-    <row r="154" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="154" spans="9:27" x14ac:dyDescent="0.55000000000000004">
       <c r="M154" s="1"/>
     </row>
-    <row r="155" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="155" spans="9:27" x14ac:dyDescent="0.55000000000000004">
       <c r="M155" s="1"/>
     </row>
-    <row r="156" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="156" spans="9:27" x14ac:dyDescent="0.55000000000000004">
       <c r="M156" s="1"/>
     </row>
-    <row r="157" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="157" spans="9:27" x14ac:dyDescent="0.55000000000000004">
       <c r="M157" s="1"/>
     </row>
-    <row r="158" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="158" spans="9:27" x14ac:dyDescent="0.55000000000000004">
       <c r="M158" s="1"/>
     </row>
-    <row r="159" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="159" spans="9:27" x14ac:dyDescent="0.55000000000000004">
       <c r="M159" s="1"/>
     </row>
-    <row r="160" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="160" spans="9:27" x14ac:dyDescent="0.55000000000000004">
       <c r="M160" s="1"/>
     </row>
-    <row r="161" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="M161" s="1"/>
     </row>
-    <row r="162" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="M162" s="1"/>
     </row>
-    <row r="163" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="M163" s="1"/>
     </row>
-    <row r="164" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="M164" s="1"/>
     </row>
-    <row r="165" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="J165" t="s">
         <v>33</v>
       </c>
@@ -33579,7 +33579,7 @@
       </c>
       <c r="N165" s="1"/>
     </row>
-    <row r="166" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I166" t="s">
         <v>58</v>
       </c>
@@ -33591,7 +33591,7 @@
       </c>
       <c r="N166" s="1"/>
     </row>
-    <row r="167" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I167" t="s">
         <v>59</v>
       </c>
@@ -33603,7 +33603,7 @@
       </c>
       <c r="N167" s="1"/>
     </row>
-    <row r="168" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I168" t="s">
         <v>60</v>
       </c>
@@ -33615,46 +33615,46 @@
       </c>
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="M169" s="1"/>
     </row>
-    <row r="170" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="M170" s="1"/>
     </row>
-    <row r="171" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="M171" s="1"/>
     </row>
-    <row r="172" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="M172" s="1"/>
     </row>
-    <row r="173" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="M173" s="1"/>
     </row>
-    <row r="174" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="M174" s="1"/>
     </row>
-    <row r="175" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="M175" s="1"/>
     </row>
-    <row r="176" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="M176" s="1"/>
     </row>
-    <row r="177" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="13:13" x14ac:dyDescent="0.55000000000000004">
       <c r="M177" s="1"/>
     </row>
-    <row r="178" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="13:13" x14ac:dyDescent="0.55000000000000004">
       <c r="M178" s="1"/>
     </row>
-    <row r="179" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="13:13" x14ac:dyDescent="0.55000000000000004">
       <c r="M179" s="1"/>
     </row>
-    <row r="180" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="13:13" x14ac:dyDescent="0.55000000000000004">
       <c r="M180" s="1"/>
     </row>
-    <row r="181" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="13:13" x14ac:dyDescent="0.55000000000000004">
       <c r="M181" s="1"/>
     </row>
-    <row r="182" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="13:13" x14ac:dyDescent="0.55000000000000004">
       <c r="M182" s="1"/>
     </row>
   </sheetData>
@@ -33670,12 +33670,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="9" max="11" width="13.42578125" customWidth="1"/>
+    <col min="9" max="11" width="13.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I3" t="s">
         <v>46</v>
       </c>
@@ -33683,7 +33683,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I4" s="10">
         <v>75</v>
       </c>
@@ -33691,7 +33691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I5" s="10">
         <v>149</v>
       </c>
@@ -33699,7 +33699,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I6" s="10">
         <v>105</v>
       </c>
@@ -33707,7 +33707,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I7" s="10">
         <v>55</v>
       </c>
@@ -33715,7 +33715,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I8" s="10">
         <v>121</v>
       </c>
@@ -33723,7 +33723,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I9" s="10">
         <v>76</v>
       </c>
@@ -33731,7 +33731,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I10" s="10">
         <v>128</v>
       </c>
@@ -33739,7 +33739,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I11" s="10">
         <v>114</v>
       </c>
@@ -33747,7 +33747,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I12" s="10">
         <v>75</v>
       </c>
@@ -33755,7 +33755,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I13" s="10">
         <v>105</v>
       </c>
@@ -33763,7 +33763,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I14" s="10">
         <v>145</v>
       </c>
@@ -33771,7 +33771,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I15" s="10">
         <v>110</v>
       </c>
@@ -33779,7 +33779,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="J21" t="s">
         <v>48</v>
       </c>
@@ -33787,7 +33787,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I22" t="s">
         <v>52</v>
       </c>
@@ -33798,7 +33798,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I23" t="s">
         <v>53</v>
       </c>
@@ -33809,7 +33809,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I24" t="s">
         <v>54</v>
       </c>
@@ -33820,7 +33820,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I25" t="s">
         <v>55</v>
       </c>
@@ -33831,7 +33831,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I26" t="s">
         <v>56</v>
       </c>
@@ -33842,7 +33842,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I27" t="s">
         <v>57</v>
       </c>
@@ -33853,7 +33853,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I28" t="s">
         <v>77</v>
       </c>
@@ -33864,7 +33864,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I29" t="s">
         <v>78</v>
       </c>
@@ -33875,7 +33875,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I30" t="s">
         <v>79</v>
       </c>
@@ -33886,7 +33886,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I31" t="s">
         <v>80</v>
       </c>
@@ -33897,7 +33897,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I32" t="s">
         <v>81</v>
       </c>
@@ -33908,7 +33908,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I33" t="s">
         <v>82</v>
       </c>
@@ -33919,7 +33919,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I39" t="s">
         <v>43</v>
       </c>
@@ -33930,7 +33930,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I40">
         <v>1350</v>
       </c>
@@ -33941,7 +33941,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I41">
         <v>1500</v>
       </c>
@@ -33952,7 +33952,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I42">
         <v>1200</v>
       </c>
@@ -33963,7 +33963,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I43">
         <v>1300</v>
       </c>
@@ -33974,7 +33974,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I44">
         <v>1750</v>
       </c>
@@ -33985,7 +33985,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I45">
         <v>1640</v>
       </c>
@@ -33996,7 +33996,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I46">
         <v>1700</v>
       </c>
@@ -34007,7 +34007,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I47">
         <v>1100</v>
       </c>
@@ -34018,7 +34018,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I48">
         <v>1350</v>
       </c>
@@ -34029,7 +34029,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I49">
         <v>1500</v>
       </c>
@@ -34040,7 +34040,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I50">
         <v>1200</v>
       </c>
@@ -34051,7 +34051,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I51">
         <v>1300</v>
       </c>
@@ -34062,7 +34062,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I52">
         <v>1750</v>
       </c>
@@ -34073,7 +34073,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I53">
         <v>1640</v>
       </c>
@@ -34084,7 +34084,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I54">
         <v>1700</v>
       </c>
@@ -34095,7 +34095,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I55">
         <v>1100</v>
       </c>
@@ -34106,7 +34106,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="J57" t="s">
         <v>83</v>
       </c>
@@ -34117,7 +34117,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I58" t="s">
         <v>61</v>
       </c>
@@ -34131,7 +34131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I59" t="s">
         <v>62</v>
       </c>
@@ -34145,7 +34145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I60" t="s">
         <v>63</v>
       </c>
@@ -34159,7 +34159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I61" t="s">
         <v>64</v>
       </c>
@@ -34173,7 +34173,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I62" t="s">
         <v>56</v>
       </c>
@@ -34187,7 +34187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I63" t="s">
         <v>65</v>
       </c>
@@ -34201,7 +34201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I64" t="s">
         <v>66</v>
       </c>
@@ -34215,7 +34215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I65" t="s">
         <v>67</v>
       </c>
@@ -34229,7 +34229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I66" t="s">
         <v>68</v>
       </c>
@@ -34243,7 +34243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I67" t="s">
         <v>69</v>
       </c>
@@ -34257,7 +34257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I68" t="s">
         <v>70</v>
       </c>
@@ -34271,7 +34271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I69" t="s">
         <v>71</v>
       </c>
@@ -34285,7 +34285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I75" t="s">
         <v>45</v>
       </c>
@@ -34296,7 +34296,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I76" s="10">
         <v>80</v>
       </c>
@@ -34307,7 +34307,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="77" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I77" s="10">
         <v>140</v>
       </c>
@@ -34318,7 +34318,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I78" s="10"/>
       <c r="J78" s="10">
         <v>30</v>
@@ -34327,7 +34327,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I79" s="10"/>
       <c r="J79" s="10">
         <v>100</v>
@@ -34336,7 +34336,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I80" s="10"/>
       <c r="J80" s="10">
         <v>40</v>
@@ -34345,7 +34345,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I81" s="10"/>
       <c r="J81" s="10">
         <v>140</v>
@@ -34354,7 +34354,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I82" s="10"/>
       <c r="J82" s="10">
         <v>50</v>
@@ -34363,27 +34363,27 @@
         <v>140</v>
       </c>
     </row>
-    <row r="83" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I83" s="10"/>
       <c r="J83" s="10"/>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I84" s="10"/>
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I86" s="10"/>
       <c r="J86" s="10"/>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I87" s="10"/>
       <c r="J87" s="10"/>
       <c r="K87" s="10"/>
@@ -34401,12 +34401,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="9" max="11" width="13.7109375" customWidth="1"/>
+    <col min="9" max="11" width="13.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I3" s="9">
         <v>0</v>
       </c>
@@ -34417,7 +34417,7 @@
         <v>27.140026121160936</v>
       </c>
     </row>
-    <row r="4" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I4" s="9">
         <v>44.642021159150133</v>
       </c>
@@ -34428,7 +34428,7 @@
         <v>25.083044701175112</v>
       </c>
     </row>
-    <row r="5" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I5" s="9">
         <v>45.217493005122506</v>
       </c>
@@ -34439,7 +34439,7 @@
         <v>57.991490531264475</v>
       </c>
     </row>
-    <row r="6" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I6" s="9">
         <v>24.329473365092483</v>
       </c>
@@ -34450,7 +34450,7 @@
         <v>42.733581005232097</v>
       </c>
     </row>
-    <row r="7" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I7" s="9">
         <v>58.343752452456279</v>
       </c>
@@ -34461,7 +34461,7 @@
         <v>28.342328437841438</v>
       </c>
     </row>
-    <row r="8" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I8" s="9">
         <v>31.893362204983138</v>
       </c>
@@ -34472,7 +34472,7 @@
         <v>46.888964061839594</v>
       </c>
     </row>
-    <row r="9" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I9" s="9">
         <v>41.793089508509269</v>
       </c>
@@ -34483,7 +34483,7 @@
         <v>56.245778126978138</v>
       </c>
     </row>
-    <row r="10" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I10" s="9">
         <v>67.946644841215132</v>
       </c>
@@ -34494,7 +34494,7 @@
         <v>27.788320543464742</v>
       </c>
     </row>
-    <row r="11" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I11" s="9">
         <v>49.877389166851756</v>
       </c>
@@ -34505,7 +34505,7 @@
         <v>52.064332000567688</v>
       </c>
     </row>
-    <row r="12" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I12" s="9">
         <v>62.390776909023856</v>
       </c>
@@ -34516,7 +34516,7 @@
         <v>33.337623450541372</v>
       </c>
     </row>
-    <row r="13" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I13" s="9">
         <v>54.765842863021575</v>
       </c>
@@ -34527,7 +34527,7 @@
         <v>50.3694720171654</v>
       </c>
     </row>
-    <row r="14" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I14" s="9">
         <v>28.332974747195045</v>
       </c>
@@ -34538,7 +34538,7 @@
         <v>36.610607657109142</v>
       </c>
     </row>
-    <row r="15" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I15" s="9">
         <v>22.77400764579907</v>
       </c>
@@ -34549,7 +34549,7 @@
         <v>65.647981542690331</v>
       </c>
     </row>
-    <row r="16" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I16" s="9">
         <v>20.342155330426785</v>
       </c>
@@ -34560,7 +34560,7 @@
         <v>45.606739803514671</v>
       </c>
     </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I17" s="9">
         <v>32.105576354794898</v>
       </c>
@@ -34571,7 +34571,7 @@
         <v>20.621580711354362</v>
       </c>
     </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I18" s="9">
         <v>26.376083418467626</v>
       </c>
@@ -34582,7 +34582,7 @@
         <v>53.977348208615552</v>
       </c>
     </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I19" s="9">
         <v>35</v>
       </c>
@@ -34593,7 +34593,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I21" s="9">
         <v>0</v>
       </c>
@@ -34604,7 +34604,7 @@
         <v>27.140026121160936</v>
       </c>
     </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I22" s="9">
         <v>44.642021159150133</v>
       </c>
@@ -34615,7 +34615,7 @@
         <v>25.083044701175112</v>
       </c>
     </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I23" s="9">
         <v>45.217493005122506</v>
       </c>
@@ -34626,7 +34626,7 @@
         <v>57.991490531264475</v>
       </c>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I24" s="9">
         <v>24.329473365092483</v>
       </c>
@@ -34637,7 +34637,7 @@
         <v>42.733581005232097</v>
       </c>
     </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I25" s="9">
         <v>58.343752452456279</v>
       </c>
@@ -34648,7 +34648,7 @@
         <v>28.342328437841438</v>
       </c>
     </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I26" s="9">
         <v>31.893362204983138</v>
       </c>
@@ -34659,7 +34659,7 @@
         <v>46.888964061839594</v>
       </c>
     </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I27" s="9">
         <v>41.793089508509269</v>
       </c>
@@ -34670,7 +34670,7 @@
         <v>56.245778126978138</v>
       </c>
     </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I28" s="9">
         <v>67.946644841215132</v>
       </c>
@@ -34681,7 +34681,7 @@
         <v>27.788320543464742</v>
       </c>
     </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I29" s="9">
         <v>49.877389166851756</v>
       </c>
@@ -34692,7 +34692,7 @@
         <v>52.064332000567688</v>
       </c>
     </row>
-    <row r="30" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I30" s="9">
         <v>62.390776909023856</v>
       </c>
@@ -34703,7 +34703,7 @@
         <v>33.337623450541372</v>
       </c>
     </row>
-    <row r="31" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I31" s="9">
         <v>54.765842863021575</v>
       </c>
@@ -34714,7 +34714,7 @@
         <v>50.3694720171654</v>
       </c>
     </row>
-    <row r="32" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I32" s="9">
         <v>28.332974747195045</v>
       </c>
@@ -34725,7 +34725,7 @@
         <v>36.610607657109142</v>
       </c>
     </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I33" s="9">
         <v>22.77400764579907</v>
       </c>
@@ -34736,7 +34736,7 @@
         <v>65.647981542690331</v>
       </c>
     </row>
-    <row r="34" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I34" s="9">
         <v>20.342155330426785</v>
       </c>
@@ -34747,7 +34747,7 @@
         <v>45.606739803514671</v>
       </c>
     </row>
-    <row r="35" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I35" s="9">
         <v>32.105576354794898</v>
       </c>
@@ -34758,7 +34758,7 @@
         <v>20.621580711354362</v>
       </c>
     </row>
-    <row r="36" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I36" s="9">
         <v>26.376083418467626</v>
       </c>
@@ -34769,7 +34769,7 @@
         <v>53.977348208615552</v>
       </c>
     </row>
-    <row r="37" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I37" s="9">
         <v>35</v>
       </c>
@@ -34780,7 +34780,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I39" s="11">
         <v>12</v>
       </c>
@@ -34791,7 +34791,7 @@
         <v>27.140026121160936</v>
       </c>
     </row>
-    <row r="40" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I40" s="11">
         <v>44.642021159150133</v>
       </c>
@@ -34802,7 +34802,7 @@
         <v>25.083044701175112</v>
       </c>
     </row>
-    <row r="41" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I41" s="11">
         <v>58</v>
       </c>
@@ -34813,7 +34813,7 @@
         <v>57.991490531264475</v>
       </c>
     </row>
-    <row r="42" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I42" s="11">
         <v>21</v>
       </c>
@@ -34824,7 +34824,7 @@
         <v>42.733581005232097</v>
       </c>
     </row>
-    <row r="43" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I43" s="11">
         <v>44</v>
       </c>
@@ -34835,186 +34835,186 @@
         <v>28.342328437841438</v>
       </c>
     </row>
-    <row r="44" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
     </row>
-    <row r="45" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
     </row>
-    <row r="46" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
     </row>
-    <row r="47" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
     </row>
-    <row r="48" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
     </row>
-    <row r="49" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
     </row>
-    <row r="50" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
     </row>
-    <row r="51" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
     </row>
-    <row r="52" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
     </row>
-    <row r="53" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
     </row>
-    <row r="54" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
     </row>
-    <row r="55" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
     </row>
-    <row r="56" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
     </row>
-    <row r="57" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I57" s="10">
         <v>45</v>
       </c>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
     </row>
-    <row r="58" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I58" s="10">
         <v>46</v>
       </c>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
     </row>
-    <row r="59" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I59" s="10">
         <v>92</v>
       </c>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
     </row>
-    <row r="60" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I60" s="10">
         <v>3</v>
       </c>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
     </row>
-    <row r="61" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I61" s="10">
         <v>82</v>
       </c>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
     </row>
-    <row r="62" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I62" s="10">
         <v>55</v>
       </c>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
     </row>
-    <row r="63" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I63" s="10">
         <v>79</v>
       </c>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
     </row>
-    <row r="64" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I64" s="10">
         <v>76</v>
       </c>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
     </row>
-    <row r="65" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I65" s="10">
         <v>20</v>
       </c>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
     </row>
-    <row r="66" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I66" s="10">
         <v>25</v>
       </c>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
     </row>
-    <row r="67" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I67" s="10">
         <v>2</v>
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
     </row>
-    <row r="68" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I68" s="10">
         <v>30</v>
       </c>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
     </row>
-    <row r="69" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
     </row>
-    <row r="70" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
     </row>
-    <row r="71" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
     </row>
-    <row r="72" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
     </row>
-    <row r="73" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
     </row>
-    <row r="74" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
     </row>
-    <row r="75" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I75" s="10">
         <v>2004</v>
       </c>
@@ -35023,7 +35023,7 @@
       </c>
       <c r="K75" s="9"/>
     </row>
-    <row r="76" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I76" s="10">
         <v>2005</v>
       </c>
@@ -35032,7 +35032,7 @@
       </c>
       <c r="K76" s="9"/>
     </row>
-    <row r="77" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I77" s="10">
         <v>2006</v>
       </c>
@@ -35041,7 +35041,7 @@
       </c>
       <c r="K77" s="9"/>
     </row>
-    <row r="78" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I78" s="10">
         <v>2007</v>
       </c>
@@ -35050,7 +35050,7 @@
       </c>
       <c r="K78" s="9"/>
     </row>
-    <row r="79" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I79" s="10">
         <v>2008</v>
       </c>
@@ -35059,7 +35059,7 @@
       </c>
       <c r="K79" s="9"/>
     </row>
-    <row r="80" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I80" s="10">
         <v>2009</v>
       </c>
@@ -35068,197 +35068,197 @@
       </c>
       <c r="K80" s="9"/>
     </row>
-    <row r="81" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I81" s="10">
         <v>2010</v>
       </c>
       <c r="J81" s="10"/>
       <c r="K81" s="9"/>
     </row>
-    <row r="82" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I82" s="10">
         <v>2011</v>
       </c>
       <c r="J82" s="10"/>
       <c r="K82" s="9"/>
     </row>
-    <row r="83" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I83" s="10">
         <v>2012</v>
       </c>
       <c r="J83" s="10"/>
       <c r="K83" s="9"/>
     </row>
-    <row r="84" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I84" s="10">
         <v>2013</v>
       </c>
       <c r="J84" s="10"/>
       <c r="K84" s="9"/>
     </row>
-    <row r="85" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
       <c r="K85" s="9"/>
     </row>
-    <row r="86" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I86" s="10"/>
       <c r="J86" s="10"/>
       <c r="K86" s="9"/>
     </row>
-    <row r="87" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I87" s="10"/>
       <c r="J87" s="10"/>
       <c r="K87" s="9"/>
     </row>
-    <row r="88" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I88" s="10"/>
       <c r="J88" s="10"/>
       <c r="K88" s="9"/>
     </row>
-    <row r="89" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I89" s="10"/>
       <c r="J89" s="10"/>
       <c r="K89" s="9"/>
     </row>
-    <row r="90" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I90" s="10"/>
       <c r="J90" s="10"/>
       <c r="K90" s="9"/>
     </row>
-    <row r="91" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I91" s="10"/>
       <c r="J91" s="10"/>
       <c r="K91" s="9"/>
     </row>
-    <row r="92" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
     </row>
-    <row r="93" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I93" s="9">
         <v>77</v>
       </c>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
     </row>
-    <row r="94" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I94" s="9">
         <v>61</v>
       </c>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
     </row>
-    <row r="95" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I95" s="9">
         <v>44</v>
       </c>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
     </row>
-    <row r="96" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I96" s="9">
         <v>15</v>
       </c>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
     </row>
-    <row r="97" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I97" s="9">
         <v>70</v>
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
     </row>
-    <row r="98" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I98" s="9">
         <v>38</v>
       </c>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
     </row>
-    <row r="99" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I99" s="9">
         <v>28</v>
       </c>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
     </row>
-    <row r="100" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I100" s="9">
         <v>39</v>
       </c>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
     </row>
-    <row r="101" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I101" s="9">
         <v>67</v>
       </c>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
     </row>
-    <row r="102" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I102" s="9">
         <v>56</v>
       </c>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
     </row>
-    <row r="103" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I103" s="9">
         <v>85</v>
       </c>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
     </row>
-    <row r="104" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I104" s="9">
         <v>51</v>
       </c>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
     </row>
-    <row r="105" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I105" s="9">
         <v>15</v>
       </c>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
     </row>
-    <row r="106" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I106" s="9">
         <v>36</v>
       </c>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
     </row>
-    <row r="107" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I107" s="9">
         <v>16</v>
       </c>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
     </row>
-    <row r="108" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I108" s="9">
         <v>43</v>
       </c>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
     </row>
-    <row r="109" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
     </row>
-    <row r="110" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
     </row>
-    <row r="111" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I111" t="s">
         <v>86</v>
       </c>
@@ -35267,7 +35267,7 @@
       </c>
       <c r="K111" s="9"/>
     </row>
-    <row r="112" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I112" s="10">
         <v>6</v>
       </c>
@@ -35276,7 +35276,7 @@
       </c>
       <c r="K112" s="9"/>
     </row>
-    <row r="113" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I113" s="10">
         <v>45</v>
       </c>
@@ -35285,7 +35285,7 @@
       </c>
       <c r="K113" s="9"/>
     </row>
-    <row r="114" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I114" s="10">
         <v>35</v>
       </c>
@@ -35294,7 +35294,7 @@
       </c>
       <c r="K114" s="9"/>
     </row>
-    <row r="115" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I115" s="10">
         <v>25</v>
       </c>
@@ -35303,7 +35303,7 @@
       </c>
       <c r="K115" s="9"/>
     </row>
-    <row r="116" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I116" s="10">
         <v>65</v>
       </c>
@@ -35312,7 +35312,7 @@
       </c>
       <c r="K116" s="9"/>
     </row>
-    <row r="117" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I117" s="10">
         <v>45</v>
       </c>
@@ -35321,7 +35321,7 @@
       </c>
       <c r="K117" s="9"/>
     </row>
-    <row r="118" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I118" s="10">
         <v>75</v>
       </c>
@@ -35330,7 +35330,7 @@
       </c>
       <c r="K118" s="9"/>
     </row>
-    <row r="119" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I119" s="10">
         <v>65</v>
       </c>
@@ -35339,52 +35339,52 @@
       </c>
       <c r="K119" s="9"/>
     </row>
-    <row r="120" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
     </row>
-    <row r="121" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
     </row>
-    <row r="122" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
     </row>
-    <row r="123" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
     </row>
-    <row r="124" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
     </row>
-    <row r="125" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
     </row>
-    <row r="126" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
     </row>
-    <row r="127" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
     </row>
-    <row r="128" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
     </row>
-    <row r="129" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I129" t="s">
         <v>27</v>
       </c>
@@ -35392,32 +35392,32 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="130" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="J130" s="13">
         <v>-0.75</v>
       </c>
     </row>
-    <row r="131" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="J131" s="13">
         <v>0.3048510920115679</v>
       </c>
     </row>
-    <row r="132" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="J132" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="J133" s="13">
         <v>0.85</v>
       </c>
     </row>
-    <row r="134" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="J134" s="13">
         <v>0.25</v>
       </c>
     </row>
-    <row r="135" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I135" t="s">
         <v>28</v>
       </c>
@@ -35425,7 +35425,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="136" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="J136" s="10"/>
       <c r="K136" s="10"/>
     </row>
@@ -35443,9 +35443,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="3" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I3" t="s">
         <v>15</v>
       </c>
@@ -35453,7 +35453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I4" t="s">
         <v>31</v>
       </c>
@@ -35461,7 +35461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I5" t="s">
         <v>16</v>
       </c>
@@ -35469,7 +35469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I6" t="s">
         <v>34</v>
       </c>
@@ -35477,7 +35477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I21" t="s">
         <v>15</v>
       </c>
@@ -35485,7 +35485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I22" t="s">
         <v>31</v>
       </c>
@@ -35493,7 +35493,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I23" t="s">
         <v>16</v>
       </c>
@@ -35501,7 +35501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I24" t="s">
         <v>34</v>
       </c>
@@ -35509,7 +35509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I25" t="s">
         <v>35</v>
       </c>
@@ -35517,7 +35517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I39" t="s">
         <v>15</v>
       </c>
@@ -35525,7 +35525,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I40" t="s">
         <v>31</v>
       </c>
@@ -35533,7 +35533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I41" t="s">
         <v>16</v>
       </c>
@@ -35541,7 +35541,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I42" t="s">
         <v>34</v>
       </c>
@@ -35549,7 +35549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I43" t="s">
         <v>88</v>
       </c>
@@ -35557,7 +35557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I57" t="s">
         <v>15</v>
       </c>
@@ -35565,7 +35565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I58" t="s">
         <v>31</v>
       </c>
@@ -35573,7 +35573,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I59" t="s">
         <v>16</v>
       </c>
@@ -35581,7 +35581,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I60" t="s">
         <v>35</v>
       </c>
@@ -35589,7 +35589,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I75" t="s">
         <v>37</v>
       </c>
@@ -35597,7 +35597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I76" t="s">
         <v>38</v>
       </c>
@@ -35605,7 +35605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I77" t="s">
         <v>39</v>
       </c>
@@ -35613,7 +35613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I78" t="s">
         <v>40</v>
       </c>
@@ -35634,9 +35634,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="3" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I3">
         <v>100</v>
       </c>
@@ -35650,7 +35650,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I4">
         <v>100</v>
       </c>
@@ -35664,7 +35664,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I21">
         <v>103</v>
       </c>
@@ -35675,7 +35675,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I22">
         <v>56</v>
       </c>
@@ -35686,7 +35686,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I23">
         <v>116</v>
       </c>
@@ -35697,7 +35697,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I24">
         <v>55</v>
       </c>
@@ -35708,7 +35708,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I25">
         <v>114</v>
       </c>
@@ -35719,7 +35719,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I39">
         <v>1</v>
       </c>
@@ -35727,7 +35727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I40">
         <v>2</v>
       </c>
@@ -35735,7 +35735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I41">
         <v>3</v>
       </c>
@@ -35743,7 +35743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I42">
         <v>4</v>
       </c>
@@ -35751,7 +35751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I43">
         <v>4</v>
       </c>
@@ -35759,7 +35759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I57" s="3" t="s">
         <v>12</v>
       </c>
@@ -35770,7 +35770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I58" s="3" t="s">
         <v>9</v>
       </c>
@@ -35782,7 +35782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I59" s="3" t="s">
         <v>11</v>
       </c>
@@ -35794,7 +35794,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I60" s="3" t="s">
         <v>14</v>
       </c>
@@ -35806,7 +35806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I61" s="3" t="s">
         <v>10</v>
       </c>
@@ -35818,7 +35818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I62" s="3" t="s">
         <v>13</v>
       </c>
@@ -35830,7 +35830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I93" t="s">
         <v>17</v>
       </c>
@@ -35838,7 +35838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I94">
         <v>-17</v>
       </c>
@@ -35846,7 +35846,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I95">
         <v>-14</v>
       </c>
@@ -35854,7 +35854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I96">
         <v>-11</v>
       </c>
@@ -35862,7 +35862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I97">
         <v>-10</v>
       </c>
@@ -35870,7 +35870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I98">
         <v>-10</v>
       </c>
@@ -35878,7 +35878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I99">
         <v>-8</v>
       </c>
@@ -35886,7 +35886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I100">
         <v>-6</v>
       </c>
@@ -35894,7 +35894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I101">
         <v>-7</v>
       </c>
@@ -35902,7 +35902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I102">
         <v>-8</v>
       </c>
@@ -35910,7 +35910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I103">
         <v>-6</v>
       </c>
@@ -35918,7 +35918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I104">
         <v>-5</v>
       </c>
@@ -35926,7 +35926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I105">
         <v>-4</v>
       </c>
@@ -35934,7 +35934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I106">
         <v>-2</v>
       </c>
@@ -35942,7 +35942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I111" t="s">
         <v>15</v>
       </c>
@@ -35950,7 +35950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I112">
         <v>462.96498399948746</v>
       </c>
@@ -35958,7 +35958,7 @@
         <v>2.10293638955575</v>
       </c>
     </row>
-    <row r="113" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I113">
         <v>446.35992877244132</v>
       </c>
@@ -35966,7 +35966,7 @@
         <v>2.8572699379839981</v>
       </c>
     </row>
-    <row r="114" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I114">
         <v>315.42086928244612</v>
       </c>
@@ -35974,7 +35974,7 @@
         <v>3.7192775492489822</v>
       </c>
     </row>
-    <row r="115" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I115">
         <v>383.40017815278895</v>
       </c>
@@ -35982,7 +35982,7 @@
         <v>4.453682864465029</v>
       </c>
     </row>
-    <row r="116" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I116">
         <v>525.5716557204787</v>
       </c>
@@ -36003,12 +36003,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="9" max="11" width="13.85546875" customWidth="1"/>
+    <col min="9" max="11" width="13.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I3" s="9">
         <v>0</v>
       </c>
@@ -36025,7 +36025,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I4" s="9">
         <v>44.642021159150133</v>
       </c>
@@ -36045,7 +36045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I5" s="9">
         <v>45.217493005122506</v>
       </c>
@@ -36065,7 +36065,7 @@
         <v>1.7452406437283512E-2</v>
       </c>
     </row>
-    <row r="6" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I6" s="9">
         <v>45</v>
       </c>
@@ -36085,7 +36085,7 @@
         <v>3.4899496702500969E-2</v>
       </c>
     </row>
-    <row r="7" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I7" s="9">
         <v>58.343752452456279</v>
       </c>
@@ -36105,7 +36105,7 @@
         <v>5.2335956242943828E-2</v>
       </c>
     </row>
-    <row r="8" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I8" s="9">
         <v>31.893362204983138</v>
       </c>
@@ -36125,7 +36125,7 @@
         <v>6.9756473744125302E-2</v>
       </c>
     </row>
-    <row r="9" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I9" s="9">
         <v>41.793089508509269</v>
       </c>
@@ -36145,7 +36145,7 @@
         <v>8.7155742747658166E-2</v>
       </c>
     </row>
-    <row r="10" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I10" s="9">
         <v>67.946644841215132</v>
       </c>
@@ -36165,7 +36165,7 @@
         <v>0.10452846326765346</v>
       </c>
     </row>
-    <row r="11" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I11" s="9">
         <v>49.877389166851756</v>
       </c>
@@ -36185,7 +36185,7 @@
         <v>0.12186934340514748</v>
       </c>
     </row>
-    <row r="12" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I12" s="9">
         <v>62.390776909023856</v>
       </c>
@@ -36205,7 +36205,7 @@
         <v>0.13917310096006544</v>
       </c>
     </row>
-    <row r="13" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I13" s="9">
         <v>54.765842863021575</v>
       </c>
@@ -36225,7 +36225,7 @@
         <v>0.15643446504023087</v>
       </c>
     </row>
-    <row r="14" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I14" s="9">
         <v>45</v>
       </c>
@@ -36245,7 +36245,7 @@
         <v>0.17364817766693033</v>
       </c>
     </row>
-    <row r="15" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I15" s="9">
         <v>50</v>
       </c>
@@ -36265,7 +36265,7 @@
         <v>0.1908089953765448</v>
       </c>
     </row>
-    <row r="16" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I16" s="9">
         <v>55</v>
       </c>
@@ -36285,7 +36285,7 @@
         <v>0.20791169081775931</v>
       </c>
     </row>
-    <row r="17" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I17" s="9">
         <v>55</v>
       </c>
@@ -36305,7 +36305,7 @@
         <v>0.224951054343865</v>
       </c>
     </row>
-    <row r="18" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I18" s="9">
         <v>53</v>
       </c>
@@ -36325,7 +36325,7 @@
         <v>0.24192189559966773</v>
       </c>
     </row>
-    <row r="19" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I19" s="9">
         <v>35</v>
       </c>
@@ -36345,7 +36345,7 @@
         <v>0.25881904510252074</v>
       </c>
     </row>
-    <row r="20" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N20">
         <v>16</v>
       </c>
@@ -36356,7 +36356,7 @@
         <v>0.27563735581699916</v>
       </c>
     </row>
-    <row r="21" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I21" s="9">
         <v>0</v>
       </c>
@@ -36376,7 +36376,7 @@
         <v>0.29237170472273677</v>
       </c>
     </row>
-    <row r="22" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I22" s="9">
         <v>44.642021159150133</v>
       </c>
@@ -36396,7 +36396,7 @@
         <v>0.3090169943749474</v>
       </c>
     </row>
-    <row r="23" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I23" s="9">
         <v>45.217493005122506</v>
       </c>
@@ -36416,7 +36416,7 @@
         <v>0.32556815445715664</v>
       </c>
     </row>
-    <row r="24" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I24" s="9">
         <v>24.329473365092483</v>
       </c>
@@ -36436,7 +36436,7 @@
         <v>0.34202014332566871</v>
       </c>
     </row>
-    <row r="25" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I25" s="9">
         <v>58.343752452456279</v>
       </c>
@@ -36456,7 +36456,7 @@
         <v>0.35836794954530027</v>
       </c>
     </row>
-    <row r="26" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I26" s="9">
         <v>31.893362204983138</v>
       </c>
@@ -36476,7 +36476,7 @@
         <v>0.37460659341591201</v>
       </c>
     </row>
-    <row r="27" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I27" s="9">
         <v>41.793089508509269</v>
       </c>
@@ -36496,7 +36496,7 @@
         <v>0.39073112848927372</v>
       </c>
     </row>
-    <row r="28" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I28" s="9">
         <v>67.946644841215132</v>
       </c>
@@ -36516,7 +36516,7 @@
         <v>0.40673664307580015</v>
       </c>
     </row>
-    <row r="29" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I29" s="9">
         <v>49.877389166851756</v>
       </c>
@@ -36536,7 +36536,7 @@
         <v>0.42261826174069944</v>
       </c>
     </row>
-    <row r="30" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I30" s="9">
         <v>62.390776909023856</v>
       </c>
@@ -36556,7 +36556,7 @@
         <v>0.4383711467890774</v>
       </c>
     </row>
-    <row r="31" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I31" s="9">
         <v>54.765842863021575</v>
       </c>
@@ -36576,7 +36576,7 @@
         <v>0.45399049973954675</v>
       </c>
     </row>
-    <row r="32" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I32" s="9">
         <v>28.332974747195045</v>
       </c>
@@ -36596,7 +36596,7 @@
         <v>0.46947156278589081</v>
       </c>
     </row>
-    <row r="33" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I33" s="9">
         <v>22.77400764579907</v>
       </c>
@@ -36616,7 +36616,7 @@
         <v>0.48480962024633706</v>
       </c>
     </row>
-    <row r="34" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I34" s="9">
         <v>20.342155330426785</v>
       </c>
@@ -36636,7 +36636,7 @@
         <v>0.49999999999999994</v>
       </c>
     </row>
-    <row r="35" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I35" s="9">
         <v>32.105576354794898</v>
       </c>
@@ -36656,7 +36656,7 @@
         <v>0.51503807491005416</v>
       </c>
     </row>
-    <row r="36" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I36" s="9">
         <v>26.376083418467626</v>
       </c>
@@ -36676,7 +36676,7 @@
         <v>0.5299192642332049</v>
       </c>
     </row>
-    <row r="37" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I37" s="9">
         <v>35</v>
       </c>
@@ -36696,7 +36696,7 @@
         <v>0.54463903501502708</v>
       </c>
     </row>
-    <row r="38" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N38">
         <v>34</v>
       </c>
@@ -36707,7 +36707,7 @@
         <v>0.5591929034707469</v>
       </c>
     </row>
-    <row r="39" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I39" s="9">
         <v>0</v>
       </c>
@@ -36727,7 +36727,7 @@
         <v>0.57357643635104605</v>
       </c>
     </row>
-    <row r="40" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I40" s="9">
         <v>44.642021159150133</v>
       </c>
@@ -36747,7 +36747,7 @@
         <v>0.58778525229247314</v>
       </c>
     </row>
-    <row r="41" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I41" s="9">
         <v>45.217493005122506</v>
       </c>
@@ -36767,7 +36767,7 @@
         <v>0.60181502315204827</v>
       </c>
     </row>
-    <row r="42" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I42" s="9">
         <v>45</v>
       </c>
@@ -36787,7 +36787,7 @@
         <v>0.61566147532565818</v>
       </c>
     </row>
-    <row r="43" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I43" s="9">
         <v>58.343752452456279</v>
       </c>
@@ -36807,7 +36807,7 @@
         <v>0.62932039104983739</v>
       </c>
     </row>
-    <row r="44" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I44" s="9">
         <v>31.893362204983138</v>
       </c>
@@ -36827,7 +36827,7 @@
         <v>0.64278760968653925</v>
       </c>
     </row>
-    <row r="45" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I45" s="9">
         <v>41.793089508509269</v>
       </c>
@@ -36847,7 +36847,7 @@
         <v>0.65605902899050716</v>
       </c>
     </row>
-    <row r="46" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I46" s="9">
         <v>67.946644841215132</v>
       </c>
@@ -36867,7 +36867,7 @@
         <v>0.66913060635885824</v>
       </c>
     </row>
-    <row r="47" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I47" s="9">
         <v>49.877389166851756</v>
       </c>
@@ -36887,7 +36887,7 @@
         <v>0.68199836006249848</v>
       </c>
     </row>
-    <row r="48" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I48" s="9">
         <v>62.390776909023856</v>
       </c>
@@ -36907,7 +36907,7 @@
         <v>0.69465837045899725</v>
       </c>
     </row>
-    <row r="49" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I49" s="9">
         <v>54.765842863021575</v>
       </c>
@@ -36927,7 +36927,7 @@
         <v>0.70710678118654746</v>
       </c>
     </row>
-    <row r="50" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I50" s="9">
         <v>45</v>
       </c>
@@ -36947,7 +36947,7 @@
         <v>0.71933980033865108</v>
       </c>
     </row>
-    <row r="51" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I51" s="9">
         <v>50</v>
       </c>
@@ -36967,7 +36967,7 @@
         <v>0.73135370161917046</v>
       </c>
     </row>
-    <row r="52" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I52" s="9">
         <v>55</v>
       </c>
@@ -36987,7 +36987,7 @@
         <v>0.74314482547739413</v>
       </c>
     </row>
-    <row r="53" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I53" s="9">
         <v>55</v>
       </c>
@@ -37007,7 +37007,7 @@
         <v>0.75470958022277201</v>
       </c>
     </row>
-    <row r="54" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I54" s="9">
         <v>53</v>
       </c>
@@ -37027,7 +37027,7 @@
         <v>0.76604444311897801</v>
       </c>
     </row>
-    <row r="55" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I55" s="9">
         <v>35</v>
       </c>
@@ -37047,7 +37047,7 @@
         <v>0.77714596145697079</v>
       </c>
     </row>
-    <row r="56" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N56">
         <v>52</v>
       </c>
@@ -37058,7 +37058,7 @@
         <v>0.78801075360672201</v>
       </c>
     </row>
-    <row r="57" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I57" s="15" t="s">
         <v>61</v>
       </c>
@@ -37075,7 +37075,7 @@
         <v>0.79863551004729283</v>
       </c>
     </row>
-    <row r="58" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I58" s="15" t="s">
         <v>62</v>
       </c>
@@ -37092,7 +37092,7 @@
         <v>0.80901699437494745</v>
       </c>
     </row>
-    <row r="59" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I59" s="15" t="s">
         <v>63</v>
       </c>
@@ -37109,7 +37109,7 @@
         <v>0.8191520442889918</v>
       </c>
     </row>
-    <row r="60" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I60" s="15" t="s">
         <v>64</v>
       </c>
@@ -37126,7 +37126,7 @@
         <v>0.82903757255504174</v>
       </c>
     </row>
-    <row r="61" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I61" s="15" t="s">
         <v>56</v>
       </c>
@@ -37143,7 +37143,7 @@
         <v>0.83867056794542394</v>
       </c>
     </row>
-    <row r="62" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I62" s="15" t="s">
         <v>65</v>
       </c>
@@ -37160,7 +37160,7 @@
         <v>0.84804809615642596</v>
       </c>
     </row>
-    <row r="63" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I63" s="15" t="s">
         <v>66</v>
       </c>
@@ -37177,7 +37177,7 @@
         <v>0.85716730070211222</v>
       </c>
     </row>
-    <row r="64" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I64" s="15" t="s">
         <v>67</v>
       </c>
@@ -37194,7 +37194,7 @@
         <v>0.8660254037844386</v>
       </c>
     </row>
-    <row r="65" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I65" s="15" t="s">
         <v>68</v>
       </c>
@@ -37211,7 +37211,7 @@
         <v>0.87461970713939574</v>
       </c>
     </row>
-    <row r="66" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I66" s="15" t="s">
         <v>69</v>
       </c>
@@ -37228,7 +37228,7 @@
         <v>0.88294759285892688</v>
       </c>
     </row>
-    <row r="67" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I67" s="15" t="s">
         <v>70</v>
       </c>
@@ -37245,7 +37245,7 @@
         <v>0.89100652418836779</v>
       </c>
     </row>
-    <row r="68" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I68" s="15" t="s">
         <v>71</v>
       </c>
@@ -37262,7 +37262,7 @@
         <v>0.89879404629916704</v>
       </c>
     </row>
-    <row r="69" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I69" s="9"/>
       <c r="N69">
         <v>65</v>
@@ -37274,7 +37274,7 @@
         <v>0.90630778703664994</v>
       </c>
     </row>
-    <row r="70" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I70" s="9"/>
       <c r="N70">
         <v>66</v>
@@ -37286,7 +37286,7 @@
         <v>0.91354545764260087</v>
       </c>
     </row>
-    <row r="71" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I71" s="9"/>
       <c r="N71">
         <v>67</v>
@@ -37298,7 +37298,7 @@
         <v>0.92050485345244026</v>
       </c>
     </row>
-    <row r="72" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I72" s="9"/>
       <c r="N72">
         <v>68</v>
@@ -37310,7 +37310,7 @@
         <v>0.92718385456678742</v>
       </c>
     </row>
-    <row r="73" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I73" s="9"/>
       <c r="N73">
         <v>69</v>
@@ -37322,7 +37322,7 @@
         <v>0.93358042649720174</v>
       </c>
     </row>
-    <row r="74" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N74">
         <v>70</v>
       </c>
@@ -37333,7 +37333,7 @@
         <v>0.93969262078590832</v>
       </c>
     </row>
-    <row r="75" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" t="s">
         <v>32</v>
       </c>
@@ -37350,7 +37350,7 @@
         <v>0.94551857559931674</v>
       </c>
     </row>
-    <row r="76" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I76" t="s">
         <v>52</v>
       </c>
@@ -37370,7 +37370,7 @@
         <v>0.95105651629515353</v>
       </c>
     </row>
-    <row r="77" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I77" t="s">
         <v>53</v>
       </c>
@@ -37390,7 +37390,7 @@
         <v>0.95630475596303544</v>
       </c>
     </row>
-    <row r="78" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I78" t="s">
         <v>54</v>
       </c>
@@ -37410,7 +37410,7 @@
         <v>0.96126169593831889</v>
       </c>
     </row>
-    <row r="79" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I79" t="s">
         <v>55</v>
       </c>
@@ -37430,7 +37430,7 @@
         <v>0.96592582628906831</v>
       </c>
     </row>
-    <row r="80" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I80" t="s">
         <v>56</v>
       </c>
@@ -37450,7 +37450,7 @@
         <v>0.97029572627599647</v>
       </c>
     </row>
-    <row r="81" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I81" t="s">
         <v>57</v>
       </c>
@@ -37470,7 +37470,7 @@
         <v>0.97437006478523525</v>
       </c>
     </row>
-    <row r="82" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I82" t="s">
         <v>77</v>
       </c>
@@ -37490,7 +37490,7 @@
         <v>0.97814760073380558</v>
       </c>
     </row>
-    <row r="83" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I83" t="s">
         <v>78</v>
       </c>
@@ -37510,7 +37510,7 @@
         <v>0.98162718344766398</v>
       </c>
     </row>
-    <row r="84" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I84" t="s">
         <v>79</v>
       </c>
@@ -37530,7 +37530,7 @@
         <v>0.98480775301220802</v>
       </c>
     </row>
-    <row r="85" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I85" t="s">
         <v>80</v>
       </c>
@@ -37550,7 +37550,7 @@
         <v>0.98768834059513777</v>
       </c>
     </row>
-    <row r="86" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I86" t="s">
         <v>81</v>
       </c>
@@ -37570,7 +37570,7 @@
         <v>0.99026806874157025</v>
       </c>
     </row>
-    <row r="87" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I87" t="s">
         <v>82</v>
       </c>
@@ -37590,7 +37590,7 @@
         <v>0.99254615164132198</v>
       </c>
     </row>
-    <row r="88" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
@@ -37604,7 +37604,7 @@
         <v>0.99452189536827329</v>
       </c>
     </row>
-    <row r="89" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
@@ -37618,7 +37618,7 @@
         <v>0.99619469809174555</v>
       </c>
     </row>
-    <row r="90" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
@@ -37632,7 +37632,7 @@
         <v>0.9975640502598242</v>
       </c>
     </row>
-    <row r="91" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
@@ -37646,7 +37646,7 @@
         <v>0.99862953475457383</v>
       </c>
     </row>
-    <row r="92" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N92">
         <v>88</v>
       </c>
@@ -37657,7 +37657,7 @@
         <v>0.99939082701909576</v>
       </c>
     </row>
-    <row r="93" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I93" s="12"/>
       <c r="N93">
         <v>89</v>
@@ -37669,7 +37669,7 @@
         <v>0.99984769515639127</v>
       </c>
     </row>
-    <row r="94" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I94" s="12"/>
       <c r="N94">
         <v>90</v>
@@ -37681,7 +37681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I95" s="12"/>
       <c r="N95">
         <v>91</v>
@@ -37693,7 +37693,7 @@
         <v>0.99984769515639127</v>
       </c>
     </row>
-    <row r="96" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I96" s="12"/>
       <c r="N96">
         <v>92</v>
@@ -37705,7 +37705,7 @@
         <v>0.99939082701909576</v>
       </c>
     </row>
-    <row r="97" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I97" s="12"/>
       <c r="N97">
         <v>93</v>
@@ -37717,7 +37717,7 @@
         <v>0.99862953475457383</v>
       </c>
     </row>
-    <row r="98" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I98" s="12"/>
       <c r="N98">
         <v>94</v>
@@ -37729,7 +37729,7 @@
         <v>0.9975640502598242</v>
       </c>
     </row>
-    <row r="99" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I99" s="12"/>
       <c r="N99">
         <v>95</v>
@@ -37741,7 +37741,7 @@
         <v>0.99619469809174555</v>
       </c>
     </row>
-    <row r="100" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I100" s="12"/>
       <c r="N100">
         <v>96</v>
@@ -37753,7 +37753,7 @@
         <v>0.9945218953682734</v>
       </c>
     </row>
-    <row r="101" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I101" s="12"/>
       <c r="N101">
         <v>97</v>
@@ -37765,7 +37765,7 @@
         <v>0.99254615164132209</v>
       </c>
     </row>
-    <row r="102" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I102" s="12"/>
       <c r="N102">
         <v>98</v>
@@ -37777,7 +37777,7 @@
         <v>0.99026806874157036</v>
       </c>
     </row>
-    <row r="103" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I103" s="12"/>
       <c r="N103">
         <v>99</v>
@@ -37789,7 +37789,7 @@
         <v>0.98768834059513766</v>
       </c>
     </row>
-    <row r="104" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I104" s="12"/>
       <c r="N104">
         <v>100</v>
@@ -37801,7 +37801,7 @@
         <v>0.98480775301220802</v>
       </c>
     </row>
-    <row r="105" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I105" s="12"/>
       <c r="N105">
         <v>101</v>
@@ -37813,7 +37813,7 @@
         <v>0.98162718344766398</v>
       </c>
     </row>
-    <row r="106" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I106" s="12"/>
       <c r="N106">
         <v>102</v>
@@ -37825,7 +37825,7 @@
         <v>0.97814760073380569</v>
       </c>
     </row>
-    <row r="107" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I107" s="12"/>
       <c r="N107">
         <v>103</v>
@@ -37837,7 +37837,7 @@
         <v>0.97437006478523525</v>
       </c>
     </row>
-    <row r="108" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I108" s="12"/>
       <c r="N108">
         <v>104</v>
@@ -37849,7 +37849,7 @@
         <v>0.97029572627599647</v>
       </c>
     </row>
-    <row r="109" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I109" s="12"/>
       <c r="N109">
         <v>105</v>
@@ -37861,7 +37861,7 @@
         <v>0.96592582628906831</v>
       </c>
     </row>
-    <row r="110" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I110" s="12"/>
       <c r="N110">
         <v>106</v>
@@ -37873,7 +37873,7 @@
         <v>0.96126169593831889</v>
       </c>
     </row>
-    <row r="111" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I111" s="12"/>
       <c r="N111">
         <v>107</v>
@@ -37885,7 +37885,7 @@
         <v>0.95630475596303555</v>
       </c>
     </row>
-    <row r="112" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I112" s="12"/>
       <c r="N112">
         <v>108</v>
@@ -37897,7 +37897,7 @@
         <v>0.95105651629515364</v>
       </c>
     </row>
-    <row r="113" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I113" s="12"/>
       <c r="N113">
         <v>109</v>
@@ -37909,7 +37909,7 @@
         <v>0.94551857559931685</v>
       </c>
     </row>
-    <row r="114" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I114" s="12"/>
       <c r="N114">
         <v>110</v>
@@ -37921,7 +37921,7 @@
         <v>0.93969262078590843</v>
       </c>
     </row>
-    <row r="115" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I115" s="12"/>
       <c r="N115">
         <v>111</v>
@@ -37933,7 +37933,7 @@
         <v>0.93358042649720174</v>
       </c>
     </row>
-    <row r="116" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I116" s="12"/>
       <c r="N116">
         <v>112</v>
@@ -37945,7 +37945,7 @@
         <v>0.92718385456678742</v>
       </c>
     </row>
-    <row r="117" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I117" s="12"/>
       <c r="N117">
         <v>113</v>
@@ -37957,7 +37957,7 @@
         <v>0.92050485345244037</v>
       </c>
     </row>
-    <row r="118" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I118" s="12"/>
       <c r="N118">
         <v>114</v>
@@ -37969,7 +37969,7 @@
         <v>0.91354545764260098</v>
       </c>
     </row>
-    <row r="119" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I119" s="12"/>
       <c r="N119">
         <v>115</v>
@@ -37981,7 +37981,7 @@
         <v>0.90630778703665005</v>
       </c>
     </row>
-    <row r="120" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I120" s="12"/>
       <c r="N120">
         <v>116</v>
@@ -37993,7 +37993,7 @@
         <v>0.89879404629916693</v>
       </c>
     </row>
-    <row r="121" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I121" s="12"/>
       <c r="N121">
         <v>117</v>
@@ -38005,7 +38005,7 @@
         <v>0.8910065241883679</v>
       </c>
     </row>
-    <row r="122" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I122" s="12"/>
       <c r="N122">
         <v>118</v>
@@ -38017,7 +38017,7 @@
         <v>0.8829475928589271</v>
       </c>
     </row>
-    <row r="123" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I123" s="12"/>
       <c r="N123">
         <v>119</v>
@@ -38029,7 +38029,7 @@
         <v>0.87461970713939585</v>
       </c>
     </row>
-    <row r="124" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I124" s="12"/>
       <c r="N124">
         <v>120</v>
@@ -38041,7 +38041,7 @@
         <v>0.86602540378443871</v>
       </c>
     </row>
-    <row r="125" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I125" s="12"/>
       <c r="N125">
         <v>121</v>
@@ -38053,7 +38053,7 @@
         <v>0.85716730070211233</v>
       </c>
     </row>
-    <row r="126" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I126" s="12"/>
       <c r="N126">
         <v>122</v>
@@ -38065,7 +38065,7 @@
         <v>0.84804809615642607</v>
       </c>
     </row>
-    <row r="127" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I127" s="12"/>
       <c r="N127">
         <v>123</v>
@@ -38077,7 +38077,7 @@
         <v>0.83867056794542394</v>
       </c>
     </row>
-    <row r="128" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="9:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I128" s="12"/>
       <c r="N128">
         <v>124</v>
@@ -38089,7 +38089,7 @@
         <v>0.82903757255504174</v>
       </c>
     </row>
-    <row r="129" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N129">
         <v>125</v>
       </c>
@@ -38100,7 +38100,7 @@
         <v>0.81915204428899202</v>
       </c>
     </row>
-    <row r="130" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N130">
         <v>126</v>
       </c>
@@ -38111,7 +38111,7 @@
         <v>0.80901699437494745</v>
       </c>
     </row>
-    <row r="131" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N131">
         <v>127</v>
       </c>
@@ -38122,7 +38122,7 @@
         <v>0.79863551004729272</v>
       </c>
     </row>
-    <row r="132" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N132">
         <v>128</v>
       </c>
@@ -38133,7 +38133,7 @@
         <v>0.78801075360672201</v>
       </c>
     </row>
-    <row r="133" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N133">
         <v>129</v>
       </c>
@@ -38144,7 +38144,7 @@
         <v>0.77714596145697101</v>
       </c>
     </row>
-    <row r="134" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N134">
         <v>130</v>
       </c>
@@ -38155,7 +38155,7 @@
         <v>0.76604444311897801</v>
       </c>
     </row>
-    <row r="135" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N135">
         <v>131</v>
       </c>
@@ -38166,7 +38166,7 @@
         <v>0.75470958022277179</v>
       </c>
     </row>
-    <row r="136" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N136">
         <v>132</v>
       </c>
@@ -38177,7 +38177,7 @@
         <v>0.74314482547739424</v>
       </c>
     </row>
-    <row r="137" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N137">
         <v>133</v>
       </c>
@@ -38188,7 +38188,7 @@
         <v>0.73135370161917057</v>
       </c>
     </row>
-    <row r="138" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N138">
         <v>134</v>
       </c>
@@ -38199,7 +38199,7 @@
         <v>0.71933980033865141</v>
       </c>
     </row>
-    <row r="139" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N139">
         <v>135</v>
       </c>
@@ -38210,7 +38210,7 @@
         <v>0.70710678118654757</v>
       </c>
     </row>
-    <row r="140" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N140">
         <v>136</v>
       </c>
@@ -38221,7 +38221,7 @@
         <v>0.69465837045899714</v>
       </c>
     </row>
-    <row r="141" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N141">
         <v>137</v>
       </c>
@@ -38232,7 +38232,7 @@
         <v>0.68199836006249859</v>
       </c>
     </row>
-    <row r="142" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N142">
         <v>138</v>
       </c>
@@ -38243,7 +38243,7 @@
         <v>0.66913060635885835</v>
       </c>
     </row>
-    <row r="143" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N143">
         <v>139</v>
       </c>
@@ -38254,7 +38254,7 @@
         <v>0.65605902899050728</v>
       </c>
     </row>
-    <row r="144" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N144">
         <v>140</v>
       </c>
@@ -38265,7 +38265,7 @@
         <v>0.64278760968653947</v>
       </c>
     </row>
-    <row r="145" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N145">
         <v>141</v>
       </c>
@@ -38276,7 +38276,7 @@
         <v>0.62932039104983772</v>
       </c>
     </row>
-    <row r="146" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N146">
         <v>142</v>
       </c>
@@ -38287,7 +38287,7 @@
         <v>0.6156614753256584</v>
       </c>
     </row>
-    <row r="147" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N147">
         <v>143</v>
       </c>
@@ -38298,7 +38298,7 @@
         <v>0.60181502315204816</v>
       </c>
     </row>
-    <row r="148" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N148">
         <v>144</v>
       </c>
@@ -38309,7 +38309,7 @@
         <v>0.58778525229247325</v>
       </c>
     </row>
-    <row r="149" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N149">
         <v>145</v>
       </c>
@@ -38320,7 +38320,7 @@
         <v>0.57357643635104638</v>
       </c>
     </row>
-    <row r="150" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N150">
         <v>146</v>
       </c>
@@ -38331,7 +38331,7 @@
         <v>0.5591929034707469</v>
       </c>
     </row>
-    <row r="151" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N151">
         <v>147</v>
       </c>
@@ -38342,7 +38342,7 @@
         <v>0.54463903501502697</v>
       </c>
     </row>
-    <row r="152" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N152">
         <v>148</v>
       </c>
@@ -38353,7 +38353,7 @@
         <v>0.5299192642332049</v>
       </c>
     </row>
-    <row r="153" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N153">
         <v>149</v>
       </c>
@@ -38364,7 +38364,7 @@
         <v>0.51503807491005438</v>
       </c>
     </row>
-    <row r="154" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N154">
         <v>150</v>
       </c>
@@ -38375,7 +38375,7 @@
         <v>0.49999999999999994</v>
       </c>
     </row>
-    <row r="155" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N155">
         <v>151</v>
       </c>
@@ -38386,7 +38386,7 @@
         <v>0.48480962024633717</v>
       </c>
     </row>
-    <row r="156" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N156">
         <v>152</v>
       </c>
@@ -38397,7 +38397,7 @@
         <v>0.46947156278589108</v>
       </c>
     </row>
-    <row r="157" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N157">
         <v>153</v>
       </c>
@@ -38408,7 +38408,7 @@
         <v>0.45399049973954686</v>
       </c>
     </row>
-    <row r="158" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N158">
         <v>154</v>
       </c>
@@ -38419,7 +38419,7 @@
         <v>0.43837114678907729</v>
       </c>
     </row>
-    <row r="159" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N159">
         <v>155</v>
       </c>
@@ -38430,7 +38430,7 @@
         <v>0.4226182617406995</v>
       </c>
     </row>
-    <row r="160" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N160">
         <v>156</v>
       </c>
@@ -38441,7 +38441,7 @@
         <v>0.40673664307580043</v>
       </c>
     </row>
-    <row r="161" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N161">
         <v>157</v>
       </c>
@@ -38452,7 +38452,7 @@
         <v>0.39073112848927416</v>
       </c>
     </row>
-    <row r="162" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N162">
         <v>158</v>
       </c>
@@ -38463,7 +38463,7 @@
         <v>0.37460659341591224</v>
       </c>
     </row>
-    <row r="163" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N163">
         <v>159</v>
       </c>
@@ -38474,7 +38474,7 @@
         <v>0.35836794954530021</v>
       </c>
     </row>
-    <row r="164" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N164">
         <v>160</v>
       </c>
@@ -38485,7 +38485,7 @@
         <v>0.34202014332566888</v>
       </c>
     </row>
-    <row r="165" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N165">
         <v>161</v>
       </c>
@@ -38496,7 +38496,7 @@
         <v>0.32556815445715703</v>
       </c>
     </row>
-    <row r="166" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N166">
         <v>162</v>
       </c>
@@ -38507,7 +38507,7 @@
         <v>0.30901699437494751</v>
       </c>
     </row>
-    <row r="167" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N167">
         <v>163</v>
       </c>
@@ -38518,7 +38518,7 @@
         <v>0.29237170472273705</v>
       </c>
     </row>
-    <row r="168" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N168">
         <v>164</v>
       </c>
@@ -38529,7 +38529,7 @@
         <v>0.27563735581699966</v>
       </c>
     </row>
-    <row r="169" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N169">
         <v>165</v>
       </c>
@@ -38540,7 +38540,7 @@
         <v>0.25881904510252102</v>
       </c>
     </row>
-    <row r="170" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N170">
         <v>166</v>
       </c>
@@ -38551,7 +38551,7 @@
         <v>0.24192189559966773</v>
       </c>
     </row>
-    <row r="171" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N171">
         <v>167</v>
       </c>
@@ -38562,7 +38562,7 @@
         <v>0.22495105434386478</v>
       </c>
     </row>
-    <row r="172" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N172">
         <v>168</v>
       </c>
@@ -38573,7 +38573,7 @@
         <v>0.20791169081775931</v>
       </c>
     </row>
-    <row r="173" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N173">
         <v>169</v>
       </c>
@@ -38584,7 +38584,7 @@
         <v>0.19080899537654497</v>
       </c>
     </row>
-    <row r="174" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N174">
         <v>170</v>
       </c>
@@ -38595,7 +38595,7 @@
         <v>0.17364817766693028</v>
       </c>
     </row>
-    <row r="175" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N175">
         <v>171</v>
       </c>
@@ -38606,7 +38606,7 @@
         <v>0.15643446504023098</v>
       </c>
     </row>
-    <row r="176" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N176">
         <v>172</v>
       </c>
@@ -38617,7 +38617,7 @@
         <v>0.13917310096006574</v>
       </c>
     </row>
-    <row r="177" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N177">
         <v>173</v>
       </c>
@@ -38628,7 +38628,7 @@
         <v>0.12186934340514755</v>
       </c>
     </row>
-    <row r="178" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N178">
         <v>174</v>
       </c>
@@ -38639,7 +38639,7 @@
         <v>0.10452846326765373</v>
       </c>
     </row>
-    <row r="179" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N179">
         <v>175</v>
       </c>
@@ -38650,7 +38650,7 @@
         <v>8.7155742747658638E-2</v>
       </c>
     </row>
-    <row r="180" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N180">
         <v>176</v>
       </c>
@@ -38661,7 +38661,7 @@
         <v>6.9756473744125524E-2</v>
       </c>
     </row>
-    <row r="181" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N181">
         <v>177</v>
       </c>
@@ -38672,7 +38672,7 @@
         <v>5.2335956242943807E-2</v>
       </c>
     </row>
-    <row r="182" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N182">
         <v>178</v>
       </c>
@@ -38683,7 +38683,7 @@
         <v>3.4899496702500699E-2</v>
       </c>
     </row>
-    <row r="183" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N183">
         <v>179</v>
       </c>
@@ -38694,7 +38694,7 @@
         <v>1.7452406437283439E-2</v>
       </c>
     </row>
-    <row r="184" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N184">
         <v>180</v>
       </c>
@@ -38705,7 +38705,7 @@
         <v>1.22514845490862E-16</v>
       </c>
     </row>
-    <row r="185" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N185">
         <v>181</v>
       </c>
@@ -38716,7 +38716,7 @@
         <v>-1.7452406437283192E-2</v>
       </c>
     </row>
-    <row r="186" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N186">
         <v>182</v>
       </c>
@@ -38727,7 +38727,7 @@
         <v>-3.48994967025009E-2</v>
       </c>
     </row>
-    <row r="187" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N187">
         <v>183</v>
       </c>
@@ -38738,7 +38738,7 @@
         <v>-5.2335956242943557E-2</v>
       </c>
     </row>
-    <row r="188" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N188">
         <v>184</v>
       </c>
@@ -38749,7 +38749,7 @@
         <v>-6.9756473744124831E-2</v>
       </c>
     </row>
-    <row r="189" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N189">
         <v>185</v>
       </c>
@@ -38760,7 +38760,7 @@
         <v>-8.7155742747657944E-2</v>
       </c>
     </row>
-    <row r="190" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N190">
         <v>186</v>
       </c>
@@ -38771,7 +38771,7 @@
         <v>-0.10452846326765305</v>
       </c>
     </row>
-    <row r="191" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N191">
         <v>187</v>
       </c>
@@ -38782,7 +38782,7 @@
         <v>-0.12186934340514774</v>
       </c>
     </row>
-    <row r="192" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N192">
         <v>188</v>
       </c>
@@ -38793,7 +38793,7 @@
         <v>-0.13917310096006552</v>
       </c>
     </row>
-    <row r="193" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N193">
         <v>189</v>
       </c>
@@ -38804,7 +38804,7 @@
         <v>-0.15643446504023073</v>
       </c>
     </row>
-    <row r="194" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N194">
         <v>190</v>
       </c>
@@ -38815,7 +38815,7 @@
         <v>-0.17364817766693047</v>
       </c>
     </row>
-    <row r="195" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N195">
         <v>191</v>
       </c>
@@ -38826,7 +38826,7 @@
         <v>-0.19080899537654472</v>
       </c>
     </row>
-    <row r="196" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N196">
         <v>192</v>
       </c>
@@ -38837,7 +38837,7 @@
         <v>-0.20791169081775907</v>
       </c>
     </row>
-    <row r="197" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N197">
         <v>193</v>
       </c>
@@ -38848,7 +38848,7 @@
         <v>-0.22495105434386498</v>
       </c>
     </row>
-    <row r="198" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N198">
         <v>194</v>
       </c>
@@ -38859,7 +38859,7 @@
         <v>-0.24192189559966751</v>
       </c>
     </row>
-    <row r="199" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N199">
         <v>195</v>
       </c>
@@ -38870,7 +38870,7 @@
         <v>-0.25881904510252035</v>
       </c>
     </row>
-    <row r="200" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N200">
         <v>196</v>
       </c>
@@ -38881,7 +38881,7 @@
         <v>-0.275637355816999</v>
       </c>
     </row>
-    <row r="201" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N201">
         <v>197</v>
       </c>
@@ -38892,7 +38892,7 @@
         <v>-0.29237170472273638</v>
       </c>
     </row>
-    <row r="202" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N202">
         <v>198</v>
       </c>
@@ -38903,7 +38903,7 @@
         <v>-0.30901699437494773</v>
       </c>
     </row>
-    <row r="203" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N203">
         <v>199</v>
       </c>
@@ -38914,7 +38914,7 @@
         <v>-0.32556815445715676</v>
       </c>
     </row>
-    <row r="204" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N204">
         <v>200</v>
       </c>
@@ -38925,7 +38925,7 @@
         <v>-0.34202014332566866</v>
       </c>
     </row>
-    <row r="205" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N205">
         <v>201</v>
       </c>
@@ -38936,7 +38936,7 @@
         <v>-0.35836794954530043</v>
       </c>
     </row>
-    <row r="206" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N206">
         <v>202</v>
       </c>
@@ -38947,7 +38947,7 @@
         <v>-0.37460659341591201</v>
       </c>
     </row>
-    <row r="207" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N207">
         <v>203</v>
       </c>
@@ -38958,7 +38958,7 @@
         <v>-0.39073112848927355</v>
       </c>
     </row>
-    <row r="208" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N208">
         <v>204</v>
       </c>
@@ -38969,7 +38969,7 @@
         <v>-0.40673664307579982</v>
       </c>
     </row>
-    <row r="209" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N209">
         <v>205</v>
       </c>
@@ -38980,7 +38980,7 @@
         <v>-0.42261826174069927</v>
       </c>
     </row>
-    <row r="210" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N210">
         <v>206</v>
       </c>
@@ -38991,7 +38991,7 @@
         <v>-0.43837114678907707</v>
       </c>
     </row>
-    <row r="211" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N211">
         <v>207</v>
       </c>
@@ -39002,7 +39002,7 @@
         <v>-0.45399049973954625</v>
       </c>
     </row>
-    <row r="212" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N212">
         <v>208</v>
       </c>
@@ -39013,7 +39013,7 @@
         <v>-0.46947156278589086</v>
       </c>
     </row>
-    <row r="213" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N213">
         <v>209</v>
       </c>
@@ -39024,7 +39024,7 @@
         <v>-0.48480962024633695</v>
       </c>
     </row>
-    <row r="214" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N214">
         <v>210</v>
       </c>
@@ -39035,7 +39035,7 @@
         <v>-0.50000000000000011</v>
       </c>
     </row>
-    <row r="215" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N215">
         <v>211</v>
       </c>
@@ -39046,7 +39046,7 @@
         <v>-0.51503807491005416</v>
       </c>
     </row>
-    <row r="216" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N216">
         <v>212</v>
       </c>
@@ -39057,7 +39057,7 @@
         <v>-0.52991926423320479</v>
       </c>
     </row>
-    <row r="217" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N217">
         <v>213</v>
       </c>
@@ -39068,7 +39068,7 @@
         <v>-0.54463903501502708</v>
       </c>
     </row>
-    <row r="218" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N218">
         <v>214</v>
       </c>
@@ -39079,7 +39079,7 @@
         <v>-0.55919290347074668</v>
       </c>
     </row>
-    <row r="219" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N219">
         <v>215</v>
       </c>
@@ -39090,7 +39090,7 @@
         <v>-0.57357643635104583</v>
       </c>
     </row>
-    <row r="220" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N220">
         <v>216</v>
       </c>
@@ -39101,7 +39101,7 @@
         <v>-0.58778525229247303</v>
       </c>
     </row>
-    <row r="221" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N221">
         <v>217</v>
       </c>
@@ -39112,7 +39112,7 @@
         <v>-0.60181502315204805</v>
       </c>
     </row>
-    <row r="222" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N222">
         <v>218</v>
       </c>
@@ -39123,7 +39123,7 @@
         <v>-0.61566147532565785</v>
       </c>
     </row>
-    <row r="223" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N223">
         <v>219</v>
       </c>
@@ -39134,7 +39134,7 @@
         <v>-0.62932039104983761</v>
       </c>
     </row>
-    <row r="224" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N224">
         <v>220</v>
       </c>
@@ -39145,7 +39145,7 @@
         <v>-0.64278760968653925</v>
       </c>
     </row>
-    <row r="225" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N225">
         <v>221</v>
       </c>
@@ -39156,7 +39156,7 @@
         <v>-0.65605902899050739</v>
       </c>
     </row>
-    <row r="226" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N226">
         <v>222</v>
       </c>
@@ -39167,7 +39167,7 @@
         <v>-0.66913060635885824</v>
       </c>
     </row>
-    <row r="227" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N227">
         <v>223</v>
       </c>
@@ -39178,7 +39178,7 @@
         <v>-0.68199836006249837</v>
       </c>
     </row>
-    <row r="228" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N228">
         <v>224</v>
       </c>
@@ -39189,7 +39189,7 @@
         <v>-0.69465837045899737</v>
       </c>
     </row>
-    <row r="229" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N229">
         <v>225</v>
       </c>
@@ -39200,7 +39200,7 @@
         <v>-0.70710678118654746</v>
       </c>
     </row>
-    <row r="230" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N230">
         <v>226</v>
       </c>
@@ -39211,7 +39211,7 @@
         <v>-0.71933980033865086</v>
       </c>
     </row>
-    <row r="231" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N231">
         <v>227</v>
       </c>
@@ -39222,7 +39222,7 @@
         <v>-0.73135370161917013</v>
       </c>
     </row>
-    <row r="232" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N232">
         <v>228</v>
       </c>
@@ -39233,7 +39233,7 @@
         <v>-0.74314482547739402</v>
       </c>
     </row>
-    <row r="233" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N233">
         <v>229</v>
       </c>
@@ -39244,7 +39244,7 @@
         <v>-0.75470958022277168</v>
       </c>
     </row>
-    <row r="234" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N234">
         <v>230</v>
       </c>
@@ -39255,7 +39255,7 @@
         <v>-0.7660444431189779</v>
       </c>
     </row>
-    <row r="235" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N235">
         <v>231</v>
       </c>
@@ -39266,7 +39266,7 @@
         <v>-0.77714596145697112</v>
       </c>
     </row>
-    <row r="236" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N236">
         <v>232</v>
       </c>
@@ -39277,7 +39277,7 @@
         <v>-0.78801075360672213</v>
       </c>
     </row>
-    <row r="237" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N237">
         <v>233</v>
       </c>
@@ -39288,7 +39288,7 @@
         <v>-0.79863551004729283</v>
       </c>
     </row>
-    <row r="238" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N238">
         <v>234</v>
       </c>
@@ -39299,7 +39299,7 @@
         <v>-0.80901699437494734</v>
       </c>
     </row>
-    <row r="239" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N239">
         <v>235</v>
       </c>
@@ -39310,7 +39310,7 @@
         <v>-0.81915204428899158</v>
       </c>
     </row>
-    <row r="240" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N240">
         <v>236</v>
       </c>
@@ -39321,7 +39321,7 @@
         <v>-0.8290375725550414</v>
       </c>
     </row>
-    <row r="241" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N241">
         <v>237</v>
       </c>
@@ -39332,7 +39332,7 @@
         <v>-0.83867056794542405</v>
       </c>
     </row>
-    <row r="242" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N242">
         <v>238</v>
       </c>
@@ -39343,7 +39343,7 @@
         <v>-0.84804809615642596</v>
       </c>
     </row>
-    <row r="243" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N243">
         <v>239</v>
       </c>
@@ -39354,7 +39354,7 @@
         <v>-0.85716730070211211</v>
       </c>
     </row>
-    <row r="244" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N244">
         <v>240</v>
       </c>
@@ -39365,7 +39365,7 @@
         <v>-0.86602540378443837</v>
       </c>
     </row>
-    <row r="245" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N245">
         <v>241</v>
       </c>
@@ -39376,7 +39376,7 @@
         <v>-0.87461970713939596</v>
       </c>
     </row>
-    <row r="246" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N246">
         <v>242</v>
       </c>
@@ -39387,7 +39387,7 @@
         <v>-0.88294759285892699</v>
       </c>
     </row>
-    <row r="247" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N247">
         <v>243</v>
       </c>
@@ -39398,7 +39398,7 @@
         <v>-0.89100652418836779</v>
       </c>
     </row>
-    <row r="248" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N248">
         <v>244</v>
       </c>
@@ -39409,7 +39409,7 @@
         <v>-0.89879404629916682</v>
       </c>
     </row>
-    <row r="249" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N249">
         <v>245</v>
       </c>
@@ -39420,7 +39420,7 @@
         <v>-0.90630778703664971</v>
       </c>
     </row>
-    <row r="250" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N250">
         <v>246</v>
       </c>
@@ -39431,7 +39431,7 @@
         <v>-0.91354545764260098</v>
       </c>
     </row>
-    <row r="251" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N251">
         <v>247</v>
       </c>
@@ -39442,7 +39442,7 @@
         <v>-0.92050485345244026</v>
       </c>
     </row>
-    <row r="252" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N252">
         <v>248</v>
       </c>
@@ -39453,7 +39453,7 @@
         <v>-0.92718385456678731</v>
       </c>
     </row>
-    <row r="253" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N253">
         <v>249</v>
       </c>
@@ -39464,7 +39464,7 @@
         <v>-0.93358042649720163</v>
       </c>
     </row>
-    <row r="254" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N254">
         <v>250</v>
       </c>
@@ -39475,7 +39475,7 @@
         <v>-0.93969262078590821</v>
       </c>
     </row>
-    <row r="255" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N255">
         <v>251</v>
       </c>
@@ -39486,7 +39486,7 @@
         <v>-0.94551857559931685</v>
       </c>
     </row>
-    <row r="256" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N256">
         <v>252</v>
       </c>
@@ -39497,7 +39497,7 @@
         <v>-0.95105651629515353</v>
       </c>
     </row>
-    <row r="257" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N257">
         <v>253</v>
       </c>
@@ -39508,7 +39508,7 @@
         <v>-0.95630475596303532</v>
       </c>
     </row>
-    <row r="258" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N258">
         <v>254</v>
       </c>
@@ -39519,7 +39519,7 @@
         <v>-0.96126169593831901</v>
       </c>
     </row>
-    <row r="259" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N259">
         <v>255</v>
       </c>
@@ -39530,7 +39530,7 @@
         <v>-0.96592582628906831</v>
       </c>
     </row>
-    <row r="260" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N260">
         <v>256</v>
       </c>
@@ -39541,7 +39541,7 @@
         <v>-0.97029572627599647</v>
       </c>
     </row>
-    <row r="261" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N261">
         <v>257</v>
       </c>
@@ -39552,7 +39552,7 @@
         <v>-0.97437006478523513</v>
       </c>
     </row>
-    <row r="262" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N262">
         <v>258</v>
       </c>
@@ -39563,7 +39563,7 @@
         <v>-0.97814760073380558</v>
       </c>
     </row>
-    <row r="263" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N263">
         <v>259</v>
       </c>
@@ -39574,7 +39574,7 @@
         <v>-0.98162718344766386</v>
       </c>
     </row>
-    <row r="264" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N264">
         <v>260</v>
       </c>
@@ -39585,7 +39585,7 @@
         <v>-0.98480775301220802</v>
       </c>
     </row>
-    <row r="265" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="265" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N265">
         <v>261</v>
       </c>
@@ -39596,7 +39596,7 @@
         <v>-0.98768834059513766</v>
       </c>
     </row>
-    <row r="266" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N266">
         <v>262</v>
       </c>
@@ -39607,7 +39607,7 @@
         <v>-0.99026806874157036</v>
       </c>
     </row>
-    <row r="267" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N267">
         <v>263</v>
       </c>
@@ -39618,7 +39618,7 @@
         <v>-0.99254615164132209</v>
       </c>
     </row>
-    <row r="268" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N268">
         <v>264</v>
       </c>
@@ -39629,7 +39629,7 @@
         <v>-0.9945218953682734</v>
       </c>
     </row>
-    <row r="269" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="269" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N269">
         <v>265</v>
       </c>
@@ -39640,7 +39640,7 @@
         <v>-0.99619469809174555</v>
       </c>
     </row>
-    <row r="270" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N270">
         <v>266</v>
       </c>
@@ -39651,7 +39651,7 @@
         <v>-0.9975640502598242</v>
       </c>
     </row>
-    <row r="271" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N271">
         <v>267</v>
       </c>
@@ -39662,7 +39662,7 @@
         <v>-0.99862953475457383</v>
       </c>
     </row>
-    <row r="272" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="272" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N272">
         <v>268</v>
       </c>
@@ -39673,7 +39673,7 @@
         <v>-0.99939082701909565</v>
       </c>
     </row>
-    <row r="273" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N273">
         <v>269</v>
       </c>
@@ -39684,7 +39684,7 @@
         <v>-0.99984769515639127</v>
       </c>
     </row>
-    <row r="274" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N274">
         <v>270</v>
       </c>
@@ -39695,7 +39695,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="275" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N275">
         <v>271</v>
       </c>
@@ -39706,7 +39706,7 @@
         <v>-0.99984769515639127</v>
       </c>
     </row>
-    <row r="276" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N276">
         <v>272</v>
       </c>
@@ -39717,7 +39717,7 @@
         <v>-0.99939082701909576</v>
       </c>
     </row>
-    <row r="277" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N277">
         <v>273</v>
       </c>
@@ -39728,7 +39728,7 @@
         <v>-0.99862953475457383</v>
       </c>
     </row>
-    <row r="278" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N278">
         <v>274</v>
       </c>
@@ -39739,7 +39739,7 @@
         <v>-0.99756405025982431</v>
       </c>
     </row>
-    <row r="279" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N279">
         <v>275</v>
       </c>
@@ -39750,7 +39750,7 @@
         <v>-0.99619469809174555</v>
       </c>
     </row>
-    <row r="280" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N280">
         <v>276</v>
       </c>
@@ -39761,7 +39761,7 @@
         <v>-0.9945218953682734</v>
       </c>
     </row>
-    <row r="281" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="281" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N281">
         <v>277</v>
       </c>
@@ -39772,7 +39772,7 @@
         <v>-0.99254615164132198</v>
       </c>
     </row>
-    <row r="282" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N282">
         <v>278</v>
       </c>
@@ -39783,7 +39783,7 @@
         <v>-0.99026806874157036</v>
       </c>
     </row>
-    <row r="283" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N283">
         <v>279</v>
       </c>
@@ -39794,7 +39794,7 @@
         <v>-0.98768834059513777</v>
       </c>
     </row>
-    <row r="284" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N284">
         <v>280</v>
       </c>
@@ -39805,7 +39805,7 @@
         <v>-0.98480775301220813</v>
       </c>
     </row>
-    <row r="285" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N285">
         <v>281</v>
       </c>
@@ -39816,7 +39816,7 @@
         <v>-0.98162718344766409</v>
       </c>
     </row>
-    <row r="286" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N286">
         <v>282</v>
       </c>
@@ -39827,7 +39827,7 @@
         <v>-0.9781476007338058</v>
       </c>
     </row>
-    <row r="287" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N287">
         <v>283</v>
       </c>
@@ -39838,7 +39838,7 @@
         <v>-0.97437006478523525</v>
       </c>
     </row>
-    <row r="288" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N288">
         <v>284</v>
       </c>
@@ -39849,7 +39849,7 @@
         <v>-0.97029572627599658</v>
       </c>
     </row>
-    <row r="289" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N289">
         <v>285</v>
       </c>
@@ -39860,7 +39860,7 @@
         <v>-0.9659258262890682</v>
       </c>
     </row>
-    <row r="290" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N290">
         <v>286</v>
       </c>
@@ -39871,7 +39871,7 @@
         <v>-0.96126169593831878</v>
       </c>
     </row>
-    <row r="291" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="291" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N291">
         <v>287</v>
       </c>
@@ -39882,7 +39882,7 @@
         <v>-0.95630475596303544</v>
       </c>
     </row>
-    <row r="292" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N292">
         <v>288</v>
       </c>
@@ -39893,7 +39893,7 @@
         <v>-0.95105651629515364</v>
       </c>
     </row>
-    <row r="293" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N293">
         <v>289</v>
       </c>
@@ -39904,7 +39904,7 @@
         <v>-0.94551857559931696</v>
       </c>
     </row>
-    <row r="294" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N294">
         <v>290</v>
       </c>
@@ -39915,7 +39915,7 @@
         <v>-0.93969262078590854</v>
       </c>
     </row>
-    <row r="295" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N295">
         <v>291</v>
       </c>
@@ -39926,7 +39926,7 @@
         <v>-0.93358042649720208</v>
       </c>
     </row>
-    <row r="296" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N296">
         <v>292</v>
       </c>
@@ -39937,7 +39937,7 @@
         <v>-0.92718385456678742</v>
       </c>
     </row>
-    <row r="297" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N297">
         <v>293</v>
       </c>
@@ -39948,7 +39948,7 @@
         <v>-0.92050485345244049</v>
       </c>
     </row>
-    <row r="298" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N298">
         <v>294</v>
       </c>
@@ -39959,7 +39959,7 @@
         <v>-0.91354545764260076</v>
       </c>
     </row>
-    <row r="299" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="299" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N299">
         <v>295</v>
       </c>
@@ -39970,7 +39970,7 @@
         <v>-0.90630778703664994</v>
       </c>
     </row>
-    <row r="300" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="300" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N300">
         <v>296</v>
       </c>
@@ -39981,7 +39981,7 @@
         <v>-0.89879404629916704</v>
       </c>
     </row>
-    <row r="301" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="301" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N301">
         <v>297</v>
       </c>
@@ -39992,7 +39992,7 @@
         <v>-0.8910065241883679</v>
       </c>
     </row>
-    <row r="302" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="302" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N302">
         <v>298</v>
       </c>
@@ -40003,7 +40003,7 @@
         <v>-0.8829475928589271</v>
       </c>
     </row>
-    <row r="303" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="303" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N303">
         <v>299</v>
       </c>
@@ -40014,7 +40014,7 @@
         <v>-0.87461970713939607</v>
       </c>
     </row>
-    <row r="304" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="304" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N304">
         <v>300</v>
       </c>
@@ -40025,7 +40025,7 @@
         <v>-0.8660254037844386</v>
       </c>
     </row>
-    <row r="305" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="305" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N305">
         <v>301</v>
       </c>
@@ -40036,7 +40036,7 @@
         <v>-0.85716730070211233</v>
       </c>
     </row>
-    <row r="306" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="306" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N306">
         <v>302</v>
       </c>
@@ -40047,7 +40047,7 @@
         <v>-0.84804809615642618</v>
       </c>
     </row>
-    <row r="307" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="307" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N307">
         <v>303</v>
       </c>
@@ -40058,7 +40058,7 @@
         <v>-0.83867056794542427</v>
       </c>
     </row>
-    <row r="308" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="308" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N308">
         <v>304</v>
       </c>
@@ -40069,7 +40069,7 @@
         <v>-0.82903757255504207</v>
       </c>
     </row>
-    <row r="309" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="309" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N309">
         <v>305</v>
       </c>
@@ -40080,7 +40080,7 @@
         <v>-0.8191520442889918</v>
       </c>
     </row>
-    <row r="310" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="310" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N310">
         <v>306</v>
       </c>
@@ -40091,7 +40091,7 @@
         <v>-0.80901699437494756</v>
       </c>
     </row>
-    <row r="311" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="311" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N311">
         <v>307</v>
       </c>
@@ -40102,7 +40102,7 @@
         <v>-0.79863551004729305</v>
       </c>
     </row>
-    <row r="312" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="312" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N312">
         <v>308</v>
       </c>
@@ -40113,7 +40113,7 @@
         <v>-0.78801075360672179</v>
       </c>
     </row>
-    <row r="313" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="313" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N313">
         <v>309</v>
       </c>
@@ -40124,7 +40124,7 @@
         <v>-0.77714596145697079</v>
       </c>
     </row>
-    <row r="314" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="314" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N314">
         <v>310</v>
       </c>
@@ -40135,7 +40135,7 @@
         <v>-0.76604444311897812</v>
       </c>
     </row>
-    <row r="315" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="315" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N315">
         <v>311</v>
       </c>
@@ -40146,7 +40146,7 @@
         <v>-0.75470958022277224</v>
       </c>
     </row>
-    <row r="316" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="316" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N316">
         <v>312</v>
       </c>
@@ -40157,7 +40157,7 @@
         <v>-0.74314482547739458</v>
       </c>
     </row>
-    <row r="317" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="317" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N317">
         <v>313</v>
       </c>
@@ -40168,7 +40168,7 @@
         <v>-0.73135370161917101</v>
       </c>
     </row>
-    <row r="318" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="318" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N318">
         <v>314</v>
       </c>
@@ -40179,7 +40179,7 @@
         <v>-0.71933980033865175</v>
       </c>
     </row>
-    <row r="319" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="319" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N319">
         <v>315</v>
       </c>
@@ -40190,7 +40190,7 @@
         <v>-0.70710678118654768</v>
       </c>
     </row>
-    <row r="320" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="320" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N320">
         <v>316</v>
       </c>
@@ -40201,7 +40201,7 @@
         <v>-0.69465837045899759</v>
       </c>
     </row>
-    <row r="321" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="321" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N321">
         <v>317</v>
       </c>
@@ -40212,7 +40212,7 @@
         <v>-0.68199836006249825</v>
       </c>
     </row>
-    <row r="322" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="322" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N322">
         <v>318</v>
       </c>
@@ -40223,7 +40223,7 @@
         <v>-0.66913060635885813</v>
       </c>
     </row>
-    <row r="323" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="323" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N323">
         <v>319</v>
       </c>
@@ -40234,7 +40234,7 @@
         <v>-0.65605902899050739</v>
       </c>
     </row>
-    <row r="324" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="324" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N324">
         <v>320</v>
       </c>
@@ -40245,7 +40245,7 @@
         <v>-0.64278760968653958</v>
       </c>
     </row>
-    <row r="325" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="325" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N325">
         <v>321</v>
       </c>
@@ -40256,7 +40256,7 @@
         <v>-0.62932039104983784</v>
       </c>
     </row>
-    <row r="326" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="326" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N326">
         <v>322</v>
       </c>
@@ -40267,7 +40267,7 @@
         <v>-0.61566147532565885</v>
       </c>
     </row>
-    <row r="327" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="327" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N327">
         <v>323</v>
       </c>
@@ -40278,7 +40278,7 @@
         <v>-0.60181502315204827</v>
       </c>
     </row>
-    <row r="328" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="328" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N328">
         <v>324</v>
       </c>
@@ -40289,7 +40289,7 @@
         <v>-0.58778525229247336</v>
       </c>
     </row>
-    <row r="329" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="329" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N329">
         <v>325</v>
       </c>
@@ -40300,7 +40300,7 @@
         <v>-0.57357643635104649</v>
       </c>
     </row>
-    <row r="330" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="330" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N330">
         <v>326</v>
       </c>
@@ -40311,7 +40311,7 @@
         <v>-0.55919290347074735</v>
       </c>
     </row>
-    <row r="331" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="331" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N331">
         <v>327</v>
       </c>
@@ -40322,7 +40322,7 @@
         <v>-0.54463903501502697</v>
       </c>
     </row>
-    <row r="332" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="332" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N332">
         <v>328</v>
       </c>
@@ -40333,7 +40333,7 @@
         <v>-0.52991926423320579</v>
       </c>
     </row>
-    <row r="333" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="333" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N333">
         <v>329</v>
       </c>
@@ -40344,7 +40344,7 @@
         <v>-0.51503807491005449</v>
       </c>
     </row>
-    <row r="334" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="334" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N334">
         <v>330</v>
       </c>
@@ -40355,7 +40355,7 @@
         <v>-0.50000000000000044</v>
       </c>
     </row>
-    <row r="335" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="335" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N335">
         <v>331</v>
       </c>
@@ -40366,7 +40366,7 @@
         <v>-0.48480962024633689</v>
       </c>
     </row>
-    <row r="336" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="336" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N336">
         <v>332</v>
       </c>
@@ -40377,7 +40377,7 @@
         <v>-0.46947156278589081</v>
       </c>
     </row>
-    <row r="337" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N337">
         <v>333</v>
       </c>
@@ -40388,7 +40388,7 @@
         <v>-0.45399049973954697</v>
       </c>
     </row>
-    <row r="338" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N338">
         <v>334</v>
       </c>
@@ -40399,7 +40399,7 @@
         <v>-0.43837114678907702</v>
       </c>
     </row>
-    <row r="339" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N339">
         <v>335</v>
       </c>
@@ -40410,7 +40410,7 @@
         <v>-0.4226182617407</v>
       </c>
     </row>
-    <row r="340" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N340">
         <v>336</v>
       </c>
@@ -40421,7 +40421,7 @@
         <v>-0.40673664307580015</v>
       </c>
     </row>
-    <row r="341" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N341">
         <v>337</v>
       </c>
@@ -40432,7 +40432,7 @@
         <v>-0.39073112848927471</v>
       </c>
     </row>
-    <row r="342" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="342" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N342">
         <v>338</v>
       </c>
@@ -40443,7 +40443,7 @@
         <v>-0.37460659341591235</v>
       </c>
     </row>
-    <row r="343" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N343">
         <v>339</v>
       </c>
@@ -40454,7 +40454,7 @@
         <v>-0.35836794954530077</v>
       </c>
     </row>
-    <row r="344" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="344" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N344">
         <v>340</v>
       </c>
@@ -40465,7 +40465,7 @@
         <v>-0.3420201433256686</v>
       </c>
     </row>
-    <row r="345" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N345">
         <v>341</v>
       </c>
@@ -40476,7 +40476,7 @@
         <v>-0.32556815445715753</v>
       </c>
     </row>
-    <row r="346" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N346">
         <v>342</v>
       </c>
@@ -40487,7 +40487,7 @@
         <v>-0.30901699437494762</v>
       </c>
     </row>
-    <row r="347" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N347">
         <v>343</v>
       </c>
@@ -40498,7 +40498,7 @@
         <v>-0.29237170472273627</v>
       </c>
     </row>
-    <row r="348" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="348" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N348">
         <v>344</v>
       </c>
@@ -40509,7 +40509,7 @@
         <v>-0.27563735581699977</v>
       </c>
     </row>
-    <row r="349" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N349">
         <v>345</v>
       </c>
@@ -40520,7 +40520,7 @@
         <v>-0.25881904510252068</v>
       </c>
     </row>
-    <row r="350" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N350">
         <v>346</v>
       </c>
@@ -40531,7 +40531,7 @@
         <v>-0.24192189559966787</v>
       </c>
     </row>
-    <row r="351" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="351" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N351">
         <v>347</v>
       </c>
@@ -40542,7 +40542,7 @@
         <v>-0.22495105434386534</v>
       </c>
     </row>
-    <row r="352" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N352">
         <v>348</v>
       </c>
@@ -40553,7 +40553,7 @@
         <v>-0.20791169081775987</v>
       </c>
     </row>
-    <row r="353" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="353" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N353">
         <v>349</v>
       </c>
@@ -40564,7 +40564,7 @@
         <v>-0.19080899537654467</v>
       </c>
     </row>
-    <row r="354" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="354" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N354">
         <v>350</v>
       </c>
@@ -40575,7 +40575,7 @@
         <v>-0.17364817766693127</v>
       </c>
     </row>
-    <row r="355" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="355" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N355">
         <v>351</v>
       </c>
@@ -40586,7 +40586,7 @@
         <v>-0.15643446504023112</v>
       </c>
     </row>
-    <row r="356" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="356" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N356">
         <v>352</v>
       </c>
@@ -40597,7 +40597,7 @@
         <v>-0.13917310096006588</v>
       </c>
     </row>
-    <row r="357" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="357" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N357">
         <v>353</v>
       </c>
@@ -40608,7 +40608,7 @@
         <v>-0.12186934340514811</v>
       </c>
     </row>
-    <row r="358" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="358" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N358">
         <v>354</v>
       </c>
@@ -40619,7 +40619,7 @@
         <v>-0.10452846326765342</v>
       </c>
     </row>
-    <row r="359" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="359" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N359">
         <v>355</v>
       </c>
@@ -40630,7 +40630,7 @@
         <v>-8.7155742747658319E-2</v>
       </c>
     </row>
-    <row r="360" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="360" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N360">
         <v>356</v>
       </c>
@@ -40641,7 +40641,7 @@
         <v>-6.9756473744124761E-2</v>
       </c>
     </row>
-    <row r="361" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="361" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N361">
         <v>357</v>
       </c>
@@ -40652,7 +40652,7 @@
         <v>-5.2335956242944369E-2</v>
       </c>
     </row>
-    <row r="362" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="362" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N362">
         <v>358</v>
       </c>
@@ -40663,7 +40663,7 @@
         <v>-3.4899496702500823E-2</v>
       </c>
     </row>
-    <row r="363" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="363" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N363">
         <v>359</v>
       </c>
@@ -40674,7 +40674,7 @@
         <v>-1.7452406437284448E-2</v>
       </c>
     </row>
-    <row r="364" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="364" spans="14:16" x14ac:dyDescent="0.55000000000000004">
       <c r="N364">
         <v>360</v>
       </c>
@@ -40699,9 +40699,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="3" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I3" t="s">
         <v>15</v>
       </c>
@@ -40709,7 +40709,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I4">
         <v>55</v>
       </c>
@@ -40723,7 +40723,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="5" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I5">
         <v>20</v>
       </c>
@@ -40737,7 +40737,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I6">
         <v>77</v>
       </c>
@@ -40751,7 +40751,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I7">
         <v>182</v>
       </c>
@@ -40765,7 +40765,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I8">
         <v>190</v>
       </c>
@@ -40779,7 +40779,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I9">
         <v>140</v>
       </c>
@@ -40793,7 +40793,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I10">
         <v>156</v>
       </c>
@@ -40807,7 +40807,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I11">
         <v>178</v>
       </c>
@@ -40821,7 +40821,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I12">
         <v>45</v>
       </c>
@@ -40835,7 +40835,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="13" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I13">
         <v>156</v>
       </c>
@@ -40849,7 +40849,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="14" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I14">
         <v>181</v>
       </c>
@@ -40863,7 +40863,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I15">
         <v>115</v>
       </c>
@@ -40877,7 +40877,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I16">
         <v>123</v>
       </c>
@@ -40891,7 +40891,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="17" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I17">
         <v>152</v>
       </c>
@@ -40905,7 +40905,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I18">
         <v>129</v>
       </c>
@@ -40919,7 +40919,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="19" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I19">
         <v>90</v>
       </c>
@@ -40933,7 +40933,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="21" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I21">
         <v>75</v>
       </c>
@@ -40941,7 +40941,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I22">
         <v>50</v>
       </c>
@@ -40949,7 +40949,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I23">
         <v>25</v>
       </c>
@@ -40957,7 +40957,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="24" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I24">
         <v>75</v>
       </c>
@@ -40965,7 +40965,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I25">
         <v>50</v>
       </c>
@@ -40973,7 +40973,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="26" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I26">
         <v>25</v>
       </c>
@@ -40981,7 +40981,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="27" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I27">
         <v>75</v>
       </c>
@@ -40989,7 +40989,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="28" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I28">
         <v>125</v>
       </c>
@@ -40997,7 +40997,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I29">
         <v>150</v>
       </c>
@@ -41005,7 +41005,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="30" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I30">
         <v>175</v>
       </c>
@@ -41013,7 +41013,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I31">
         <v>150</v>
       </c>
@@ -41021,7 +41021,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I32">
         <v>125</v>
       </c>
@@ -41029,7 +41029,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="39" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I39">
         <v>4</v>
       </c>
@@ -41037,7 +41037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I40">
         <v>6</v>
       </c>
@@ -41045,7 +41045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I41">
         <v>1</v>
       </c>
@@ -41053,7 +41053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I42">
         <v>7</v>
       </c>
@@ -41061,7 +41061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I43">
         <v>4</v>
       </c>
@@ -41069,7 +41069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I45">
         <v>9</v>
       </c>
@@ -41077,7 +41077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I46">
         <v>7</v>
       </c>
@@ -41085,7 +41085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I47">
         <v>9</v>
       </c>
@@ -41093,7 +41093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I48">
         <v>5</v>
       </c>
@@ -41101,7 +41101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I49">
         <v>2</v>
       </c>
@@ -41109,7 +41109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I57" t="s">
         <v>41</v>
       </c>
@@ -41127,9 +41127,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="3" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I3" s="4" t="s">
         <v>24</v>
       </c>
@@ -41149,7 +41149,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I4" s="5">
         <v>39692</v>
       </c>
@@ -41169,7 +41169,7 @@
         <v>100.94</v>
       </c>
     </row>
-    <row r="5" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I5" s="5">
         <v>39693</v>
       </c>
@@ -41189,7 +41189,7 @@
         <v>93.45</v>
       </c>
     </row>
-    <row r="6" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I6" s="5">
         <v>39694</v>
       </c>
@@ -41209,7 +41209,7 @@
         <v>99.89</v>
       </c>
     </row>
-    <row r="7" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I7" s="5">
         <v>39695</v>
       </c>
@@ -41229,7 +41229,7 @@
         <v>99.45</v>
       </c>
     </row>
-    <row r="8" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I8" s="5">
         <v>39696</v>
       </c>
@@ -41249,7 +41249,7 @@
         <v>104.33</v>
       </c>
     </row>
-    <row r="9" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I9" s="5">
         <v>39699</v>
       </c>
@@ -41269,7 +41269,7 @@
         <v>102.17</v>
       </c>
     </row>
-    <row r="10" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I10" s="5">
         <v>39700</v>
       </c>
@@ -41289,7 +41289,7 @@
         <v>110.07</v>
       </c>
     </row>
-    <row r="11" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I11" s="5">
         <v>39701</v>
       </c>
@@ -41309,7 +41309,7 @@
         <v>112.39</v>
       </c>
     </row>
-    <row r="12" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I12" s="5">
         <v>39702</v>
       </c>
@@ -41329,7 +41329,7 @@
         <v>117.52</v>
       </c>
     </row>
-    <row r="13" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I13" s="5">
         <v>39703</v>
       </c>
@@ -41349,7 +41349,7 @@
         <v>114.75</v>
       </c>
     </row>
-    <row r="14" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I14" s="5">
         <v>39706</v>
       </c>
@@ -41369,7 +41369,7 @@
         <v>116.85</v>
       </c>
     </row>
-    <row r="15" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I15" s="5">
         <v>39707</v>
       </c>
@@ -41389,7 +41389,7 @@
         <v>116.69</v>
       </c>
     </row>
-    <row r="16" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I16" s="5">
         <v>39708</v>
       </c>
@@ -41409,7 +41409,7 @@
         <v>117.25</v>
       </c>
     </row>
-    <row r="17" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I17" s="5">
         <v>39709</v>
       </c>
@@ -41429,7 +41429,7 @@
         <v>112.52</v>
       </c>
     </row>
-    <row r="18" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I18" s="5">
         <v>39710</v>
       </c>
@@ -41449,7 +41449,7 @@
         <v>109.12</v>
       </c>
     </row>
-    <row r="19" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I19" s="5">
         <v>39713</v>
       </c>
@@ -41469,7 +41469,7 @@
         <v>101.56</v>
       </c>
     </row>
-    <row r="20" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I20" s="5">
         <v>39714</v>
       </c>
@@ -41489,7 +41489,7 @@
         <v>97.23</v>
       </c>
     </row>
-    <row r="21" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I21" s="5">
         <v>39715</v>
       </c>
@@ -41509,7 +41509,7 @@
         <v>89.27</v>
       </c>
     </row>
-    <row r="22" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I22" s="5">
         <v>39716</v>
       </c>
@@ -41529,7 +41529,7 @@
         <v>104.23</v>
       </c>
     </row>
-    <row r="23" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I23" s="5">
         <v>39717</v>
       </c>
@@ -41549,7 +41549,7 @@
         <v>109.23</v>
       </c>
     </row>
-    <row r="24" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I24" s="5">
         <v>39720</v>
       </c>
@@ -41569,7 +41569,7 @@
         <v>114.23</v>
       </c>
     </row>
-    <row r="25" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I25" s="5">
         <v>39721</v>
       </c>
@@ -41589,7 +41589,7 @@
         <v>104.17</v>
       </c>
     </row>
-    <row r="26" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I26" s="7">
         <v>39722</v>
       </c>
@@ -41609,7 +41609,7 @@
         <v>113.7</v>
       </c>
     </row>
-    <row r="27" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I27" s="7">
         <v>39723</v>
       </c>
@@ -41629,7 +41629,7 @@
         <v>123.34</v>
       </c>
     </row>
-    <row r="28" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I28" s="7">
         <v>39724</v>
       </c>
@@ -41649,7 +41649,7 @@
         <v>136.22</v>
       </c>
     </row>
-    <row r="29" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I29" s="7">
         <v>39727</v>
       </c>
@@ -41669,7 +41669,7 @@
         <v>126.34</v>
       </c>
     </row>
-    <row r="30" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I30" s="7">
         <v>39728</v>
       </c>
@@ -41689,7 +41689,7 @@
         <v>125.17</v>
       </c>
     </row>
-    <row r="31" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I31" s="7">
         <v>39729</v>
       </c>
@@ -41709,7 +41709,7 @@
         <v>125.87</v>
       </c>
     </row>
-    <row r="32" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I32" s="7">
         <v>39730</v>
       </c>
@@ -41729,7 +41729,7 @@
         <v>129.44</v>
       </c>
     </row>
-    <row r="33" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I33" s="7">
         <v>39731</v>
       </c>
@@ -41762,9 +41762,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="3" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I3" t="s">
         <v>15</v>
       </c>
@@ -41772,7 +41772,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I4">
         <v>125</v>
       </c>
@@ -41792,7 +41792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I5">
         <v>25</v>
       </c>
@@ -41812,7 +41812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I6">
         <v>75</v>
       </c>
@@ -41832,7 +41832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I7">
         <v>175</v>
       </c>
@@ -41852,7 +41852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I21" t="s">
         <v>15</v>
       </c>
@@ -41860,7 +41860,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I22">
         <v>-125</v>
       </c>
@@ -41880,7 +41880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I23">
         <v>-50</v>
       </c>
@@ -41900,7 +41900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I24">
         <v>-60</v>
       </c>
@@ -41920,7 +41920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I25">
         <v>-150</v>
       </c>
@@ -41940,7 +41940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I27" t="s">
         <v>16</v>
       </c>
@@ -41948,7 +41948,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I28">
         <v>-150</v>
       </c>
@@ -41968,7 +41968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I29">
         <v>-50</v>
       </c>
@@ -41988,7 +41988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I30">
         <v>-100</v>
       </c>
@@ -42008,7 +42008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I31">
         <v>-164</v>
       </c>
@@ -42028,7 +42028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I39" t="s">
         <v>89</v>
       </c>
@@ -42036,7 +42036,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I40">
         <v>125</v>
       </c>
@@ -42056,7 +42056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I41">
         <v>25</v>
       </c>
@@ -42076,7 +42076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:14" x14ac:dyDescent="0.55000000000000004">
       <c r="I42">
         <v>75</v>
       </c>
@@ -42096,7 +42096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I57" s="16">
         <v>28811.123114455073</v>
       </c>
@@ -42107,7 +42107,7 @@
         <v>333333</v>
       </c>
     </row>
-    <row r="58" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I58" s="16">
         <v>24349.412195871049</v>
       </c>
@@ -42118,7 +42118,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="59" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I59" s="16">
         <v>8322.9505871055389</v>
       </c>
@@ -42129,7 +42129,7 @@
         <v>29113.92877766228</v>
       </c>
     </row>
-    <row r="60" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I60" s="16">
         <v>45802.612193303525</v>
       </c>
@@ -42140,7 +42140,7 @@
         <v>84997.602378629759</v>
       </c>
     </row>
-    <row r="61" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I61" s="16">
         <v>71851.489531002881</v>
       </c>
@@ -42151,7 +42151,7 @@
         <v>67089.897019332813</v>
       </c>
     </row>
-    <row r="62" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I62" s="16">
         <v>40000</v>
       </c>
@@ -42175,9 +42175,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="3" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I3" s="9">
         <v>36</v>
       </c>
@@ -42186,7 +42186,7 @@
       </c>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I4" s="9">
         <v>60</v>
       </c>
@@ -42195,7 +42195,7 @@
       </c>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I5" s="9">
         <v>47</v>
       </c>
@@ -42204,7 +42204,7 @@
       </c>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I6" s="9">
         <v>85</v>
       </c>
@@ -42213,7 +42213,7 @@
       </c>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I7" s="9">
         <v>12</v>
       </c>
@@ -42222,67 +42222,67 @@
       </c>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
     </row>
-    <row r="16" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
     </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I21" s="9">
         <v>8.0123711769512163</v>
       </c>
@@ -42290,7 +42290,7 @@
         <v>55.584003057122985</v>
       </c>
     </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I22" s="9">
         <v>69.849410051082998</v>
       </c>
@@ -42298,7 +42298,7 @@
         <v>98.365763425948344</v>
       </c>
     </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I23" s="9">
         <v>80.637674119627192</v>
       </c>
@@ -42306,7 +42306,7 @@
         <v>52.002875658967262</v>
       </c>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I24" s="9">
         <v>68.16700490061325</v>
       </c>
@@ -42314,7 +42314,7 @@
         <v>39.705138336499687</v>
       </c>
     </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I25" s="9">
         <v>96.118059277974837</v>
       </c>
@@ -42322,7 +42322,7 @@
         <v>21.957455603117658</v>
       </c>
     </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I26" s="9">
         <v>92.93617469780466</v>
       </c>
@@ -42330,7 +42330,7 @@
         <v>9.1042103573020672</v>
       </c>
     </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I27" s="9">
         <v>78.595406194506268</v>
       </c>
@@ -42338,7 +42338,7 @@
         <v>31.940606490863477</v>
       </c>
     </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I28" s="9">
         <v>35.083491722243146</v>
       </c>
@@ -42346,7 +42346,7 @@
         <v>66.053320544047295</v>
       </c>
     </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I29" s="9">
         <v>88.517985699947218</v>
       </c>
@@ -42354,7 +42354,7 @@
         <v>62.087222348332681</v>
       </c>
     </row>
-    <row r="30" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I30" s="9">
         <v>82.356746686315319</v>
       </c>
@@ -42362,7 +42362,7 @@
         <v>80.161402898655211</v>
       </c>
     </row>
-    <row r="31" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I31" s="9">
         <v>69.476719881170638</v>
       </c>
@@ -42370,7 +42370,7 @@
         <v>74.861705221233237</v>
       </c>
     </row>
-    <row r="32" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="9:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I32" s="9">
         <v>75.549059075165729</v>
       </c>
@@ -42378,7 +42378,7 @@
         <v>86.124988989414049</v>
       </c>
     </row>
-    <row r="39" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I39" s="9">
         <v>45.220395349547182</v>
       </c>
@@ -42386,7 +42386,7 @@
         <v>85.980142836819724</v>
       </c>
     </row>
-    <row r="40" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I40" s="9">
         <v>88.555520247160487</v>
       </c>
@@ -42394,7 +42394,7 @@
         <v>22.894092658616749</v>
       </c>
     </row>
-    <row r="41" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I41" s="9">
         <v>53.832581125157851</v>
       </c>
@@ -42402,7 +42402,7 @@
         <v>9.7350205712403159</v>
       </c>
     </row>
-    <row r="42" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I42" s="9">
         <v>82.347363801442526</v>
       </c>
@@ -42410,7 +42410,7 @@
         <v>3.8991620565858476</v>
       </c>
     </row>
-    <row r="43" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I43" s="9">
         <v>70.186832009811553</v>
       </c>
@@ -42418,7 +42418,7 @@
         <v>27.76551559170013</v>
       </c>
     </row>
-    <row r="44" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I44" s="9">
         <v>20.586256956726512</v>
       </c>
@@ -42426,7 +42426,7 @@
         <v>94.167466176006883</v>
       </c>
     </row>
-    <row r="45" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I45" s="9">
         <v>18.425707231791755</v>
       </c>
@@ -42434,7 +42434,7 @@
         <v>82.219644249988022</v>
       </c>
     </row>
-    <row r="46" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="9:10" x14ac:dyDescent="0.55000000000000004">
       <c r="I46" s="9">
         <v>30.124128792957894</v>
       </c>
@@ -42442,7 +42442,7 @@
         <v>57.636855311487082</v>
       </c>
     </row>
-    <row r="57" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I57" t="s">
         <v>31</v>
       </c>
@@ -42456,7 +42456,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I58">
         <v>1</v>
       </c>
@@ -42470,7 +42470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I59">
         <v>2</v>
       </c>
@@ -42484,7 +42484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I60">
         <v>3</v>
       </c>
@@ -42498,7 +42498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I61">
         <v>2</v>
       </c>
@@ -42512,7 +42512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I62">
         <v>1</v>
       </c>
@@ -42526,7 +42526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I63">
         <v>0</v>
       </c>
@@ -42540,7 +42540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I64">
         <v>0</v>
       </c>
@@ -42554,7 +42554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I65">
         <v>0</v>
       </c>
@@ -42568,7 +42568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I66">
         <v>0</v>
       </c>
@@ -42582,7 +42582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I67">
         <v>0</v>
       </c>
@@ -42596,7 +42596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I68">
         <v>0</v>
       </c>
@@ -42610,7 +42610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I69">
         <v>0</v>
       </c>
@@ -42624,7 +42624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I70">
         <v>0</v>
       </c>
@@ -42638,7 +42638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I71">
         <v>0</v>
       </c>
@@ -42652,7 +42652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I72">
         <v>0</v>
       </c>
@@ -42666,7 +42666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I73">
         <v>0</v>
       </c>
@@ -42680,7 +42680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I74">
         <v>0</v>
       </c>
@@ -42694,7 +42694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I75">
         <v>0</v>
       </c>
@@ -42708,7 +42708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I76">
         <v>0</v>
       </c>
@@ -42722,7 +42722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="9:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I77">
         <v>0</v>
       </c>
